--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094C091-4D43-5844-ACA8-FC5D6EBEFD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A8F19-4AE1-844D-978E-16082F9525D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="31700" windowHeight="20860" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView minimized="1" xWindow="500" yWindow="520" windowWidth="31700" windowHeight="20860" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
   <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J118" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N144" sqref="N144"/>
+      <selection pane="bottomRight" activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,10 @@
     <col min="23" max="23" width="10.83203125" style="12"/>
     <col min="24" max="25" width="10.83203125" style="15"/>
     <col min="26" max="26" width="10.83203125" style="16"/>
-    <col min="27" max="31" width="10.83203125" style="19"/>
+    <col min="27" max="27" width="2.1640625" style="19" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="19" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="19" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="19"/>
     <col min="32" max="32" width="10.83203125" style="22"/>
     <col min="33" max="36" width="10.83203125" style="11"/>
   </cols>
@@ -14469,7 +14472,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>128</v>
       </c>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A8F19-4AE1-844D-978E-16082F9525D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A14B8F-F301-D048-9D73-5005D8CE7C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="500" yWindow="520" windowWidth="31700" windowHeight="20860" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="31700" windowHeight="20860" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="98">
   <si>
     <t>Run parameters</t>
   </si>
@@ -106,15 +106,6 @@
   </si>
   <si>
     <t>Length (Chamber-Filter m)</t>
-  </si>
-  <si>
-    <t>Upstream</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Downstream</t>
   </si>
   <si>
     <t>#1 pos from upstream</t>
@@ -319,6 +310,24 @@
   </si>
   <si>
     <t>Ni foil on front of VCD Pb shielding, 0.18 g, counting on IAC detector</t>
+  </si>
+  <si>
+    <t>Upstream Inlet</t>
+  </si>
+  <si>
+    <t>Center Inlet</t>
+  </si>
+  <si>
+    <t>Downstream Inlet</t>
+  </si>
+  <si>
+    <t>Upstream Outlet</t>
+  </si>
+  <si>
+    <t>Center Outlet</t>
+  </si>
+  <si>
+    <t>Downstream Outlet</t>
   </si>
 </sst>
 </file>
@@ -644,10 +653,52 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,48 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,10 +1045,10 @@
   <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R131" sqref="R131"/>
+      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,58 +1070,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94" t="s">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94" t="s">
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="94"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="90" t="s">
+      <c r="V1" s="86"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="93" t="s">
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="94"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
     </row>
     <row r="2" spans="1:38" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -1167,61 +1176,61 @@
         <v>23</v>
       </c>
       <c r="R2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="Y2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="Z2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="53" t="s">
+      <c r="AA2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="AB2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="AC2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AD2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AE2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="55" t="s">
-        <v>34</v>
-      </c>
       <c r="AF2" s="56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG2" s="51" t="s">
         <v>18</v>
       </c>
       <c r="AH2" s="51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI2" s="51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AJ2" s="51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
@@ -1235,7 +1244,7 @@
         <v>0.40127314814814818</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>21.5</v>
@@ -1256,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L3" s="11">
         <v>0.5</v>
@@ -1286,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="16">
         <v>0</v>
@@ -1311,19 +1320,19 @@
         <v>2</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH3" s="24">
         <v>8</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AJ3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="58" t="s">
         <v>41</v>
-      </c>
-      <c r="AL3" s="58" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -1356,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="11">
         <v>0.5</v>
@@ -1386,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="16">
         <v>0</v>
@@ -1411,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="11">
         <v>8</v>
@@ -1420,7 +1429,7 @@
         <v>3500</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -1453,7 +1462,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="11">
         <v>0.5</v>
@@ -1489,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="16">
         <v>0</v>
@@ -1514,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="AG5" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH5" s="11">
         <v>8</v>
@@ -1523,7 +1532,7 @@
         <v>3500</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -1556,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" s="11">
         <v>0.5</v>
@@ -1592,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z6" s="16">
         <v>0</v>
@@ -1617,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH6" s="11">
         <v>8</v>
@@ -1626,7 +1635,7 @@
         <v>3500</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1648,7 @@
       <c r="C7" s="31">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="9">
         <v>21.5</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7" s="13">
         <v>0.5</v>
@@ -1696,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="18">
         <v>0</v>
@@ -1721,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH7" s="13">
         <v>8</v>
@@ -1730,7 +1739,7 @@
         <v>3500</v>
       </c>
       <c r="AJ7" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -1744,7 +1753,7 @@
         <v>0.44421296296296298</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7">
         <v>21.5</v>
@@ -1765,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L8" s="11">
         <v>0.4</v>
@@ -1801,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z8" s="16">
         <v>0</v>
@@ -1826,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="AG8" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH8" s="11">
         <v>8</v>
@@ -1835,10 +1844,10 @@
         <v>3500</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -1871,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L9" s="11">
         <v>0.4</v>
@@ -1907,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="16">
         <v>0</v>
@@ -1932,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH9" s="11">
         <v>8</v>
@@ -1941,7 +1950,7 @@
         <v>3500</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -1974,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L10" s="11">
         <v>0.3</v>
@@ -2010,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z10" s="16">
         <v>0</v>
@@ -2035,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="AG10" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH10" s="11">
         <v>10</v>
@@ -2044,7 +2053,7 @@
         <v>3500</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -2077,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L11" s="11">
         <v>0.25</v>
@@ -2113,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="16">
         <v>0</v>
@@ -2138,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH11" s="11">
         <v>10</v>
@@ -2147,7 +2156,7 @@
         <v>3500</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -2180,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" s="11">
         <v>0.2</v>
@@ -2216,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z12" s="16">
         <v>0</v>
@@ -2241,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="AG12" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH12" s="11">
         <v>10</v>
@@ -2250,7 +2259,7 @@
         <v>3500</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -2283,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L13" s="11">
         <v>0.1</v>
@@ -2319,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y13" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="16">
         <v>0</v>
@@ -2344,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH13" s="11">
         <v>10</v>
@@ -2353,7 +2362,7 @@
         <v>3500</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2366,7 +2375,7 @@
       <c r="C14" s="31">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="9">
         <v>21.5</v>
       </c>
@@ -2386,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L14" s="13">
         <v>0.05</v>
@@ -2423,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z14" s="18">
         <v>0</v>
@@ -2448,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="AG14" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH14" s="13">
         <v>10</v>
@@ -2457,7 +2466,7 @@
         <v>3500</v>
       </c>
       <c r="AJ14" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
@@ -2471,7 +2480,7 @@
         <v>0.5020486111111111</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7">
         <v>21.5</v>
@@ -2492,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -2528,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z15" s="16">
         <v>0</v>
@@ -2553,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="AG15" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH15" s="11">
         <v>10</v>
@@ -2562,7 +2571,7 @@
         <v>3500</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
@@ -2595,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L16" s="11">
         <v>0.1</v>
@@ -2631,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z16" s="16">
         <v>0</v>
@@ -2656,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="AG16" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH16" s="11">
         <v>12</v>
@@ -2665,7 +2674,7 @@
         <v>3500</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
@@ -2698,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L17" s="11">
         <v>0.2</v>
@@ -2734,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z17" s="16">
         <v>0</v>
@@ -2759,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="AG17" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH17" s="11">
         <v>12</v>
@@ -2768,7 +2777,7 @@
         <v>3500</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
@@ -2801,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L18" s="11">
         <v>0.3</v>
@@ -2837,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y18" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z18" s="16">
         <v>0</v>
@@ -2862,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="AG18" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH18" s="11">
         <v>12</v>
@@ -2871,7 +2880,7 @@
         <v>3500</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
@@ -2904,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L19" s="11">
         <v>0.4</v>
@@ -2940,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y19" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z19" s="16">
         <v>0</v>
@@ -2965,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="AG19" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH19" s="11">
         <v>12</v>
@@ -2974,7 +2983,7 @@
         <v>3500</v>
       </c>
       <c r="AJ19" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2985,7 +2994,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="80"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="9">
         <v>21.5</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L20" s="13">
         <v>0.5</v>
@@ -3042,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z20" s="18">
         <v>0</v>
@@ -3067,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="AG20" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH20" s="13">
         <v>12</v>
@@ -3076,7 +3085,7 @@
         <v>3500</v>
       </c>
       <c r="AJ20" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
@@ -3090,7 +3099,7 @@
         <v>0.55019675925925926</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="7">
         <v>21.5</v>
@@ -3111,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L21" s="26">
         <v>0.25</v>
@@ -3147,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y21" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z21" s="16">
         <v>0</v>
@@ -3172,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="AG21" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH21" s="11">
         <v>12</v>
@@ -3181,10 +3190,10 @@
         <v>3500</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
@@ -3217,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L22" s="26">
         <v>0.25</v>
@@ -3253,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z22" s="16">
         <v>0</v>
@@ -3278,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="AG22" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH22" s="11">
         <v>12</v>
@@ -3287,7 +3296,7 @@
         <v>3500</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3300,7 +3309,7 @@
       <c r="C23" s="31">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="9">
         <v>21.5</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L23" s="33">
         <v>0.25</v>
@@ -3357,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z23" s="18">
         <v>0</v>
@@ -3382,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="AG23" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH23" s="13">
         <v>12</v>
@@ -3391,7 +3400,7 @@
         <v>3500</v>
       </c>
       <c r="AJ23" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
@@ -3405,7 +3414,7 @@
         <v>0.57002314814814814</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="7">
         <v>21.5</v>
@@ -3426,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L24" s="26">
         <v>0.25</v>
@@ -3463,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z24" s="16">
         <v>0</v>
@@ -3488,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="AG24" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH24" s="11">
         <v>12</v>
@@ -3497,7 +3506,7 @@
         <v>3500</v>
       </c>
       <c r="AJ24" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
@@ -3530,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L25" s="26">
         <v>0.25</v>
@@ -3567,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="X25" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z25" s="16">
         <v>0</v>
@@ -3592,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH25" s="11">
         <v>12</v>
@@ -3601,7 +3610,7 @@
         <v>3500</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
@@ -3634,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L26" s="11">
         <v>0.5</v>
@@ -3671,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y26" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z26" s="16">
         <v>0</v>
@@ -3696,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="AG26" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH26" s="11">
         <v>12</v>
@@ -3705,7 +3714,7 @@
         <v>3500</v>
       </c>
       <c r="AJ26" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
@@ -3738,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L27" s="11">
         <v>0.5</v>
@@ -3775,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z27" s="16">
         <v>0</v>
@@ -3800,7 +3809,7 @@
         <v>2</v>
       </c>
       <c r="AG27" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH27" s="11">
         <v>12</v>
@@ -3809,7 +3818,7 @@
         <v>3500</v>
       </c>
       <c r="AJ27" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
@@ -3842,7 +3851,7 @@
         <v>3</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L28" s="11">
         <v>0.25</v>
@@ -3879,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z28" s="16">
         <v>0</v>
@@ -3904,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="AG28" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH28" s="11">
         <v>12</v>
@@ -3913,7 +3922,7 @@
         <v>3500</v>
       </c>
       <c r="AJ28" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
@@ -3946,7 +3955,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L29" s="11">
         <v>0.25</v>
@@ -3983,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="X29" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z29" s="16">
         <v>0</v>
@@ -4008,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="AG29" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH29" s="11">
         <v>12</v>
@@ -4017,7 +4026,7 @@
         <v>3500</v>
       </c>
       <c r="AJ29" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
@@ -4050,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L30" s="11">
         <v>0.5</v>
@@ -4087,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y30" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z30" s="16">
         <v>0</v>
@@ -4112,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH30" s="11">
         <v>12</v>
@@ -4121,7 +4130,7 @@
         <v>3500</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4134,7 +4143,7 @@
       <c r="C31" s="31">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="9">
         <v>21.5</v>
       </c>
@@ -4154,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L31" s="13">
         <v>0.5</v>
@@ -4192,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z31" s="18">
         <v>0</v>
@@ -4217,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="AG31" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH31" s="13">
         <v>12</v>
@@ -4226,7 +4235,7 @@
         <v>3500</v>
       </c>
       <c r="AJ31" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
@@ -4240,7 +4249,7 @@
         <v>0.61603009259259256</v>
       </c>
       <c r="D32" s="77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" s="7">
         <v>21.5</v>
@@ -4261,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L32" s="11">
         <v>0.5</v>
@@ -4298,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="X32" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z32" s="16">
         <v>0</v>
@@ -4323,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH32" s="11">
         <v>12</v>
@@ -4332,7 +4341,7 @@
         <v>3500</v>
       </c>
       <c r="AJ32" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
@@ -4365,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L33" s="11">
         <v>0.5</v>
@@ -4402,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="X33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y33" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z33" s="16">
         <v>0</v>
@@ -4427,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="AG33" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH33" s="11">
         <v>12</v>
@@ -4436,7 +4445,7 @@
         <v>3500</v>
       </c>
       <c r="AJ33" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.2">
@@ -4469,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L34" s="11">
         <v>0.5</v>
@@ -4509,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z34" s="16">
         <v>0</v>
@@ -4534,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="AG34" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH34" s="11">
         <v>12</v>
@@ -4543,7 +4552,7 @@
         <v>3500</v>
       </c>
       <c r="AJ34" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.2">
@@ -4576,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L35" s="11">
         <v>0.5</v>
@@ -4616,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="X35" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y35" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z35" s="16">
         <v>0</v>
@@ -4641,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="AG35" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH35" s="11">
         <v>12</v>
@@ -4650,7 +4659,7 @@
         <v>3500</v>
       </c>
       <c r="AJ35" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
@@ -4683,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L36" s="11">
         <v>0.5</v>
@@ -4723,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y36" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z36" s="16">
         <v>0</v>
@@ -4748,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="AG36" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH36" s="11">
         <v>12</v>
@@ -4757,7 +4766,7 @@
         <v>3500</v>
       </c>
       <c r="AJ36" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
@@ -4790,7 +4799,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L37" s="11">
         <v>0.5</v>
@@ -4830,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y37" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z37" s="16">
         <v>0</v>
@@ -4855,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="AG37" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH37" s="11">
         <v>12</v>
@@ -4864,7 +4873,7 @@
         <v>3500</v>
       </c>
       <c r="AJ37" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
@@ -4897,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L38" s="11">
         <v>0.5</v>
@@ -4937,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z38" s="16">
         <v>0</v>
@@ -4962,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="AG38" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH38" s="11">
         <v>12</v>
@@ -4971,7 +4980,7 @@
         <v>3500</v>
       </c>
       <c r="AJ38" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4984,7 +4993,7 @@
       <c r="C39" s="31">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="80"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="9">
         <v>21.5</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L39" s="13">
         <v>0.5</v>
@@ -5044,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="X39" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z39" s="18">
         <v>0</v>
@@ -5069,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="AG39" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH39" s="13">
         <v>12</v>
@@ -5078,7 +5087,7 @@
         <v>3500</v>
       </c>
       <c r="AJ39" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
@@ -5092,7 +5101,7 @@
         <v>0.67921296296296296</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E40" s="7">
         <v>21.5</v>
@@ -5113,7 +5122,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L40" s="11">
         <v>0.5</v>
@@ -5150,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z40" s="16">
         <v>0</v>
@@ -5175,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="AG40" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH40" s="11">
         <v>12</v>
@@ -5184,10 +5193,10 @@
         <v>3500</v>
       </c>
       <c r="AJ40" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
@@ -5220,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L41" s="11">
         <v>0.5</v>
@@ -5257,10 +5266,10 @@
         <v>1</v>
       </c>
       <c r="X41" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z41" s="16">
         <v>0</v>
@@ -5282,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="AG41" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH41" s="11">
         <v>12</v>
@@ -5291,7 +5300,7 @@
         <v>3500</v>
       </c>
       <c r="AJ41" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
@@ -5324,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L42" s="11">
         <v>0.25</v>
@@ -5361,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="X42" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z42" s="16">
         <v>0</v>
@@ -5386,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="AG42" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH42" s="11">
         <v>12</v>
@@ -5395,7 +5404,7 @@
         <v>3500</v>
       </c>
       <c r="AJ42" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
@@ -5428,7 +5437,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L43" s="11">
         <v>0.25</v>
@@ -5465,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z43" s="16">
         <v>0</v>
@@ -5490,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH43" s="11">
         <v>12</v>
@@ -5499,7 +5508,7 @@
         <v>3500</v>
       </c>
       <c r="AJ43" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
@@ -5532,7 +5541,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L44" s="11">
         <v>0.25</v>
@@ -5569,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="X44" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y44" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z44" s="16">
         <v>0</v>
@@ -5594,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="AG44" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH44" s="11">
         <v>12</v>
@@ -5603,7 +5612,7 @@
         <v>3500</v>
       </c>
       <c r="AJ44" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5625,7 @@
       <c r="C45" s="37">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="79"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="38">
         <v>21.5</v>
       </c>
@@ -5636,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L45" s="40">
         <v>0.5</v>
@@ -5674,10 +5683,10 @@
         <v>1</v>
       </c>
       <c r="X45" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y45" s="42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z45" s="43">
         <v>0</v>
@@ -5699,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="AG45" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH45" s="40">
         <v>12</v>
@@ -5708,7 +5717,7 @@
         <v>3500</v>
       </c>
       <c r="AJ45" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.2">
@@ -5722,7 +5731,7 @@
         <v>0.36270833333333335</v>
       </c>
       <c r="D46" s="78" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46" s="7">
         <v>21.5</v>
@@ -5743,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L46" s="11">
         <v>0.25</v>
@@ -5780,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z46" s="16">
         <v>0</v>
@@ -5804,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="AG46" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH46" s="24">
         <v>12</v>
@@ -5813,10 +5822,10 @@
         <v>3500</v>
       </c>
       <c r="AJ46" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.2">
@@ -5849,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L47" s="11">
         <v>0.25</v>
@@ -5886,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="X47" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y47" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z47" s="16">
         <v>0</v>
@@ -5910,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="AG47" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH47" s="24">
         <v>12</v>
@@ -5919,10 +5928,10 @@
         <v>3500</v>
       </c>
       <c r="AJ47" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
@@ -5955,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L48" s="11">
         <v>0.25</v>
@@ -5992,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z48" s="16">
         <v>0</v>
@@ -6016,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="AG48" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH48" s="24">
         <v>12</v>
@@ -6025,7 +6034,7 @@
         <v>3500</v>
       </c>
       <c r="AJ48" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
@@ -6058,7 +6067,7 @@
         <v>3</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L49" s="11">
         <v>0.5</v>
@@ -6095,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="X49" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y49" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z49" s="16">
         <v>0</v>
@@ -6119,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="AG49" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH49" s="24">
         <v>12</v>
@@ -6128,7 +6137,7 @@
         <v>3500</v>
       </c>
       <c r="AJ49" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6141,7 +6150,7 @@
       <c r="C50" s="31">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="80"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="9">
         <v>21.5</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L50" s="13">
         <v>0.5</v>
@@ -6199,10 +6208,10 @@
         <v>0</v>
       </c>
       <c r="X50" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y50" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z50" s="18">
         <v>0</v>
@@ -6224,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="AG50" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH50" s="13">
         <v>12</v>
@@ -6233,7 +6242,7 @@
         <v>3500</v>
       </c>
       <c r="AJ50" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.2">
@@ -6247,7 +6256,7 @@
         <v>0.41876157407407405</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E51" s="7">
         <v>21.5</v>
@@ -6268,7 +6277,7 @@
         <v>3</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L51" s="11">
         <v>0.5</v>
@@ -6305,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="X51" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y51" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z51" s="16">
         <v>0</v>
@@ -6329,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="AG51" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH51" s="24">
         <v>12</v>
@@ -6338,7 +6347,7 @@
         <v>3500</v>
       </c>
       <c r="AJ51" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
@@ -6371,7 +6380,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L52" s="11">
         <v>0.5</v>
@@ -6408,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z52" s="16">
         <v>0</v>
@@ -6432,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="AG52" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH52" s="24">
         <v>12</v>
@@ -6441,7 +6450,7 @@
         <v>3500</v>
       </c>
       <c r="AJ52" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
@@ -6474,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L53" s="11">
         <v>0.25</v>
@@ -6511,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="X53" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y53" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z53" s="16">
         <v>0</v>
@@ -6535,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="AG53" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH53" s="24">
         <v>12</v>
@@ -6544,7 +6553,7 @@
         <v>3500</v>
       </c>
       <c r="AJ53" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
@@ -6577,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L54" s="11">
         <v>0.25</v>
@@ -6614,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="X54" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z54" s="16">
         <v>0</v>
@@ -6638,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="AG54" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH54" s="24">
         <v>12</v>
@@ -6647,7 +6656,7 @@
         <v>3500</v>
       </c>
       <c r="AJ54" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
@@ -6680,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L55" s="11">
         <v>0.25</v>
@@ -6717,10 +6726,10 @@
         <v>1</v>
       </c>
       <c r="X55" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y55" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z55" s="16">
         <v>0</v>
@@ -6741,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="AG55" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH55" s="24">
         <v>12</v>
@@ -6750,10 +6759,10 @@
         <v>3500</v>
       </c>
       <c r="AJ55" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
@@ -6786,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L56" s="11">
         <v>0.25</v>
@@ -6823,10 +6832,10 @@
         <v>1</v>
       </c>
       <c r="X56" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z56" s="16">
         <v>0</v>
@@ -6847,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH56" s="24">
         <v>12</v>
@@ -6856,7 +6865,7 @@
         <v>3500</v>
       </c>
       <c r="AJ56" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -6889,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L57" s="11">
         <v>0.5</v>
@@ -6926,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="X57" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y57" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z57" s="16">
         <v>0</v>
@@ -6950,7 +6959,7 @@
         <v>2</v>
       </c>
       <c r="AG57" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH57" s="24">
         <v>12</v>
@@ -6959,7 +6968,7 @@
         <v>3500</v>
       </c>
       <c r="AJ57" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6972,7 +6981,7 @@
       <c r="C58" s="31">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="9">
         <v>21.5</v>
       </c>
@@ -6992,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L58" s="13">
         <v>0.5</v>
@@ -7030,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="X58" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y58" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z58" s="18">
         <v>0</v>
@@ -7055,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="AG58" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH58" s="13">
         <v>12</v>
@@ -7064,7 +7073,7 @@
         <v>3500</v>
       </c>
       <c r="AJ58" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -7078,7 +7087,7 @@
         <v>0.48099537037037038</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E59" s="7">
         <v>21.5</v>
@@ -7099,7 +7108,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L59" s="11">
         <v>0.5</v>
@@ -7136,10 +7145,10 @@
         <v>1</v>
       </c>
       <c r="X59" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y59" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z59" s="16">
         <v>0</v>
@@ -7160,7 +7169,7 @@
         <v>2</v>
       </c>
       <c r="AG59" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH59" s="24">
         <v>12</v>
@@ -7169,7 +7178,7 @@
         <v>3500</v>
       </c>
       <c r="AJ59" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -7183,7 +7192,7 @@
         <v>0.49325231481481485</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E60" s="7">
         <v>21.5</v>
@@ -7204,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L60" s="11">
         <v>0.5</v>
@@ -7241,10 +7250,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z60" s="16">
         <v>0</v>
@@ -7265,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="AG60" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH60" s="24">
         <v>12</v>
@@ -7274,7 +7283,7 @@
         <v>3500</v>
       </c>
       <c r="AJ60" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7307,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L61" s="13">
         <v>0.5</v>
@@ -7345,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="X61" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y61" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z61" s="18">
         <v>0</v>
@@ -7370,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="AG61" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH61" s="13">
         <v>12</v>
@@ -7379,7 +7388,7 @@
         <v>3500</v>
       </c>
       <c r="AJ61" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -7392,8 +7401,8 @@
       <c r="C62" s="25">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="86" t="s">
-        <v>62</v>
+      <c r="D62" s="100" t="s">
+        <v>59</v>
       </c>
       <c r="E62" s="7">
         <v>21.5</v>
@@ -7414,7 +7423,7 @@
         <v>3</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L62" s="11">
         <v>0.5</v>
@@ -7451,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="X62" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z62" s="16">
         <v>0</v>
@@ -7475,7 +7484,7 @@
         <v>2</v>
       </c>
       <c r="AG62" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH62" s="24">
         <v>12</v>
@@ -7484,13 +7493,13 @@
         <v>3500</v>
       </c>
       <c r="AJ62" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AL62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AN62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -7503,7 +7512,7 @@
       <c r="C63" s="25">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="87"/>
+      <c r="D63" s="101"/>
       <c r="E63" s="7">
         <v>21.5</v>
       </c>
@@ -7523,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L63" s="11">
         <v>0.5</v>
@@ -7560,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="X63" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y63" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z63" s="16">
         <v>0</v>
@@ -7584,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="AG63" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH63" s="24">
         <v>12</v>
@@ -7593,10 +7602,10 @@
         <v>3500</v>
       </c>
       <c r="AJ63" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7609,7 +7618,7 @@
       <c r="C64" s="31">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="89"/>
+      <c r="D64" s="103"/>
       <c r="E64" s="9">
         <v>21.5</v>
       </c>
@@ -7629,7 +7638,7 @@
         <v>3</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L64" s="13">
         <v>0.5</v>
@@ -7667,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="X64" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y64" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z64" s="18">
         <v>0</v>
@@ -7692,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="AG64" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH64" s="13">
         <v>12</v>
@@ -7701,10 +7710,10 @@
         <v>3500</v>
       </c>
       <c r="AJ64" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.2">
@@ -7717,8 +7726,8 @@
       <c r="C65" s="25">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="81" t="s">
-        <v>69</v>
+      <c r="D65" s="95" t="s">
+        <v>66</v>
       </c>
       <c r="E65" s="7">
         <v>21.5</v>
@@ -7739,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L65" s="11">
         <v>0.5</v>
@@ -7776,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="X65" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y65" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z65" s="16">
         <v>0</v>
@@ -7800,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="AG65" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH65" s="24">
         <v>12</v>
@@ -7809,7 +7818,7 @@
         <v>3500</v>
       </c>
       <c r="AJ65" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.2">
@@ -7822,7 +7831,7 @@
       <c r="C66" s="25">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="82"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="7">
         <v>21.5</v>
       </c>
@@ -7842,7 +7851,7 @@
         <v>3</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L66" s="11">
         <v>0.5</v>
@@ -7879,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="X66" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y66" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z66" s="16">
         <v>0</v>
@@ -7903,7 +7912,7 @@
         <v>2</v>
       </c>
       <c r="AG66" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH66" s="24">
         <v>12</v>
@@ -7912,7 +7921,7 @@
         <v>3500</v>
       </c>
       <c r="AJ66" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.2">
@@ -7925,7 +7934,7 @@
       <c r="C67" s="25">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="82"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="7">
         <v>21.5</v>
       </c>
@@ -7945,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L67" s="11">
         <v>0.25</v>
@@ -7982,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="X67" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y67" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z67" s="16">
         <v>0</v>
@@ -8006,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="AG67" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH67" s="24">
         <v>12</v>
@@ -8015,7 +8024,7 @@
         <v>3500</v>
       </c>
       <c r="AJ67" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8028,7 +8037,7 @@
       <c r="C68" s="31">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="83"/>
+      <c r="D68" s="97"/>
       <c r="E68" s="9">
         <v>21.5</v>
       </c>
@@ -8048,7 +8057,7 @@
         <v>3</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L68" s="13">
         <v>0.25</v>
@@ -8086,10 +8095,10 @@
         <v>0</v>
       </c>
       <c r="X68" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y68" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z68" s="18">
         <v>0</v>
@@ -8111,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="AG68" s="34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH68" s="13">
         <v>12</v>
@@ -8120,7 +8129,7 @@
         <v>3500</v>
       </c>
       <c r="AJ68" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.2">
@@ -8133,8 +8142,8 @@
       <c r="C69" s="25">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="81" t="s">
-        <v>71</v>
+      <c r="D69" s="95" t="s">
+        <v>68</v>
       </c>
       <c r="E69" s="7">
         <v>21.5</v>
@@ -8155,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L69" s="11">
         <v>0.5</v>
@@ -8192,10 +8201,10 @@
         <v>1</v>
       </c>
       <c r="X69" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y69" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z69" s="16">
         <v>0</v>
@@ -8216,7 +8225,7 @@
         <v>2</v>
       </c>
       <c r="AG69" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH69" s="24">
         <v>10</v>
@@ -8225,10 +8234,10 @@
         <v>3500</v>
       </c>
       <c r="AJ69" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.2">
@@ -8241,7 +8250,7 @@
       <c r="C70" s="25">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="82"/>
+      <c r="D70" s="96"/>
       <c r="E70" s="7">
         <v>21.5</v>
       </c>
@@ -8261,7 +8270,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L70" s="11">
         <v>0.5</v>
@@ -8298,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="X70" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y70" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z70" s="16">
         <v>0</v>
@@ -8322,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AG70" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH70" s="24">
         <v>10</v>
@@ -8331,7 +8340,7 @@
         <v>3500</v>
       </c>
       <c r="AJ70" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.2">
@@ -8344,7 +8353,7 @@
       <c r="C71" s="25">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="82"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="7">
         <v>21.5</v>
       </c>
@@ -8364,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L71" s="11">
         <v>0.25</v>
@@ -8400,10 +8409,10 @@
         <v>1</v>
       </c>
       <c r="X71" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y71" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z71" s="62">
         <v>0</v>
@@ -8425,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="AG71" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH71" s="59">
         <v>10</v>
@@ -8434,7 +8443,7 @@
         <v>3500</v>
       </c>
       <c r="AJ71" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.2">
@@ -8447,7 +8456,7 @@
       <c r="C72" s="25">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="82"/>
+      <c r="D72" s="96"/>
       <c r="E72" s="7">
         <v>21.5</v>
       </c>
@@ -8467,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L72" s="11">
         <v>0.25</v>
@@ -8503,10 +8512,10 @@
         <v>1</v>
       </c>
       <c r="X72" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y72" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z72" s="62">
         <v>0</v>
@@ -8528,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="AG72" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH72" s="59">
         <v>10</v>
@@ -8537,7 +8546,7 @@
         <v>3500</v>
       </c>
       <c r="AJ72" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.2">
@@ -8550,7 +8559,7 @@
       <c r="C73" s="25">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="82"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="7">
         <v>21.5</v>
       </c>
@@ -8570,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L73" s="11">
         <v>0.5</v>
@@ -8606,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="X73" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y73" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z73" s="62">
         <v>0</v>
@@ -8631,7 +8640,7 @@
         <v>2</v>
       </c>
       <c r="AG73" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH73" s="59">
         <v>10</v>
@@ -8640,7 +8649,7 @@
         <v>3500</v>
       </c>
       <c r="AJ73" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.2">
@@ -8653,7 +8662,7 @@
       <c r="C74" s="25">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="82"/>
+      <c r="D74" s="96"/>
       <c r="E74" s="7">
         <v>21.5</v>
       </c>
@@ -8673,7 +8682,7 @@
         <v>3</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L74" s="11">
         <v>0.5</v>
@@ -8709,10 +8718,10 @@
         <v>0</v>
       </c>
       <c r="X74" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y74" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z74" s="62">
         <v>0</v>
@@ -8734,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="AG74" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH74" s="59">
         <v>10</v>
@@ -8743,7 +8752,7 @@
         <v>3500</v>
       </c>
       <c r="AJ74" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.2">
@@ -8756,7 +8765,7 @@
       <c r="C75" s="25">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="82"/>
+      <c r="D75" s="96"/>
       <c r="E75" s="7">
         <v>21.5</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>3</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L75" s="26">
         <v>0.25</v>
@@ -8812,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="X75" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y75" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z75" s="62">
         <v>0</v>
@@ -8837,7 +8846,7 @@
         <v>2</v>
       </c>
       <c r="AG75" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH75" s="59">
         <v>10</v>
@@ -8846,7 +8855,7 @@
         <v>3500</v>
       </c>
       <c r="AJ75" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.2">
@@ -8859,7 +8868,7 @@
       <c r="C76" s="25">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="82"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="7">
         <v>21.5</v>
       </c>
@@ -8879,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L76" s="26">
         <v>0.25</v>
@@ -8915,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="X76" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y76" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z76" s="62">
         <v>0</v>
@@ -8940,7 +8949,7 @@
         <v>2</v>
       </c>
       <c r="AG76" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH76" s="59">
         <v>10</v>
@@ -8949,7 +8958,7 @@
         <v>3625</v>
       </c>
       <c r="AJ76" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.2">
@@ -8962,7 +8971,7 @@
       <c r="C77" s="65">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="82"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="7">
         <v>21.5</v>
       </c>
@@ -8982,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L77" s="11">
         <v>0.25</v>
@@ -9018,10 +9027,10 @@
         <v>1</v>
       </c>
       <c r="X77" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y77" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z77" s="62">
         <v>0</v>
@@ -9043,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="AG77" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH77" s="59">
         <v>10</v>
@@ -9052,7 +9061,7 @@
         <v>3625</v>
       </c>
       <c r="AJ77" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.2">
@@ -9065,7 +9074,7 @@
       <c r="C78" s="65">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="82"/>
+      <c r="D78" s="96"/>
       <c r="E78" s="7">
         <v>21.5</v>
       </c>
@@ -9085,7 +9094,7 @@
         <v>3</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L78" s="11">
         <v>0.25</v>
@@ -9121,10 +9130,10 @@
         <v>1</v>
       </c>
       <c r="X78" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y78" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z78" s="62">
         <v>0</v>
@@ -9146,7 +9155,7 @@
         <v>2</v>
       </c>
       <c r="AG78" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH78" s="59">
         <v>10</v>
@@ -9155,10 +9164,10 @@
         <v>3625</v>
       </c>
       <c r="AJ78" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK78" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.2">
@@ -9171,7 +9180,7 @@
       <c r="C79" s="65">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="82"/>
+      <c r="D79" s="96"/>
       <c r="E79" s="7">
         <v>21.5</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L79" s="11">
         <v>0.5</v>
@@ -9227,10 +9236,10 @@
         <v>1</v>
       </c>
       <c r="X79" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y79" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z79" s="62">
         <v>0</v>
@@ -9252,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="AG79" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH79" s="59">
         <v>10</v>
@@ -9261,7 +9270,7 @@
         <v>3625</v>
       </c>
       <c r="AJ79" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9274,7 +9283,7 @@
       <c r="C80" s="66">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="83"/>
+      <c r="D80" s="97"/>
       <c r="E80" s="9">
         <v>21.5</v>
       </c>
@@ -9294,7 +9303,7 @@
         <v>3</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L80" s="13">
         <v>0.5</v>
@@ -9331,10 +9340,10 @@
         <v>1</v>
       </c>
       <c r="X80" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y80" s="68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z80" s="69">
         <v>0</v>
@@ -9356,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="AG80" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH80" s="67">
         <v>10</v>
@@ -9365,7 +9374,7 @@
         <v>3625</v>
       </c>
       <c r="AJ80" s="67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.2">
@@ -9378,8 +9387,8 @@
       <c r="C81" s="25">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="86" t="s">
-        <v>73</v>
+      <c r="D81" s="100" t="s">
+        <v>70</v>
       </c>
       <c r="E81" s="7">
         <v>21.5</v>
@@ -9400,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L81" s="11">
         <v>0.5</v>
@@ -9436,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="X81" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y81" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z81" s="62">
         <v>0</v>
@@ -9461,7 +9470,7 @@
         <v>2</v>
       </c>
       <c r="AG81" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH81" s="59">
         <v>10</v>
@@ -9470,7 +9479,7 @@
         <v>3625</v>
       </c>
       <c r="AJ81" s="59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.2">
@@ -9483,7 +9492,7 @@
       <c r="C82" s="25">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="87"/>
+      <c r="D82" s="101"/>
       <c r="E82" s="7">
         <v>21.5</v>
       </c>
@@ -9503,7 +9512,7 @@
         <v>3</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L82" s="11">
         <v>0.5</v>
@@ -9539,10 +9548,10 @@
         <v>0</v>
       </c>
       <c r="X82" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y82" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z82" s="62">
         <v>0</v>
@@ -9563,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="AG82" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH82" s="59">
         <v>10</v>
@@ -9572,7 +9581,7 @@
         <v>3500</v>
       </c>
       <c r="AJ82" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.2">
@@ -9585,7 +9594,7 @@
       <c r="C83" s="25">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="87"/>
+      <c r="D83" s="101"/>
       <c r="E83" s="7">
         <v>21.5</v>
       </c>
@@ -9605,7 +9614,7 @@
         <v>3</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L83" s="11">
         <v>0.5</v>
@@ -9641,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y83" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z83" s="62">
         <v>0</v>
@@ -9665,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="AG83" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH83" s="59">
         <v>10</v>
@@ -9674,7 +9683,7 @@
         <v>3500</v>
       </c>
       <c r="AJ83" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:37" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9687,7 +9696,7 @@
       <c r="C84" s="37">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="88"/>
+      <c r="D84" s="102"/>
       <c r="E84" s="38">
         <v>21.5</v>
       </c>
@@ -9707,7 +9716,7 @@
         <v>3</v>
       </c>
       <c r="K84" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L84" s="40">
         <v>0</v>
@@ -9744,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="X84" s="73" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y84" s="73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z84" s="74">
         <v>0</v>
@@ -9769,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="AG84" s="75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH84" s="72">
         <v>10</v>
@@ -9778,10 +9787,10 @@
         <v>3500</v>
       </c>
       <c r="AJ84" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK84" s="46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.2">
@@ -9794,8 +9803,8 @@
       <c r="C85" s="25">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="84" t="s">
-        <v>73</v>
+      <c r="D85" s="98" t="s">
+        <v>70</v>
       </c>
       <c r="E85" s="7">
         <v>21.5</v>
@@ -9816,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L85" s="11">
         <v>0.5</v>
@@ -9852,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="X85" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y85" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z85" s="62">
         <v>0</v>
@@ -9876,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="AG85" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH85" s="59">
         <v>8</v>
@@ -9885,7 +9894,7 @@
         <v>3500</v>
       </c>
       <c r="AJ85" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.2">
@@ -9898,7 +9907,7 @@
       <c r="C86" s="25">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="82"/>
+      <c r="D86" s="96"/>
       <c r="E86" s="7">
         <v>21.5</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L86" s="11">
         <v>0.5</v>
@@ -9954,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="X86" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y86" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z86" s="62">
         <v>0</v>
@@ -9978,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="AG86" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH86" s="59">
         <v>8</v>
@@ -9987,7 +9996,7 @@
         <v>3500</v>
       </c>
       <c r="AJ86" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.2">
@@ -10000,7 +10009,7 @@
       <c r="C87" s="25">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="82"/>
+      <c r="D87" s="96"/>
       <c r="E87" s="7">
         <v>21.5</v>
       </c>
@@ -10020,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L87" s="11">
         <v>0.5</v>
@@ -10056,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="X87" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y87" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z87" s="62">
         <v>0</v>
@@ -10080,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="AG87" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH87" s="59">
         <v>8</v>
@@ -10089,7 +10098,7 @@
         <v>3500</v>
       </c>
       <c r="AJ87" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10102,7 +10111,7 @@
       <c r="C88" s="31">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="83"/>
+      <c r="D88" s="97"/>
       <c r="E88" s="9">
         <v>21.5</v>
       </c>
@@ -10122,7 +10131,7 @@
         <v>3</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L88" s="13">
         <v>0.5</v>
@@ -10159,10 +10168,10 @@
         <v>0</v>
       </c>
       <c r="X88" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y88" s="68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z88" s="69">
         <v>0</v>
@@ -10184,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="AG88" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH88" s="67">
         <v>8</v>
@@ -10193,7 +10202,7 @@
         <v>3500</v>
       </c>
       <c r="AJ88" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.2">
@@ -10206,8 +10215,8 @@
       <c r="C89" s="25">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="81" t="s">
-        <v>75</v>
+      <c r="D89" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="E89" s="7">
         <v>21.5</v>
@@ -10228,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L89" s="11">
         <v>0.5</v>
@@ -10264,10 +10273,10 @@
         <v>0</v>
       </c>
       <c r="X89" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y89" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z89" s="62">
         <v>0</v>
@@ -10288,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="AG89" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH89" s="59">
         <v>8</v>
@@ -10297,7 +10306,7 @@
         <v>3500</v>
       </c>
       <c r="AJ89" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.2">
@@ -10310,7 +10319,7 @@
       <c r="C90" s="25">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="82"/>
+      <c r="D90" s="96"/>
       <c r="E90" s="7">
         <v>21.5</v>
       </c>
@@ -10330,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L90" s="11">
         <v>0.5</v>
@@ -10366,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="X90" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y90" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z90" s="62">
         <v>0</v>
@@ -10390,7 +10399,7 @@
         <v>2</v>
       </c>
       <c r="AG90" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH90" s="59">
         <v>8</v>
@@ -10399,7 +10408,7 @@
         <v>3500</v>
       </c>
       <c r="AJ90" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.2">
@@ -10412,7 +10421,7 @@
       <c r="C91" s="25">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="82"/>
+      <c r="D91" s="96"/>
       <c r="E91" s="7">
         <v>21.5</v>
       </c>
@@ -10432,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L91" s="11">
         <v>0.5</v>
@@ -10468,10 +10477,10 @@
         <v>0</v>
       </c>
       <c r="X91" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y91" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z91" s="62">
         <v>0</v>
@@ -10492,7 +10501,7 @@
         <v>2</v>
       </c>
       <c r="AG91" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH91" s="59">
         <v>8</v>
@@ -10501,7 +10510,7 @@
         <v>3500</v>
       </c>
       <c r="AJ91" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.2">
@@ -10514,7 +10523,7 @@
       <c r="C92" s="25">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="D92" s="96"/>
       <c r="E92" s="7">
         <v>21.5</v>
       </c>
@@ -10534,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L92" s="11">
         <v>0.5</v>
@@ -10570,10 +10579,10 @@
         <v>0</v>
       </c>
       <c r="X92" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y92" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z92" s="62">
         <v>0</v>
@@ -10594,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="AG92" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH92" s="59">
         <v>8</v>
@@ -10603,7 +10612,7 @@
         <v>3500</v>
       </c>
       <c r="AJ92" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.2">
@@ -10616,7 +10625,7 @@
       <c r="C93" s="25">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="82"/>
+      <c r="D93" s="96"/>
       <c r="E93" s="7">
         <v>21.5</v>
       </c>
@@ -10636,7 +10645,7 @@
         <v>5</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L93" s="11">
         <v>0.5</v>
@@ -10672,10 +10681,10 @@
         <v>0</v>
       </c>
       <c r="X93" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y93" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z93" s="62">
         <v>0</v>
@@ -10696,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="AG93" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH93" s="59">
         <v>8</v>
@@ -10705,7 +10714,7 @@
         <v>3500</v>
       </c>
       <c r="AJ93" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10718,7 +10727,7 @@
       <c r="C94" s="31">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="83"/>
+      <c r="D94" s="97"/>
       <c r="E94" s="9">
         <v>21.5</v>
       </c>
@@ -10738,7 +10747,7 @@
         <v>5</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L94" s="13">
         <v>0.5</v>
@@ -10775,10 +10784,10 @@
         <v>0</v>
       </c>
       <c r="X94" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y94" s="68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z94" s="69">
         <v>0</v>
@@ -10800,7 +10809,7 @@
         <v>2</v>
       </c>
       <c r="AG94" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH94" s="67">
         <v>8</v>
@@ -10809,7 +10818,7 @@
         <v>3625</v>
       </c>
       <c r="AJ94" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.2">
@@ -10822,8 +10831,8 @@
       <c r="C95" s="25">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="81" t="s">
-        <v>76</v>
+      <c r="D95" s="95" t="s">
+        <v>73</v>
       </c>
       <c r="E95" s="7">
         <v>21.5</v>
@@ -10844,7 +10853,7 @@
         <v>3</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L95" s="11">
         <v>0.5</v>
@@ -10877,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="X95" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y95" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z95" s="62">
         <v>0</v>
@@ -10895,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="AD95" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE95" s="19">
         <v>2</v>
@@ -10904,7 +10913,7 @@
         <v>2</v>
       </c>
       <c r="AG95" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH95" s="59">
         <v>8</v>
@@ -10913,7 +10922,7 @@
         <v>3625</v>
       </c>
       <c r="AJ95" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.2">
@@ -10926,7 +10935,7 @@
       <c r="C96" s="25">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="82"/>
+      <c r="D96" s="96"/>
       <c r="E96" s="7">
         <v>21.5</v>
       </c>
@@ -10946,7 +10955,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L96" s="11">
         <v>0.5</v>
@@ -10979,10 +10988,10 @@
         <v>0</v>
       </c>
       <c r="X96" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y96" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z96" s="62">
         <v>0</v>
@@ -10997,7 +11006,7 @@
         <v>4</v>
       </c>
       <c r="AD96" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE96" s="19">
         <v>2</v>
@@ -11006,7 +11015,7 @@
         <v>2</v>
       </c>
       <c r="AG96" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH96" s="59">
         <v>8</v>
@@ -11015,7 +11024,7 @@
         <v>3625</v>
       </c>
       <c r="AJ96" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.2">
@@ -11028,7 +11037,7 @@
       <c r="C97" s="25">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="82"/>
+      <c r="D97" s="96"/>
       <c r="E97" s="7">
         <v>21.5</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>3</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L97" s="11">
         <v>0.25</v>
@@ -11084,10 +11093,10 @@
         <v>0</v>
       </c>
       <c r="X97" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y97" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z97" s="62">
         <v>0</v>
@@ -11102,7 +11111,7 @@
         <v>4</v>
       </c>
       <c r="AD97" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE97" s="19">
         <v>2</v>
@@ -11111,7 +11120,7 @@
         <v>2</v>
       </c>
       <c r="AG97" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH97" s="59">
         <v>8</v>
@@ -11120,10 +11129,10 @@
         <v>3500</v>
       </c>
       <c r="AJ97" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK97" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.2">
@@ -11136,7 +11145,7 @@
       <c r="C98" s="25">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="82"/>
+      <c r="D98" s="96"/>
       <c r="E98" s="7">
         <v>21.5</v>
       </c>
@@ -11156,7 +11165,7 @@
         <v>3</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L98" s="11">
         <v>1</v>
@@ -11189,10 +11198,10 @@
         <v>0</v>
       </c>
       <c r="X98" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y98" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z98" s="62">
         <v>0</v>
@@ -11207,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="AD98" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE98" s="19">
         <v>2</v>
@@ -11216,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="AG98" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH98" s="59">
         <v>8</v>
@@ -11225,7 +11234,7 @@
         <v>3500</v>
       </c>
       <c r="AJ98" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.2">
@@ -11238,7 +11247,7 @@
       <c r="C99" s="25">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="82"/>
+      <c r="D99" s="96"/>
       <c r="E99" s="7">
         <v>21.5</v>
       </c>
@@ -11258,7 +11267,7 @@
         <v>3</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L99" s="11">
         <v>1</v>
@@ -11291,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="X99" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y99" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z99" s="62">
         <v>0</v>
@@ -11309,7 +11318,7 @@
         <v>4</v>
       </c>
       <c r="AD99" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE99" s="19">
         <v>2</v>
@@ -11318,7 +11327,7 @@
         <v>2</v>
       </c>
       <c r="AG99" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH99" s="59">
         <v>8</v>
@@ -11327,7 +11336,7 @@
         <v>3500</v>
       </c>
       <c r="AJ99" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.2">
@@ -11340,7 +11349,7 @@
       <c r="C100" s="25">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="82"/>
+      <c r="D100" s="96"/>
       <c r="E100" s="7">
         <v>21.5</v>
       </c>
@@ -11360,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L100" s="11">
         <v>0.5</v>
@@ -11393,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="X100" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y100" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z100" s="62">
         <v>0</v>
@@ -11411,7 +11420,7 @@
         <v>4</v>
       </c>
       <c r="AD100" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE100" s="19">
         <v>2</v>
@@ -11420,7 +11429,7 @@
         <v>2</v>
       </c>
       <c r="AG100" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH100" s="59">
         <v>8</v>
@@ -11429,7 +11438,7 @@
         <v>3500</v>
       </c>
       <c r="AJ100" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.2">
@@ -11442,7 +11451,7 @@
       <c r="C101" s="25">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="82"/>
+      <c r="D101" s="96"/>
       <c r="E101" s="7">
         <v>21.5</v>
       </c>
@@ -11462,7 +11471,7 @@
         <v>3</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L101" s="11">
         <v>0.5</v>
@@ -11495,10 +11504,10 @@
         <v>0</v>
       </c>
       <c r="X101" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y101" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z101" s="62">
         <v>0</v>
@@ -11513,7 +11522,7 @@
         <v>4</v>
       </c>
       <c r="AD101" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE101" s="19">
         <v>2</v>
@@ -11522,7 +11531,7 @@
         <v>2</v>
       </c>
       <c r="AG101" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH101" s="59">
         <v>8</v>
@@ -11531,7 +11540,7 @@
         <v>3500</v>
       </c>
       <c r="AJ101" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.2">
@@ -11544,7 +11553,7 @@
       <c r="C102" s="25">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="82"/>
+      <c r="D102" s="96"/>
       <c r="E102" s="7">
         <v>21.5</v>
       </c>
@@ -11564,7 +11573,7 @@
         <v>3</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L102" s="11">
         <v>1</v>
@@ -11597,10 +11606,10 @@
         <v>0</v>
       </c>
       <c r="X102" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y102" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z102" s="62">
         <v>0</v>
@@ -11615,7 +11624,7 @@
         <v>4</v>
       </c>
       <c r="AD102" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE102" s="19">
         <v>2</v>
@@ -11624,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="AG102" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH102" s="59">
         <v>8</v>
@@ -11633,7 +11642,7 @@
         <v>3500</v>
       </c>
       <c r="AJ102" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -11646,7 +11655,7 @@
       <c r="C103" s="31">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="83"/>
+      <c r="D103" s="97"/>
       <c r="E103" s="9">
         <v>21.5</v>
       </c>
@@ -11666,7 +11675,7 @@
         <v>3</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L103" s="13">
         <v>1</v>
@@ -11701,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="X103" s="68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y103" s="68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z103" s="69">
         <v>0</v>
@@ -11719,7 +11728,7 @@
         <v>4</v>
       </c>
       <c r="AD103" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE103" s="20">
         <v>2</v>
@@ -11728,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="AG103" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH103" s="67">
         <v>8</v>
@@ -11737,10 +11746,10 @@
         <v>3625</v>
       </c>
       <c r="AJ103" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.2">
@@ -11753,8 +11762,8 @@
       <c r="C104" s="25">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="81" t="s">
-        <v>80</v>
+      <c r="D104" s="95" t="s">
+        <v>77</v>
       </c>
       <c r="E104" s="7">
         <v>21.5</v>
@@ -11775,7 +11784,7 @@
         <v>3</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L104" s="11">
         <v>0.5</v>
@@ -11811,10 +11820,10 @@
         <v>0</v>
       </c>
       <c r="X104" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y104" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z104" s="62">
         <v>2.5</v>
@@ -11829,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="AD104" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE104" s="19">
         <v>2</v>
@@ -11838,7 +11847,7 @@
         <v>2</v>
       </c>
       <c r="AG104" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH104" s="59">
         <v>8</v>
@@ -11847,7 +11856,7 @@
         <v>3625</v>
       </c>
       <c r="AJ104" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.2">
@@ -11860,7 +11869,7 @@
       <c r="C105" s="25">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="82"/>
+      <c r="D105" s="96"/>
       <c r="E105" s="7">
         <v>21.5</v>
       </c>
@@ -11880,7 +11889,7 @@
         <v>3</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L105" s="11">
         <v>0.25</v>
@@ -11916,10 +11925,10 @@
         <v>0</v>
       </c>
       <c r="X105" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y105" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z105" s="62">
         <v>2.5</v>
@@ -11934,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="AD105" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE105" s="19">
         <v>2</v>
@@ -11943,7 +11952,7 @@
         <v>2</v>
       </c>
       <c r="AG105" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH105" s="59">
         <v>8</v>
@@ -11952,7 +11961,7 @@
         <v>3625</v>
       </c>
       <c r="AJ105" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.2">
@@ -11965,7 +11974,7 @@
       <c r="C106" s="25">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="82"/>
+      <c r="D106" s="96"/>
       <c r="E106" s="7">
         <v>21.5</v>
       </c>
@@ -11985,7 +11994,7 @@
         <v>3</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L106" s="11">
         <v>0.5</v>
@@ -12021,10 +12030,10 @@
         <v>1</v>
       </c>
       <c r="X106" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y106" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z106" s="62">
         <v>2.5</v>
@@ -12039,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="AD106" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE106" s="19">
         <v>2</v>
@@ -12048,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="AG106" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH106" s="59">
         <v>8</v>
@@ -12057,7 +12066,7 @@
         <v>3625</v>
       </c>
       <c r="AJ106" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.2">
@@ -12070,7 +12079,7 @@
       <c r="C107" s="25">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="82"/>
+      <c r="D107" s="96"/>
       <c r="E107" s="7">
         <v>21.5</v>
       </c>
@@ -12090,7 +12099,7 @@
         <v>3</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L107" s="11">
         <v>0.25</v>
@@ -12126,10 +12135,10 @@
         <v>1</v>
       </c>
       <c r="X107" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y107" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z107" s="62">
         <v>2.5</v>
@@ -12144,7 +12153,7 @@
         <v>1</v>
       </c>
       <c r="AD107" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE107" s="19">
         <v>2</v>
@@ -12153,7 +12162,7 @@
         <v>2</v>
       </c>
       <c r="AG107" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH107" s="59">
         <v>8</v>
@@ -12162,7 +12171,7 @@
         <v>3625</v>
       </c>
       <c r="AJ107" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.2">
@@ -12175,7 +12184,7 @@
       <c r="C108" s="25">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="82"/>
+      <c r="D108" s="96"/>
       <c r="E108" s="7">
         <v>21.5</v>
       </c>
@@ -12195,7 +12204,7 @@
         <v>3</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L108" s="11">
         <v>0.5</v>
@@ -12231,10 +12240,10 @@
         <v>1</v>
       </c>
       <c r="X108" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y108" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z108" s="16">
         <v>5</v>
@@ -12249,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="AD108" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE108" s="19">
         <v>2</v>
@@ -12258,7 +12267,7 @@
         <v>2</v>
       </c>
       <c r="AG108" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH108" s="59">
         <v>8</v>
@@ -12267,7 +12276,7 @@
         <v>3625</v>
       </c>
       <c r="AJ108" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.2">
@@ -12280,7 +12289,7 @@
       <c r="C109" s="25">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="82"/>
+      <c r="D109" s="96"/>
       <c r="E109" s="7">
         <v>21.5</v>
       </c>
@@ -12300,7 +12309,7 @@
         <v>3</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L109" s="11">
         <v>0.25</v>
@@ -12336,10 +12345,10 @@
         <v>1</v>
       </c>
       <c r="X109" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y109" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z109" s="16">
         <v>5</v>
@@ -12354,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="AD109" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE109" s="19">
         <v>2</v>
@@ -12363,7 +12372,7 @@
         <v>2</v>
       </c>
       <c r="AG109" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH109" s="59">
         <v>8</v>
@@ -12372,7 +12381,7 @@
         <v>3625</v>
       </c>
       <c r="AJ109" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.2">
@@ -12385,7 +12394,7 @@
       <c r="C110" s="25">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="82"/>
+      <c r="D110" s="96"/>
       <c r="E110" s="7">
         <v>21.5</v>
       </c>
@@ -12405,7 +12414,7 @@
         <v>3</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L110" s="11">
         <v>0.25</v>
@@ -12441,10 +12450,10 @@
         <v>0</v>
       </c>
       <c r="X110" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y110" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z110" s="16">
         <v>5</v>
@@ -12459,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="AD110" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE110" s="19">
         <v>2</v>
@@ -12468,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="AG110" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH110" s="59">
         <v>8</v>
@@ -12477,7 +12486,7 @@
         <v>3625</v>
       </c>
       <c r="AJ110" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.2">
@@ -12490,7 +12499,7 @@
       <c r="C111" s="25">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="82"/>
+      <c r="D111" s="96"/>
       <c r="E111" s="7">
         <v>21.5</v>
       </c>
@@ -12510,7 +12519,7 @@
         <v>3</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L111" s="11">
         <v>0.5</v>
@@ -12546,10 +12555,10 @@
         <v>0</v>
       </c>
       <c r="X111" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y111" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z111" s="16">
         <v>5</v>
@@ -12564,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="AD111" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE111" s="19">
         <v>2</v>
@@ -12573,7 +12582,7 @@
         <v>2</v>
       </c>
       <c r="AG111" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH111" s="59">
         <v>8</v>
@@ -12582,7 +12591,7 @@
         <v>3625</v>
       </c>
       <c r="AJ111" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.2">
@@ -12595,7 +12604,7 @@
       <c r="C112" s="25">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="82"/>
+      <c r="D112" s="96"/>
       <c r="E112" s="7">
         <v>21.5</v>
       </c>
@@ -12615,7 +12624,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L112" s="11">
         <v>0.5</v>
@@ -12651,10 +12660,10 @@
         <v>0</v>
       </c>
       <c r="X112" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y112" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z112" s="16">
         <v>10</v>
@@ -12669,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="AD112" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE112" s="19">
         <v>2</v>
@@ -12678,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="AG112" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH112" s="59">
         <v>8</v>
@@ -12687,7 +12696,7 @@
         <v>3625</v>
       </c>
       <c r="AJ112" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.2">
@@ -12700,7 +12709,7 @@
       <c r="C113" s="25">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="82"/>
+      <c r="D113" s="96"/>
       <c r="E113" s="7">
         <v>21.5</v>
       </c>
@@ -12720,7 +12729,7 @@
         <v>3</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L113" s="26">
         <v>0.25</v>
@@ -12756,10 +12765,10 @@
         <v>0</v>
       </c>
       <c r="X113" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y113" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z113" s="16">
         <v>10</v>
@@ -12774,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="AD113" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE113" s="19">
         <v>2</v>
@@ -12783,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="AG113" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH113" s="59">
         <v>8</v>
@@ -12792,7 +12801,7 @@
         <v>3625</v>
       </c>
       <c r="AJ113" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.2">
@@ -12805,7 +12814,7 @@
       <c r="C114" s="25">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="82"/>
+      <c r="D114" s="96"/>
       <c r="E114" s="7">
         <v>21.5</v>
       </c>
@@ -12825,7 +12834,7 @@
         <v>3</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L114" s="26">
         <v>0.5</v>
@@ -12861,10 +12870,10 @@
         <v>1</v>
       </c>
       <c r="X114" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y114" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z114" s="16">
         <v>10</v>
@@ -12879,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="AD114" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE114" s="19">
         <v>2</v>
@@ -12888,7 +12897,7 @@
         <v>2</v>
       </c>
       <c r="AG114" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH114" s="59">
         <v>8</v>
@@ -12897,7 +12906,7 @@
         <v>3625</v>
       </c>
       <c r="AJ114" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.2">
@@ -12910,7 +12919,7 @@
       <c r="C115" s="25">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="82"/>
+      <c r="D115" s="96"/>
       <c r="E115" s="7">
         <v>21.5</v>
       </c>
@@ -12930,7 +12939,7 @@
         <v>3</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L115" s="11">
         <v>0.25</v>
@@ -12966,10 +12975,10 @@
         <v>1</v>
       </c>
       <c r="X115" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y115" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z115" s="16">
         <v>10</v>
@@ -12984,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="AD115" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE115" s="19">
         <v>2</v>
@@ -12993,7 +13002,7 @@
         <v>2</v>
       </c>
       <c r="AG115" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH115" s="59">
         <v>8</v>
@@ -13002,7 +13011,7 @@
         <v>3625</v>
       </c>
       <c r="AJ115" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.2">
@@ -13015,7 +13024,7 @@
       <c r="C116" s="76">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="82"/>
+      <c r="D116" s="96"/>
       <c r="E116" s="7">
         <v>21.5</v>
       </c>
@@ -13035,7 +13044,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L116" s="11">
         <v>0.25</v>
@@ -13071,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="X116" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y116" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z116" s="16">
         <v>10</v>
@@ -13089,7 +13098,7 @@
         <v>1</v>
       </c>
       <c r="AD116" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE116" s="19">
         <v>2</v>
@@ -13098,7 +13107,7 @@
         <v>2</v>
       </c>
       <c r="AG116" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH116" s="59">
         <v>8</v>
@@ -13107,7 +13116,7 @@
         <v>3625</v>
       </c>
       <c r="AJ116" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.2">
@@ -13120,7 +13129,7 @@
       <c r="C117" s="25">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="82"/>
+      <c r="D117" s="96"/>
       <c r="E117" s="7">
         <v>21.5</v>
       </c>
@@ -13140,7 +13149,7 @@
         <v>3</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L117" s="11">
         <v>0.5</v>
@@ -13176,10 +13185,10 @@
         <v>1</v>
       </c>
       <c r="X117" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y117" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z117" s="16">
         <v>20</v>
@@ -13194,7 +13203,7 @@
         <v>1</v>
       </c>
       <c r="AD117" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE117" s="19">
         <v>2</v>
@@ -13203,7 +13212,7 @@
         <v>2</v>
       </c>
       <c r="AG117" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH117" s="59">
         <v>8</v>
@@ -13212,7 +13221,7 @@
         <v>3625</v>
       </c>
       <c r="AJ117" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.2">
@@ -13225,7 +13234,7 @@
       <c r="C118" s="25">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="82"/>
+      <c r="D118" s="96"/>
       <c r="E118" s="7">
         <v>21.5</v>
       </c>
@@ -13245,7 +13254,7 @@
         <v>3</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L118" s="11">
         <v>0.25</v>
@@ -13281,10 +13290,10 @@
         <v>1</v>
       </c>
       <c r="X118" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y118" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z118" s="16">
         <v>20</v>
@@ -13299,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="AD118" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE118" s="19">
         <v>2</v>
@@ -13308,7 +13317,7 @@
         <v>2</v>
       </c>
       <c r="AG118" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH118" s="59">
         <v>8</v>
@@ -13317,7 +13326,7 @@
         <v>3625</v>
       </c>
       <c r="AJ118" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.2">
@@ -13330,7 +13339,7 @@
       <c r="C119" s="25">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="82"/>
+      <c r="D119" s="96"/>
       <c r="E119" s="7">
         <v>21.5</v>
       </c>
@@ -13350,7 +13359,7 @@
         <v>3</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L119" s="11">
         <v>0.5</v>
@@ -13386,10 +13395,10 @@
         <v>0</v>
       </c>
       <c r="X119" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y119" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z119" s="16">
         <v>20</v>
@@ -13404,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="AD119" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE119" s="19">
         <v>2</v>
@@ -13413,7 +13422,7 @@
         <v>2</v>
       </c>
       <c r="AG119" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH119" s="59">
         <v>8</v>
@@ -13422,7 +13431,7 @@
         <v>3625</v>
       </c>
       <c r="AJ119" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:37" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -13435,7 +13444,7 @@
       <c r="C120" s="37">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="85"/>
+      <c r="D120" s="99"/>
       <c r="E120" s="38">
         <v>21.5</v>
       </c>
@@ -13455,7 +13464,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L120" s="40">
         <v>0.25</v>
@@ -13492,10 +13501,10 @@
         <v>0</v>
       </c>
       <c r="X120" s="73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y120" s="73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z120" s="43">
         <v>20</v>
@@ -13510,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="AD120" s="44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE120" s="44">
         <v>2</v>
@@ -13519,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="AG120" s="75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH120" s="72">
         <v>8</v>
@@ -13528,7 +13537,7 @@
         <v>3625</v>
       </c>
       <c r="AJ120" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:37" x14ac:dyDescent="0.2">
@@ -13541,8 +13550,8 @@
       <c r="C121" s="25">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="84" t="s">
-        <v>81</v>
+      <c r="D121" s="98" t="s">
+        <v>78</v>
       </c>
       <c r="E121" s="7">
         <v>21.5</v>
@@ -13563,7 +13572,7 @@
         <v>3</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L121" s="11">
         <v>0.5</v>
@@ -13599,10 +13608,10 @@
         <v>0</v>
       </c>
       <c r="X121" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y121" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z121" s="16">
         <v>0</v>
@@ -13617,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="AD121" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE121" s="19">
         <v>2</v>
@@ -13626,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="AG121" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH121" s="59">
         <v>8</v>
@@ -13635,10 +13644,10 @@
         <v>3625</v>
       </c>
       <c r="AJ121" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK121" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:37" x14ac:dyDescent="0.2">
@@ -13651,7 +13660,7 @@
       <c r="C122" s="25">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="82"/>
+      <c r="D122" s="96"/>
       <c r="E122" s="7">
         <v>21.5</v>
       </c>
@@ -13671,7 +13680,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L122" s="11">
         <v>0.5</v>
@@ -13707,10 +13716,10 @@
         <v>0</v>
       </c>
       <c r="X122" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y122" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z122" s="16">
         <v>0</v>
@@ -13725,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="AD122" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE122" s="19">
         <v>2</v>
@@ -13734,7 +13743,7 @@
         <v>2</v>
       </c>
       <c r="AG122" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH122" s="59">
         <v>8</v>
@@ -13743,7 +13752,7 @@
         <v>3625</v>
       </c>
       <c r="AJ122" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.2">
@@ -13756,7 +13765,7 @@
       <c r="C123" s="25">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="82"/>
+      <c r="D123" s="96"/>
       <c r="E123" s="7">
         <v>21.5</v>
       </c>
@@ -13776,7 +13785,7 @@
         <v>3</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L123" s="11">
         <v>0.5</v>
@@ -13812,10 +13821,10 @@
         <v>0</v>
       </c>
       <c r="X123" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y123" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z123" s="16">
         <v>0</v>
@@ -13830,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="AD123" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE123" s="19">
         <v>2</v>
@@ -13839,7 +13848,7 @@
         <v>2</v>
       </c>
       <c r="AG123" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH123" s="59">
         <v>8</v>
@@ -13848,7 +13857,7 @@
         <v>3625</v>
       </c>
       <c r="AJ123" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.2">
@@ -13861,7 +13870,7 @@
       <c r="C124" s="25">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="82"/>
+      <c r="D124" s="96"/>
       <c r="E124" s="7">
         <v>21.5</v>
       </c>
@@ -13881,7 +13890,7 @@
         <v>3</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L124" s="11">
         <v>0.25</v>
@@ -13917,10 +13926,10 @@
         <v>0</v>
       </c>
       <c r="X124" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y124" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z124" s="16">
         <v>0</v>
@@ -13935,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="AD124" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE124" s="19">
         <v>2</v>
@@ -13944,7 +13953,7 @@
         <v>2</v>
       </c>
       <c r="AG124" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH124" s="59">
         <v>8</v>
@@ -13953,7 +13962,7 @@
         <v>3625</v>
       </c>
       <c r="AJ124" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -13966,7 +13975,7 @@
       <c r="C125" s="31">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="83"/>
+      <c r="D125" s="97"/>
       <c r="E125" s="9">
         <v>21.5</v>
       </c>
@@ -13986,7 +13995,7 @@
         <v>3</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L125" s="13">
         <v>0.25</v>
@@ -14023,10 +14032,10 @@
         <v>0</v>
       </c>
       <c r="X125" s="68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y125" s="68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z125" s="18">
         <v>0</v>
@@ -14041,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="AD125" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE125" s="20">
         <v>2</v>
@@ -14050,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="AG125" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH125" s="67">
         <v>8</v>
@@ -14059,10 +14068,10 @@
         <v>3625</v>
       </c>
       <c r="AJ125" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK125" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.2">
@@ -14075,8 +14084,8 @@
       <c r="C126" s="25">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="81" t="s">
-        <v>83</v>
+      <c r="D126" s="95" t="s">
+        <v>80</v>
       </c>
       <c r="E126" s="7">
         <v>21.5</v>
@@ -14097,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L126" s="11">
         <v>0.5</v>
@@ -14130,10 +14139,10 @@
         <v>1</v>
       </c>
       <c r="X126" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y126" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z126" s="16">
         <v>0</v>
@@ -14148,7 +14157,7 @@
         <v>5</v>
       </c>
       <c r="AD126" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE126" s="19">
         <v>2</v>
@@ -14157,7 +14166,7 @@
         <v>2</v>
       </c>
       <c r="AG126" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH126" s="59">
         <v>8</v>
@@ -14166,10 +14175,10 @@
         <v>3625</v>
       </c>
       <c r="AJ126" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.2">
@@ -14182,7 +14191,7 @@
       <c r="C127" s="25">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="82"/>
+      <c r="D127" s="96"/>
       <c r="E127" s="7">
         <v>21.5</v>
       </c>
@@ -14202,7 +14211,7 @@
         <v>3</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L127" s="11">
         <v>0.5</v>
@@ -14235,10 +14244,10 @@
         <v>1</v>
       </c>
       <c r="X127" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y127" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z127" s="16">
         <v>0</v>
@@ -14253,7 +14262,7 @@
         <v>5</v>
       </c>
       <c r="AD127" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE127" s="19">
         <v>2</v>
@@ -14262,7 +14271,7 @@
         <v>2</v>
       </c>
       <c r="AG127" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH127" s="59">
         <v>8</v>
@@ -14271,7 +14280,7 @@
         <v>3625</v>
       </c>
       <c r="AJ127" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">
@@ -14284,7 +14293,7 @@
       <c r="C128" s="25">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="82"/>
+      <c r="D128" s="96"/>
       <c r="E128" s="7">
         <v>21.5</v>
       </c>
@@ -14304,7 +14313,7 @@
         <v>3</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L128" s="11">
         <v>1</v>
@@ -14334,10 +14343,10 @@
         <v>1</v>
       </c>
       <c r="X128" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y128" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z128" s="16">
         <v>0</v>
@@ -14352,7 +14361,7 @@
         <v>5</v>
       </c>
       <c r="AD128" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE128" s="19">
         <v>2</v>
@@ -14361,7 +14370,7 @@
         <v>2</v>
       </c>
       <c r="AG128" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH128" s="59">
         <v>8</v>
@@ -14370,7 +14379,7 @@
         <v>3625</v>
       </c>
       <c r="AJ128" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.2">
@@ -14383,7 +14392,7 @@
       <c r="C129" s="25">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="82"/>
+      <c r="D129" s="96"/>
       <c r="E129" s="7">
         <v>21.5</v>
       </c>
@@ -14403,7 +14412,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L129" s="11">
         <v>1</v>
@@ -14433,10 +14442,10 @@
         <v>1</v>
       </c>
       <c r="X129" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y129" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z129" s="16">
         <v>0</v>
@@ -14451,7 +14460,7 @@
         <v>5</v>
       </c>
       <c r="AD129" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE129" s="19">
         <v>2</v>
@@ -14460,7 +14469,7 @@
         <v>2</v>
       </c>
       <c r="AG129" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH129" s="59">
         <v>8</v>
@@ -14469,7 +14478,7 @@
         <v>3625</v>
       </c>
       <c r="AJ129" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -14482,7 +14491,7 @@
       <c r="C130" s="25">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="82"/>
+      <c r="D130" s="96"/>
       <c r="E130" s="7">
         <v>21.5</v>
       </c>
@@ -14502,7 +14511,7 @@
         <v>3</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L130" s="11">
         <v>1</v>
@@ -14532,10 +14541,10 @@
         <v>1</v>
       </c>
       <c r="X130" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y130" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z130" s="16">
         <v>0</v>
@@ -14550,7 +14559,7 @@
         <v>5</v>
       </c>
       <c r="AD130" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE130" s="19">
         <v>2</v>
@@ -14559,7 +14568,7 @@
         <v>2</v>
       </c>
       <c r="AG130" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH130" s="59">
         <v>8</v>
@@ -14568,10 +14577,10 @@
         <v>3625</v>
       </c>
       <c r="AJ130" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK130" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:37" x14ac:dyDescent="0.2">
@@ -14584,7 +14593,7 @@
       <c r="C131" s="25">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="82"/>
+      <c r="D131" s="96"/>
       <c r="E131" s="7">
         <v>21.5</v>
       </c>
@@ -14604,7 +14613,7 @@
         <v>3</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L131" s="26">
         <v>0.5</v>
@@ -14637,10 +14646,10 @@
         <v>1</v>
       </c>
       <c r="X131" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y131" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z131" s="16">
         <v>0</v>
@@ -14655,7 +14664,7 @@
         <v>5</v>
       </c>
       <c r="AD131" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE131" s="19">
         <v>2</v>
@@ -14664,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="AG131" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH131" s="59">
         <v>8</v>
@@ -14673,10 +14682,10 @@
         <v>3625</v>
       </c>
       <c r="AJ131" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK131" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.2">
@@ -14689,7 +14698,7 @@
       <c r="C132" s="25">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="82"/>
+      <c r="D132" s="96"/>
       <c r="E132" s="7">
         <v>21.5</v>
       </c>
@@ -14709,7 +14718,7 @@
         <v>3</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L132" s="26">
         <v>0.5</v>
@@ -14742,10 +14751,10 @@
         <v>1</v>
       </c>
       <c r="X132" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y132" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z132" s="16">
         <v>0</v>
@@ -14760,7 +14769,7 @@
         <v>5</v>
       </c>
       <c r="AD132" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE132" s="19">
         <v>2</v>
@@ -14769,7 +14778,7 @@
         <v>2</v>
       </c>
       <c r="AG132" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH132" s="59">
         <v>8</v>
@@ -14778,10 +14787,10 @@
         <v>3625</v>
       </c>
       <c r="AJ132" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK132" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.2">
@@ -14794,7 +14803,7 @@
       <c r="C133" s="25">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="82"/>
+      <c r="D133" s="96"/>
       <c r="E133" s="7">
         <v>21.5</v>
       </c>
@@ -14814,7 +14823,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L133" s="26">
         <v>1</v>
@@ -14847,10 +14856,10 @@
         <v>1</v>
       </c>
       <c r="X133" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y133" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z133" s="16">
         <v>0</v>
@@ -14865,7 +14874,7 @@
         <v>5</v>
       </c>
       <c r="AD133" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE133" s="19">
         <v>2</v>
@@ -14874,7 +14883,7 @@
         <v>2</v>
       </c>
       <c r="AG133" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH133" s="59">
         <v>8</v>
@@ -14883,7 +14892,7 @@
         <v>3625</v>
       </c>
       <c r="AJ133" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.2">
@@ -14896,7 +14905,7 @@
       <c r="C134" s="25">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="82"/>
+      <c r="D134" s="96"/>
       <c r="E134" s="7">
         <v>21.5</v>
       </c>
@@ -14916,7 +14925,7 @@
         <v>3</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L134" s="26">
         <v>1</v>
@@ -14949,10 +14958,10 @@
         <v>1</v>
       </c>
       <c r="X134" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y134" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z134" s="16">
         <v>0</v>
@@ -14967,7 +14976,7 @@
         <v>5</v>
       </c>
       <c r="AD134" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE134" s="19">
         <v>2</v>
@@ -14976,7 +14985,7 @@
         <v>2</v>
       </c>
       <c r="AG134" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH134" s="59">
         <v>8</v>
@@ -14985,7 +14994,7 @@
         <v>3625</v>
       </c>
       <c r="AJ134" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.2">
@@ -14998,7 +15007,7 @@
       <c r="C135" s="25">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="82"/>
+      <c r="D135" s="96"/>
       <c r="E135" s="7">
         <v>21.5</v>
       </c>
@@ -15018,7 +15027,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L135" s="26">
         <v>0.25</v>
@@ -15051,10 +15060,10 @@
         <v>1</v>
       </c>
       <c r="X135" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y135" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z135" s="16">
         <v>0</v>
@@ -15069,7 +15078,7 @@
         <v>5</v>
       </c>
       <c r="AD135" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE135" s="19">
         <v>2</v>
@@ -15078,7 +15087,7 @@
         <v>2</v>
       </c>
       <c r="AG135" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH135" s="59">
         <v>8</v>
@@ -15087,7 +15096,7 @@
         <v>3625</v>
       </c>
       <c r="AJ135" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:37" x14ac:dyDescent="0.2">
@@ -15100,7 +15109,7 @@
       <c r="C136" s="25">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="82"/>
+      <c r="D136" s="96"/>
       <c r="E136" s="7">
         <v>21.5</v>
       </c>
@@ -15120,7 +15129,7 @@
         <v>3</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L136" s="26">
         <v>0</v>
@@ -15153,10 +15162,10 @@
         <v>1</v>
       </c>
       <c r="X136" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y136" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z136" s="16">
         <v>0</v>
@@ -15171,7 +15180,7 @@
         <v>5</v>
       </c>
       <c r="AD136" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE136" s="19">
         <v>2</v>
@@ -15180,7 +15189,7 @@
         <v>2</v>
       </c>
       <c r="AG136" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH136" s="59">
         <v>8</v>
@@ -15189,7 +15198,7 @@
         <v>3625</v>
       </c>
       <c r="AJ136" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -15202,7 +15211,7 @@
       <c r="C137" s="31">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="83"/>
+      <c r="D137" s="97"/>
       <c r="E137" s="9">
         <v>21.5</v>
       </c>
@@ -15222,7 +15231,7 @@
         <v>3</v>
       </c>
       <c r="K137" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L137" s="33">
         <v>0</v>
@@ -15257,10 +15266,10 @@
         <v>1</v>
       </c>
       <c r="X137" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y137" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z137" s="18">
         <v>0</v>
@@ -15275,7 +15284,7 @@
         <v>5</v>
       </c>
       <c r="AD137" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE137" s="20">
         <v>2</v>
@@ -15284,7 +15293,7 @@
         <v>2</v>
       </c>
       <c r="AG137" s="71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH137" s="67">
         <v>8</v>
@@ -15293,10 +15302,10 @@
         <v>3625</v>
       </c>
       <c r="AJ137" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK137" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.2">
@@ -15310,7 +15319,7 @@
         <v>0.63638888888888889</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E138" s="7">
         <v>21.5</v>
@@ -15331,7 +15340,7 @@
         <v>3</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L138" s="26">
         <v>0.5</v>
@@ -15367,10 +15376,10 @@
         <v>1</v>
       </c>
       <c r="X138" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y138" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z138" s="16">
         <v>0</v>
@@ -15385,7 +15394,7 @@
         <v>3</v>
       </c>
       <c r="AD138" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE138" s="19">
         <v>2</v>
@@ -15394,7 +15403,7 @@
         <v>2</v>
       </c>
       <c r="AG138" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH138" s="59">
         <v>8</v>
@@ -15403,10 +15412,10 @@
         <v>3625</v>
       </c>
       <c r="AJ138" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK138" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:37" x14ac:dyDescent="0.2">
@@ -15438,7 +15447,7 @@
         <v>3</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L139" s="26">
         <v>0.5</v>
@@ -15474,10 +15483,10 @@
         <v>1</v>
       </c>
       <c r="X139" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y139" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z139" s="16">
         <v>0</v>
@@ -15492,7 +15501,7 @@
         <v>3</v>
       </c>
       <c r="AD139" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE139" s="19">
         <v>2</v>
@@ -15501,7 +15510,7 @@
         <v>2</v>
       </c>
       <c r="AG139" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH139" s="59">
         <v>8</v>
@@ -15510,7 +15519,7 @@
         <v>3625</v>
       </c>
       <c r="AJ139" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:37" x14ac:dyDescent="0.2">
@@ -15542,7 +15551,7 @@
         <v>3</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L140" s="26">
         <v>0.5</v>
@@ -15578,10 +15587,10 @@
         <v>1</v>
       </c>
       <c r="X140" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y140" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z140" s="16">
         <v>0</v>
@@ -15596,7 +15605,7 @@
         <v>3</v>
       </c>
       <c r="AD140" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE140" s="19">
         <v>3</v>
@@ -15605,7 +15614,7 @@
         <v>2</v>
       </c>
       <c r="AG140" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH140" s="59">
         <v>8</v>
@@ -15614,7 +15623,7 @@
         <v>3625</v>
       </c>
       <c r="AJ140" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.2">
@@ -15646,7 +15655,7 @@
         <v>3</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L141" s="26">
         <v>0.5</v>
@@ -15682,10 +15691,10 @@
         <v>1</v>
       </c>
       <c r="X141" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y141" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z141" s="16">
         <v>0</v>
@@ -15700,7 +15709,7 @@
         <v>3</v>
       </c>
       <c r="AD141" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE141" s="19">
         <v>4</v>
@@ -15709,7 +15718,7 @@
         <v>2</v>
       </c>
       <c r="AG141" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH141" s="59">
         <v>8</v>
@@ -15718,7 +15727,7 @@
         <v>3625</v>
       </c>
       <c r="AJ141" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.2">
@@ -15732,7 +15741,7 @@
         <v>0.6931018518518518</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E142" s="7">
         <v>21.5</v>
@@ -15753,7 +15762,7 @@
         <v>20</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L142" s="26">
         <v>0.5</v>
@@ -15789,10 +15798,10 @@
         <v>1</v>
       </c>
       <c r="X142" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y142" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z142" s="16">
         <v>0</v>
@@ -15807,7 +15816,7 @@
         <v>3</v>
       </c>
       <c r="AD142" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AE142" s="19">
         <v>2</v>
@@ -15816,7 +15825,7 @@
         <v>2</v>
       </c>
       <c r="AG142" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH142" s="59">
         <v>8</v>
@@ -15825,33 +15834,19 @@
         <v>3625</v>
       </c>
       <c r="AJ142" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK142" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="AK143" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -15865,6 +15860,20 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A14B8F-F301-D048-9D73-5005D8CE7C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B6F42-BB46-0945-8568-7D64531E2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="31700" windowHeight="20860" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView xWindow="4140" yWindow="800" windowWidth="31700" windowHeight="19760" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,23 +653,38 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,35 +713,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,10 +1045,10 @@
   <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,58 +1070,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86" t="s">
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="86"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="87" t="s">
+      <c r="V1" s="91"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="85" t="s">
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
     </row>
     <row r="2" spans="1:38" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -1648,7 +1648,7 @@
       <c r="C7" s="31">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="9">
         <v>21.5</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="C14" s="31">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="9">
         <v>21.5</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="79"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="9">
         <v>21.5</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="C23" s="31">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="9">
         <v>21.5</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="C31" s="31">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="9">
         <v>21.5</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>20</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="0"/>
+        <f>6.14</f>
         <v>6.14</v>
       </c>
       <c r="R36" s="11">
@@ -4993,7 +4993,7 @@
       <c r="C39" s="31">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="9">
         <v>21.5</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>14.9</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="0"/>
+        <f>6.14</f>
         <v>6.14</v>
       </c>
       <c r="R42" s="11">
@@ -5625,7 +5625,7 @@
       <c r="C45" s="37">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="38">
         <v>21.5</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="C50" s="31">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="79"/>
+      <c r="D50" s="80"/>
       <c r="E50" s="9">
         <v>21.5</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="C58" s="31">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="79"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="9">
         <v>21.5</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="C62" s="25">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="100" t="s">
+      <c r="D62" s="86" t="s">
         <v>59</v>
       </c>
       <c r="E62" s="7">
@@ -7512,7 +7512,7 @@
       <c r="C63" s="25">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="101"/>
+      <c r="D63" s="87"/>
       <c r="E63" s="7">
         <v>21.5</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="C64" s="31">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="103"/>
+      <c r="D64" s="89"/>
       <c r="E64" s="9">
         <v>21.5</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="C65" s="25">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="95" t="s">
+      <c r="D65" s="81" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="7">
@@ -7831,7 +7831,7 @@
       <c r="C66" s="25">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="96"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="7">
         <v>21.5</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="C67" s="25">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="96"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="7">
         <v>21.5</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="C68" s="31">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="97"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="9">
         <v>21.5</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="C69" s="25">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="95" t="s">
+      <c r="D69" s="81" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="7">
@@ -8250,7 +8250,7 @@
       <c r="C70" s="25">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="96"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="7">
         <v>21.5</v>
       </c>
@@ -8353,7 +8353,7 @@
       <c r="C71" s="25">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="96"/>
+      <c r="D71" s="82"/>
       <c r="E71" s="7">
         <v>21.5</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="C72" s="25">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="96"/>
+      <c r="D72" s="82"/>
       <c r="E72" s="7">
         <v>21.5</v>
       </c>
@@ -8559,7 +8559,7 @@
       <c r="C73" s="25">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="96"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="7">
         <v>21.5</v>
       </c>
@@ -8662,7 +8662,7 @@
       <c r="C74" s="25">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="96"/>
+      <c r="D74" s="82"/>
       <c r="E74" s="7">
         <v>21.5</v>
       </c>
@@ -8765,7 +8765,7 @@
       <c r="C75" s="25">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="96"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="7">
         <v>21.5</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="C76" s="25">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="96"/>
+      <c r="D76" s="82"/>
       <c r="E76" s="7">
         <v>21.5</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="C77" s="65">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="96"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="7">
         <v>21.5</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="C78" s="65">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="96"/>
+      <c r="D78" s="82"/>
       <c r="E78" s="7">
         <v>21.5</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="C79" s="65">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="96"/>
+      <c r="D79" s="82"/>
       <c r="E79" s="7">
         <v>21.5</v>
       </c>
@@ -9283,7 +9283,7 @@
       <c r="C80" s="66">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="97"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="9">
         <v>21.5</v>
       </c>
@@ -9387,7 +9387,7 @@
       <c r="C81" s="25">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="100" t="s">
+      <c r="D81" s="86" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="7">
@@ -9492,7 +9492,7 @@
       <c r="C82" s="25">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="101"/>
+      <c r="D82" s="87"/>
       <c r="E82" s="7">
         <v>21.5</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="C83" s="25">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="101"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="7">
         <v>21.5</v>
       </c>
@@ -9696,7 +9696,7 @@
       <c r="C84" s="37">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="102"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="38">
         <v>21.5</v>
       </c>
@@ -9803,7 +9803,7 @@
       <c r="C85" s="25">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="98" t="s">
+      <c r="D85" s="84" t="s">
         <v>70</v>
       </c>
       <c r="E85" s="7">
@@ -9907,7 +9907,7 @@
       <c r="C86" s="25">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="96"/>
+      <c r="D86" s="82"/>
       <c r="E86" s="7">
         <v>21.5</v>
       </c>
@@ -10009,7 +10009,7 @@
       <c r="C87" s="25">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="96"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="7">
         <v>21.5</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="C88" s="31">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="97"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="9">
         <v>21.5</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="C89" s="25">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="95" t="s">
+      <c r="D89" s="81" t="s">
         <v>72</v>
       </c>
       <c r="E89" s="7">
@@ -10319,7 +10319,7 @@
       <c r="C90" s="25">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="96"/>
+      <c r="D90" s="82"/>
       <c r="E90" s="7">
         <v>21.5</v>
       </c>
@@ -10421,7 +10421,7 @@
       <c r="C91" s="25">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="96"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="7">
         <v>21.5</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="C92" s="25">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="96"/>
+      <c r="D92" s="82"/>
       <c r="E92" s="7">
         <v>21.5</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="C93" s="25">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="96"/>
+      <c r="D93" s="82"/>
       <c r="E93" s="7">
         <v>21.5</v>
       </c>
@@ -10727,7 +10727,7 @@
       <c r="C94" s="31">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="97"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="9">
         <v>21.5</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="C95" s="25">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="95" t="s">
+      <c r="D95" s="81" t="s">
         <v>73</v>
       </c>
       <c r="E95" s="7">
@@ -10935,7 +10935,7 @@
       <c r="C96" s="25">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="96"/>
+      <c r="D96" s="82"/>
       <c r="E96" s="7">
         <v>21.5</v>
       </c>
@@ -11037,7 +11037,7 @@
       <c r="C97" s="25">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="96"/>
+      <c r="D97" s="82"/>
       <c r="E97" s="7">
         <v>21.5</v>
       </c>
@@ -11145,7 +11145,7 @@
       <c r="C98" s="25">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="96"/>
+      <c r="D98" s="82"/>
       <c r="E98" s="7">
         <v>21.5</v>
       </c>
@@ -11247,7 +11247,7 @@
       <c r="C99" s="25">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="96"/>
+      <c r="D99" s="82"/>
       <c r="E99" s="7">
         <v>21.5</v>
       </c>
@@ -11349,7 +11349,7 @@
       <c r="C100" s="25">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="96"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="7">
         <v>21.5</v>
       </c>
@@ -11451,7 +11451,7 @@
       <c r="C101" s="25">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="96"/>
+      <c r="D101" s="82"/>
       <c r="E101" s="7">
         <v>21.5</v>
       </c>
@@ -11553,7 +11553,7 @@
       <c r="C102" s="25">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="96"/>
+      <c r="D102" s="82"/>
       <c r="E102" s="7">
         <v>21.5</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="C103" s="31">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="97"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="9">
         <v>21.5</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="C104" s="25">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="95" t="s">
+      <c r="D104" s="81" t="s">
         <v>77</v>
       </c>
       <c r="E104" s="7">
@@ -11869,7 +11869,7 @@
       <c r="C105" s="25">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="96"/>
+      <c r="D105" s="82"/>
       <c r="E105" s="7">
         <v>21.5</v>
       </c>
@@ -11974,7 +11974,7 @@
       <c r="C106" s="25">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="96"/>
+      <c r="D106" s="82"/>
       <c r="E106" s="7">
         <v>21.5</v>
       </c>
@@ -12079,7 +12079,7 @@
       <c r="C107" s="25">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="96"/>
+      <c r="D107" s="82"/>
       <c r="E107" s="7">
         <v>21.5</v>
       </c>
@@ -12184,7 +12184,7 @@
       <c r="C108" s="25">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="96"/>
+      <c r="D108" s="82"/>
       <c r="E108" s="7">
         <v>21.5</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="C109" s="25">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="96"/>
+      <c r="D109" s="82"/>
       <c r="E109" s="7">
         <v>21.5</v>
       </c>
@@ -12394,7 +12394,7 @@
       <c r="C110" s="25">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="96"/>
+      <c r="D110" s="82"/>
       <c r="E110" s="7">
         <v>21.5</v>
       </c>
@@ -12499,7 +12499,7 @@
       <c r="C111" s="25">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="96"/>
+      <c r="D111" s="82"/>
       <c r="E111" s="7">
         <v>21.5</v>
       </c>
@@ -12604,7 +12604,7 @@
       <c r="C112" s="25">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="96"/>
+      <c r="D112" s="82"/>
       <c r="E112" s="7">
         <v>21.5</v>
       </c>
@@ -12709,7 +12709,7 @@
       <c r="C113" s="25">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="96"/>
+      <c r="D113" s="82"/>
       <c r="E113" s="7">
         <v>21.5</v>
       </c>
@@ -12814,7 +12814,7 @@
       <c r="C114" s="25">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="96"/>
+      <c r="D114" s="82"/>
       <c r="E114" s="7">
         <v>21.5</v>
       </c>
@@ -12919,7 +12919,7 @@
       <c r="C115" s="25">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="96"/>
+      <c r="D115" s="82"/>
       <c r="E115" s="7">
         <v>21.5</v>
       </c>
@@ -13024,7 +13024,7 @@
       <c r="C116" s="76">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="96"/>
+      <c r="D116" s="82"/>
       <c r="E116" s="7">
         <v>21.5</v>
       </c>
@@ -13129,7 +13129,7 @@
       <c r="C117" s="25">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="96"/>
+      <c r="D117" s="82"/>
       <c r="E117" s="7">
         <v>21.5</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="C118" s="25">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="96"/>
+      <c r="D118" s="82"/>
       <c r="E118" s="7">
         <v>21.5</v>
       </c>
@@ -13339,7 +13339,7 @@
       <c r="C119" s="25">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="96"/>
+      <c r="D119" s="82"/>
       <c r="E119" s="7">
         <v>21.5</v>
       </c>
@@ -13444,7 +13444,7 @@
       <c r="C120" s="37">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="99"/>
+      <c r="D120" s="85"/>
       <c r="E120" s="38">
         <v>21.5</v>
       </c>
@@ -13550,7 +13550,7 @@
       <c r="C121" s="25">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="98" t="s">
+      <c r="D121" s="84" t="s">
         <v>78</v>
       </c>
       <c r="E121" s="7">
@@ -13660,7 +13660,7 @@
       <c r="C122" s="25">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="96"/>
+      <c r="D122" s="82"/>
       <c r="E122" s="7">
         <v>21.5</v>
       </c>
@@ -13765,7 +13765,7 @@
       <c r="C123" s="25">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="96"/>
+      <c r="D123" s="82"/>
       <c r="E123" s="7">
         <v>21.5</v>
       </c>
@@ -13870,7 +13870,7 @@
       <c r="C124" s="25">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="96"/>
+      <c r="D124" s="82"/>
       <c r="E124" s="7">
         <v>21.5</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="C125" s="31">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="97"/>
+      <c r="D125" s="83"/>
       <c r="E125" s="9">
         <v>21.5</v>
       </c>
@@ -14084,7 +14084,7 @@
       <c r="C126" s="25">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="95" t="s">
+      <c r="D126" s="81" t="s">
         <v>80</v>
       </c>
       <c r="E126" s="7">
@@ -14191,7 +14191,7 @@
       <c r="C127" s="25">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="96"/>
+      <c r="D127" s="82"/>
       <c r="E127" s="7">
         <v>21.5</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="C128" s="25">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="96"/>
+      <c r="D128" s="82"/>
       <c r="E128" s="7">
         <v>21.5</v>
       </c>
@@ -14392,7 +14392,7 @@
       <c r="C129" s="25">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="96"/>
+      <c r="D129" s="82"/>
       <c r="E129" s="7">
         <v>21.5</v>
       </c>
@@ -14491,7 +14491,7 @@
       <c r="C130" s="25">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="96"/>
+      <c r="D130" s="82"/>
       <c r="E130" s="7">
         <v>21.5</v>
       </c>
@@ -14593,7 +14593,7 @@
       <c r="C131" s="25">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="96"/>
+      <c r="D131" s="82"/>
       <c r="E131" s="7">
         <v>21.5</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="C132" s="25">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="96"/>
+      <c r="D132" s="82"/>
       <c r="E132" s="7">
         <v>21.5</v>
       </c>
@@ -14803,7 +14803,7 @@
       <c r="C133" s="25">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="96"/>
+      <c r="D133" s="82"/>
       <c r="E133" s="7">
         <v>21.5</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="C134" s="25">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="96"/>
+      <c r="D134" s="82"/>
       <c r="E134" s="7">
         <v>21.5</v>
       </c>
@@ -15007,7 +15007,7 @@
       <c r="C135" s="25">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="96"/>
+      <c r="D135" s="82"/>
       <c r="E135" s="7">
         <v>21.5</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="C136" s="25">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="96"/>
+      <c r="D136" s="82"/>
       <c r="E136" s="7">
         <v>21.5</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="C137" s="31">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="97"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="9">
         <v>21.5</v>
       </c>
@@ -15847,6 +15847,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -15860,20 +15874,6 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B390E33-A31D-FE42-B79A-81C6896960FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6F58C-6480-4D4E-9910-6C7307B2A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="800" windowWidth="31700" windowHeight="19760" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView minimized="1" xWindow="8720" yWindow="800" windowWidth="27120" windowHeight="20020" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,10 +680,52 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,48 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,10 +1072,10 @@
   <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Y7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,58 +1097,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93" t="s">
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="93"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98" t="s">
+      <c r="V1" s="88"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="94" t="s">
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="92" t="s">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
     </row>
     <row r="2" spans="1:38" s="50" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
@@ -1675,7 +1675,7 @@
       <c r="C7" s="28">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="9">
         <v>21.5</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="C14" s="28">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="82"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="9">
         <v>21.5</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="82"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="9">
         <v>21.5</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="C23" s="28">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="9">
         <v>21.5</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="C31" s="28">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="82"/>
+      <c r="D31" s="81"/>
       <c r="E31" s="9">
         <v>21.5</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="C39" s="28">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="82"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="9">
         <v>21.5</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="C45" s="34">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="81"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="35">
         <v>21.5</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="C50" s="28">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="82"/>
+      <c r="D50" s="81"/>
       <c r="E50" s="9">
         <v>21.5</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="C58" s="28">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="82"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="9">
         <v>21.5</v>
       </c>
@@ -7441,7 +7441,7 @@
       <c r="C62" s="22">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="D62" s="102" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="7">
@@ -7553,7 +7553,7 @@
       <c r="C63" s="22">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="89"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="7">
         <v>21.5</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="C64" s="28">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="91"/>
+      <c r="D64" s="105"/>
       <c r="E64" s="9">
         <v>21.5</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="C65" s="22">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="83" t="s">
+      <c r="D65" s="97" t="s">
         <v>64</v>
       </c>
       <c r="E65" s="7">
@@ -7874,7 +7874,7 @@
       <c r="C66" s="22">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="84"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="7">
         <v>21.5</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="C67" s="22">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="84"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="7">
         <v>21.5</v>
       </c>
@@ -8082,7 +8082,7 @@
       <c r="C68" s="28">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="85"/>
+      <c r="D68" s="99"/>
       <c r="E68" s="9">
         <v>21.5</v>
       </c>
@@ -8187,7 +8187,7 @@
       <c r="C69" s="22">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="97" t="s">
         <v>66</v>
       </c>
       <c r="E69" s="7">
@@ -8296,7 +8296,7 @@
       <c r="C70" s="22">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="84"/>
+      <c r="D70" s="98"/>
       <c r="E70" s="7">
         <v>21.5</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="C71" s="22">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="84"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="7">
         <v>21.5</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="C72" s="22">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="84"/>
+      <c r="D72" s="98"/>
       <c r="E72" s="7">
         <v>21.5</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="C73" s="22">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="84"/>
+      <c r="D73" s="98"/>
       <c r="E73" s="7">
         <v>21.5</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="C74" s="22">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="84"/>
+      <c r="D74" s="98"/>
       <c r="E74" s="7">
         <v>21.5</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="C75" s="22">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="84"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="7">
         <v>21.5</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="C76" s="22">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="84"/>
+      <c r="D76" s="98"/>
       <c r="E76" s="7">
         <v>21.5</v>
       </c>
@@ -9018,7 +9018,7 @@
       <c r="C77" s="57">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="84"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="7">
         <v>21.5</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="C78" s="57">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="84"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="7">
         <v>21.5</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="C79" s="57">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="84"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="7">
         <v>21.5</v>
       </c>
@@ -9330,7 +9330,7 @@
       <c r="C80" s="58">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="85"/>
+      <c r="D80" s="99"/>
       <c r="E80" s="9">
         <v>21.5</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="C81" s="22">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="88" t="s">
+      <c r="D81" s="102" t="s">
         <v>68</v>
       </c>
       <c r="E81" s="7">
@@ -9539,7 +9539,7 @@
       <c r="C82" s="22">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="89"/>
+      <c r="D82" s="103"/>
       <c r="E82" s="7">
         <v>21.5</v>
       </c>
@@ -9642,7 +9642,7 @@
       <c r="C83" s="22">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="89"/>
+      <c r="D83" s="103"/>
       <c r="E83" s="7">
         <v>21.5</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="C84" s="34">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="104"/>
       <c r="E84" s="35">
         <v>21.5</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="C85" s="22">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="100" t="s">
         <v>68</v>
       </c>
       <c r="E85" s="7">
@@ -9957,7 +9957,7 @@
       <c r="C86" s="22">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="7">
         <v>21.5</v>
       </c>
@@ -10060,7 +10060,7 @@
       <c r="C87" s="22">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="84"/>
+      <c r="D87" s="98"/>
       <c r="E87" s="7">
         <v>21.5</v>
       </c>
@@ -10163,7 +10163,7 @@
       <c r="C88" s="28">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="85"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="9">
         <v>21.5</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="C89" s="22">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="83" t="s">
+      <c r="D89" s="97" t="s">
         <v>70</v>
       </c>
       <c r="E89" s="7">
@@ -10372,7 +10372,7 @@
       <c r="C90" s="22">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="98"/>
       <c r="E90" s="7">
         <v>21.5</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="C91" s="22">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="84"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="7">
         <v>21.5</v>
       </c>
@@ -10578,7 +10578,7 @@
       <c r="C92" s="22">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="98"/>
       <c r="E92" s="7">
         <v>21.5</v>
       </c>
@@ -10681,7 +10681,7 @@
       <c r="C93" s="22">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="84"/>
+      <c r="D93" s="98"/>
       <c r="E93" s="7">
         <v>21.5</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="C94" s="28">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="85"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="9">
         <v>21.5</v>
       </c>
@@ -10888,7 +10888,7 @@
       <c r="C95" s="22">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="83" t="s">
+      <c r="D95" s="97" t="s">
         <v>71</v>
       </c>
       <c r="E95" s="7">
@@ -10992,7 +10992,7 @@
       <c r="C96" s="22">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="98"/>
       <c r="E96" s="7">
         <v>21.5</v>
       </c>
@@ -11094,7 +11094,7 @@
       <c r="C97" s="22">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="84"/>
+      <c r="D97" s="98"/>
       <c r="E97" s="7">
         <v>21.5</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="C98" s="22">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="84"/>
+      <c r="D98" s="98"/>
       <c r="E98" s="7">
         <v>21.5</v>
       </c>
@@ -11304,7 +11304,7 @@
       <c r="C99" s="22">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="84"/>
+      <c r="D99" s="98"/>
       <c r="E99" s="7">
         <v>21.5</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="C100" s="22">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="84"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="7">
         <v>21.5</v>
       </c>
@@ -11508,7 +11508,7 @@
       <c r="C101" s="22">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="84"/>
+      <c r="D101" s="98"/>
       <c r="E101" s="7">
         <v>21.5</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="C102" s="22">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="84"/>
+      <c r="D102" s="98"/>
       <c r="E102" s="7">
         <v>21.5</v>
       </c>
@@ -11712,7 +11712,7 @@
       <c r="C103" s="28">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="85"/>
+      <c r="D103" s="99"/>
       <c r="E103" s="9">
         <v>21.5</v>
       </c>
@@ -11819,7 +11819,7 @@
       <c r="C104" s="22">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="83" t="s">
+      <c r="D104" s="97" t="s">
         <v>75</v>
       </c>
       <c r="E104" s="7">
@@ -11926,7 +11926,7 @@
       <c r="C105" s="22">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="84"/>
+      <c r="D105" s="98"/>
       <c r="E105" s="7">
         <v>21.5</v>
       </c>
@@ -12031,7 +12031,7 @@
       <c r="C106" s="22">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="84"/>
+      <c r="D106" s="98"/>
       <c r="E106" s="7">
         <v>21.5</v>
       </c>
@@ -12136,7 +12136,7 @@
       <c r="C107" s="22">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="84"/>
+      <c r="D107" s="98"/>
       <c r="E107" s="7">
         <v>21.5</v>
       </c>
@@ -12241,7 +12241,7 @@
       <c r="C108" s="22">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="84"/>
+      <c r="D108" s="98"/>
       <c r="E108" s="7">
         <v>21.5</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="C109" s="22">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="84"/>
+      <c r="D109" s="98"/>
       <c r="E109" s="7">
         <v>21.5</v>
       </c>
@@ -12451,7 +12451,7 @@
       <c r="C110" s="22">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="84"/>
+      <c r="D110" s="98"/>
       <c r="E110" s="7">
         <v>21.5</v>
       </c>
@@ -12556,7 +12556,7 @@
       <c r="C111" s="22">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="84"/>
+      <c r="D111" s="98"/>
       <c r="E111" s="7">
         <v>21.5</v>
       </c>
@@ -12661,7 +12661,7 @@
       <c r="C112" s="22">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="84"/>
+      <c r="D112" s="98"/>
       <c r="E112" s="7">
         <v>21.5</v>
       </c>
@@ -12766,7 +12766,7 @@
       <c r="C113" s="22">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="84"/>
+      <c r="D113" s="98"/>
       <c r="E113" s="7">
         <v>21.5</v>
       </c>
@@ -12871,7 +12871,7 @@
       <c r="C114" s="22">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="84"/>
+      <c r="D114" s="98"/>
       <c r="E114" s="7">
         <v>21.5</v>
       </c>
@@ -12976,7 +12976,7 @@
       <c r="C115" s="22">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="84"/>
+      <c r="D115" s="98"/>
       <c r="E115" s="7">
         <v>21.5</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="C116" s="67">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="84"/>
+      <c r="D116" s="98"/>
       <c r="E116" s="7">
         <v>21.5</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="C117" s="22">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="84"/>
+      <c r="D117" s="98"/>
       <c r="E117" s="7">
         <v>21.5</v>
       </c>
@@ -13291,7 +13291,7 @@
       <c r="C118" s="22">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="84"/>
+      <c r="D118" s="98"/>
       <c r="E118" s="7">
         <v>21.5</v>
       </c>
@@ -13396,7 +13396,7 @@
       <c r="C119" s="22">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="84"/>
+      <c r="D119" s="98"/>
       <c r="E119" s="7">
         <v>21.5</v>
       </c>
@@ -13501,7 +13501,7 @@
       <c r="C120" s="34">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="87"/>
+      <c r="D120" s="101"/>
       <c r="E120" s="35">
         <v>21.5</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="C121" s="22">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="86" t="s">
+      <c r="D121" s="100" t="s">
         <v>76</v>
       </c>
       <c r="E121" s="7">
@@ -13717,7 +13717,7 @@
       <c r="C122" s="22">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="84"/>
+      <c r="D122" s="98"/>
       <c r="E122" s="7">
         <v>21.5</v>
       </c>
@@ -13822,7 +13822,7 @@
       <c r="C123" s="22">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="84"/>
+      <c r="D123" s="98"/>
       <c r="E123" s="7">
         <v>21.5</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="C124" s="22">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="84"/>
+      <c r="D124" s="98"/>
       <c r="E124" s="7">
         <v>21.5</v>
       </c>
@@ -14032,7 +14032,7 @@
       <c r="C125" s="28">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="85"/>
+      <c r="D125" s="99"/>
       <c r="E125" s="9">
         <v>21.5</v>
       </c>
@@ -14141,7 +14141,7 @@
       <c r="C126" s="22">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="83" t="s">
+      <c r="D126" s="97" t="s">
         <v>78</v>
       </c>
       <c r="E126" s="7">
@@ -14248,7 +14248,7 @@
       <c r="C127" s="22">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="84"/>
+      <c r="D127" s="98"/>
       <c r="E127" s="7">
         <v>21.5</v>
       </c>
@@ -14350,7 +14350,7 @@
       <c r="C128" s="22">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="84"/>
+      <c r="D128" s="98"/>
       <c r="E128" s="7">
         <v>21.5</v>
       </c>
@@ -14449,7 +14449,7 @@
       <c r="C129" s="22">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="84"/>
+      <c r="D129" s="98"/>
       <c r="E129" s="7">
         <v>21.5</v>
       </c>
@@ -14548,7 +14548,7 @@
       <c r="C130" s="22">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="84"/>
+      <c r="D130" s="98"/>
       <c r="E130" s="7">
         <v>21.5</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="C131" s="22">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="84"/>
+      <c r="D131" s="98"/>
       <c r="E131" s="7">
         <v>21.5</v>
       </c>
@@ -14755,7 +14755,7 @@
       <c r="C132" s="22">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="84"/>
+      <c r="D132" s="98"/>
       <c r="E132" s="7">
         <v>21.5</v>
       </c>
@@ -14860,7 +14860,7 @@
       <c r="C133" s="22">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="84"/>
+      <c r="D133" s="98"/>
       <c r="E133" s="7">
         <v>21.5</v>
       </c>
@@ -14962,7 +14962,7 @@
       <c r="C134" s="22">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="84"/>
+      <c r="D134" s="98"/>
       <c r="E134" s="7">
         <v>21.5</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="C135" s="22">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="84"/>
+      <c r="D135" s="98"/>
       <c r="E135" s="7">
         <v>21.5</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="C136" s="22">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="84"/>
+      <c r="D136" s="98"/>
       <c r="E136" s="7">
         <v>21.5</v>
       </c>
@@ -15268,7 +15268,7 @@
       <c r="C137" s="28">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="85"/>
+      <c r="D137" s="99"/>
       <c r="E137" s="9">
         <v>21.5</v>
       </c>
@@ -15904,20 +15904,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -15931,6 +15917,20 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177D161-4E4E-3B4D-88AB-B696A15338A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED82F7E8-5BD7-B349-A497-38444FDCF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="800" windowWidth="27120" windowHeight="20020" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
@@ -1192,10 +1192,10 @@
   <dimension ref="A1:AN143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="I122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221500FD-A465-EA4F-97CB-998FCAAE1B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF902B1-0CB1-AC47-8132-7582115B4763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="800" windowWidth="27120" windowHeight="20020" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView xWindow="5720" yWindow="1600" windowWidth="27120" windowHeight="20020" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,23 +806,38 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,35 +866,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,10 +1198,10 @@
   <dimension ref="A1:AO143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="R126" sqref="R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
     <col min="12" max="13" width="10.83203125" style="9"/>
     <col min="14" max="14" width="10.83203125" style="86"/>
     <col min="15" max="15" width="6.1640625" style="86" customWidth="1"/>
-    <col min="16" max="16" width="3" style="86" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="86" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="86"/>
     <col min="18" max="18" width="16.33203125" style="86" customWidth="1"/>
     <col min="19" max="23" width="10.83203125" style="86"/>
@@ -1232,59 +1232,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102" t="s">
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="102"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="107" t="s">
+      <c r="W1" s="107"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="103" t="s">
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="101" t="s">
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
     </row>
     <row r="2" spans="1:39" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1648,7 +1648,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" s="80">
-        <f>P5/14.5</f>
+        <f t="shared" ref="O5:O36" si="0">P5/14.5</f>
         <v>1.2206896551724138</v>
       </c>
       <c r="P5" s="80">
@@ -1757,7 +1757,7 @@
         <v>0.5</v>
       </c>
       <c r="O6" s="80">
-        <f>P6/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P6" s="80">
@@ -1833,7 +1833,7 @@
       <c r="C7" s="17">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="33">
         <v>21.5</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.5</v>
       </c>
       <c r="O7" s="81">
-        <f>P7/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P7" s="81">
@@ -1975,7 +1975,7 @@
         <v>0.4</v>
       </c>
       <c r="O8" s="80">
-        <f>P8/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.1420689655172414</v>
       </c>
       <c r="P8" s="80">
@@ -2086,7 +2086,7 @@
         <v>0.4</v>
       </c>
       <c r="O9" s="80">
-        <f>P9/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.1420689655172414</v>
       </c>
       <c r="P9" s="80">
@@ -2194,7 +2194,7 @@
         <v>0.3</v>
       </c>
       <c r="O10" s="80">
-        <f>P10/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0655172413793104</v>
       </c>
       <c r="P10" s="80">
@@ -2302,7 +2302,7 @@
         <v>0.25</v>
       </c>
       <c r="O11" s="80">
-        <f>P11/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0289655172413794</v>
       </c>
       <c r="P11" s="80">
@@ -2410,7 +2410,7 @@
         <v>0.2</v>
       </c>
       <c r="O12" s="80">
-        <f>P12/14.5</f>
+        <f t="shared" si="0"/>
         <v>0.99310344827586206</v>
       </c>
       <c r="P12" s="80">
@@ -2518,7 +2518,7 @@
         <v>0.1</v>
       </c>
       <c r="O13" s="80">
-        <f>P13/14.5</f>
+        <f t="shared" si="0"/>
         <v>0.92413793103448283</v>
       </c>
       <c r="P13" s="80">
@@ -2594,7 +2594,7 @@
       <c r="C14" s="17">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="33">
         <v>21.5</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>0.05</v>
       </c>
       <c r="O14" s="81">
-        <f>P14/14.5</f>
+        <f t="shared" si="0"/>
         <v>0.8896551724137931</v>
       </c>
       <c r="P14" s="81">
@@ -2736,7 +2736,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" s="80">
-        <f>P15/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0448275862068965</v>
       </c>
       <c r="P15" s="80">
@@ -2844,7 +2844,7 @@
         <v>0.4</v>
       </c>
       <c r="O16" s="80">
-        <f>P16/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0455172413793103</v>
       </c>
       <c r="P16" s="80">
@@ -2952,7 +2952,7 @@
         <v>0.3</v>
       </c>
       <c r="O17" s="80">
-        <f>P17/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0386206896551724</v>
       </c>
       <c r="P17" s="80">
@@ -3060,7 +3060,7 @@
         <v>0.2</v>
       </c>
       <c r="O18" s="80">
-        <f>P18/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0262068965517241</v>
       </c>
       <c r="P18" s="80">
@@ -3168,7 +3168,7 @@
         <v>0.1</v>
       </c>
       <c r="O19" s="80">
-        <f>P19/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0137931034482759</v>
       </c>
       <c r="P19" s="80">
@@ -3242,7 +3242,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="95"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="33">
         <v>21.5</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="81">
-        <f>P20/14.5</f>
+        <f t="shared" si="0"/>
         <v>0.98758620689655174</v>
       </c>
       <c r="P20" s="81">
@@ -3384,7 +3384,7 @@
         <v>0.25</v>
       </c>
       <c r="O21" s="80">
-        <f>P21/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0731034482758621</v>
       </c>
       <c r="P21" s="80">
@@ -3495,7 +3495,7 @@
         <v>0.25</v>
       </c>
       <c r="O22" s="80">
-        <f>P22/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0731034482758621</v>
       </c>
       <c r="P22" s="80">
@@ -3571,7 +3571,7 @@
       <c r="C23" s="17">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="33">
         <v>21.5</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0.25</v>
       </c>
       <c r="O23" s="81">
-        <f>P23/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0731034482758621</v>
       </c>
       <c r="P23" s="81">
@@ -3713,7 +3713,7 @@
         <v>0.25</v>
       </c>
       <c r="O24" s="80">
-        <f>P24/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0310344827586206</v>
       </c>
       <c r="P24" s="80">
@@ -3822,7 +3822,7 @@
         <v>0.25</v>
       </c>
       <c r="O25" s="80">
-        <f>P25/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0310344827586206</v>
       </c>
       <c r="P25" s="80">
@@ -3931,7 +3931,7 @@
         <v>0.5</v>
       </c>
       <c r="O26" s="80">
-        <f>P26/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P26" s="80">
@@ -4040,7 +4040,7 @@
         <v>0.5</v>
       </c>
       <c r="O27" s="80">
-        <f>P27/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P27" s="80">
@@ -4149,7 +4149,7 @@
         <v>0.25</v>
       </c>
       <c r="O28" s="80">
-        <f>P28/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0310344827586206</v>
       </c>
       <c r="P28" s="80">
@@ -4258,7 +4258,7 @@
         <v>0.25</v>
       </c>
       <c r="O29" s="80">
-        <f>P29/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.0310344827586206</v>
       </c>
       <c r="P29" s="80">
@@ -4367,7 +4367,7 @@
         <v>0.5</v>
       </c>
       <c r="O30" s="80">
-        <f>P30/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2200000000000002</v>
       </c>
       <c r="P30" s="80">
@@ -4444,7 +4444,7 @@
       <c r="C31" s="17">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="33">
         <v>21.5</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0.5</v>
       </c>
       <c r="O31" s="81">
-        <f>P31/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2200000000000002</v>
       </c>
       <c r="P31" s="81">
@@ -4587,7 +4587,7 @@
         <v>0.5</v>
       </c>
       <c r="O32" s="80">
-        <f>P32/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P32" s="80">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="Q32" s="80"/>
       <c r="R32" s="80">
-        <f t="shared" ref="R32:R58" si="0">6.14</f>
+        <f t="shared" ref="R32:R58" si="1">6.14</f>
         <v>6.14</v>
       </c>
       <c r="S32" s="80">
@@ -4696,7 +4696,7 @@
         <v>0.5</v>
       </c>
       <c r="O33" s="80">
-        <f>P33/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P33" s="80">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="Q33" s="80"/>
       <c r="R33" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S33" s="80">
@@ -4805,7 +4805,7 @@
         <v>0.5</v>
       </c>
       <c r="O34" s="80">
-        <f>P34/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P34" s="80">
@@ -4815,7 +4815,7 @@
         <v>40</v>
       </c>
       <c r="R34" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S34" s="80">
@@ -4916,7 +4916,7 @@
         <v>0.5</v>
       </c>
       <c r="O35" s="80">
-        <f>P35/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P35" s="80">
@@ -4926,7 +4926,7 @@
         <v>40</v>
       </c>
       <c r="R35" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S35" s="80">
@@ -5027,7 +5027,7 @@
         <v>0.5</v>
       </c>
       <c r="O36" s="80">
-        <f>P36/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P36" s="80">
@@ -5138,7 +5138,7 @@
         <v>0.5</v>
       </c>
       <c r="O37" s="80">
-        <f>P37/14.5</f>
+        <f t="shared" ref="O37:O68" si="2">P37/14.5</f>
         <v>1.2206896551724138</v>
       </c>
       <c r="P37" s="80">
@@ -5148,7 +5148,7 @@
         <v>20</v>
       </c>
       <c r="R37" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S37" s="80">
@@ -5249,7 +5249,7 @@
         <v>0.5</v>
       </c>
       <c r="O38" s="80">
-        <f>P38/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P38" s="80">
@@ -5259,7 +5259,7 @@
         <v>10</v>
       </c>
       <c r="R38" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S38" s="80">
@@ -5328,7 +5328,7 @@
       <c r="C39" s="17">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="95"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="33">
         <v>21.5</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0.5</v>
       </c>
       <c r="O39" s="81">
-        <f>P39/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P39" s="81">
@@ -5370,7 +5370,7 @@
         <v>10</v>
       </c>
       <c r="R39" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S39" s="81">
@@ -5473,7 +5473,7 @@
         <v>0.5</v>
       </c>
       <c r="O40" s="80">
-        <f>P40/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P40" s="80">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="Q40" s="80"/>
       <c r="R40" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S40" s="80">
@@ -5585,7 +5585,7 @@
         <v>0.5</v>
       </c>
       <c r="O41" s="80">
-        <f>P41/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P41" s="80">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="Q41" s="80"/>
       <c r="R41" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S41" s="80">
@@ -5694,7 +5694,7 @@
         <v>0.25</v>
       </c>
       <c r="O42" s="80">
-        <f>P42/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P42" s="80">
@@ -5803,7 +5803,7 @@
         <v>0.25</v>
       </c>
       <c r="O43" s="80">
-        <f>P43/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P43" s="80">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="Q43" s="80"/>
       <c r="R43" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S43" s="80">
@@ -5912,7 +5912,7 @@
         <v>0.25</v>
       </c>
       <c r="O44" s="80">
-        <f>P44/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P44" s="80">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="Q44" s="80"/>
       <c r="R44" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S44" s="80">
@@ -5989,7 +5989,7 @@
       <c r="C45" s="20">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="110"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="35">
         <v>21.5</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0.5</v>
       </c>
       <c r="O45" s="82">
-        <f>P45/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P45" s="82">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="Q45" s="82"/>
       <c r="R45" s="82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S45" s="82">
@@ -6132,7 +6132,7 @@
         <v>0.25</v>
       </c>
       <c r="O46" s="80">
-        <f>P46/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P46" s="80">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="Q46" s="80"/>
       <c r="R46" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S46" s="80">
@@ -6244,7 +6244,7 @@
         <v>0.25</v>
       </c>
       <c r="O47" s="80">
-        <f>P47/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P47" s="80">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="Q47" s="80"/>
       <c r="R47" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S47" s="80">
@@ -6356,7 +6356,7 @@
         <v>0.25</v>
       </c>
       <c r="O48" s="80">
-        <f>P48/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P48" s="80">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="Q48" s="80"/>
       <c r="R48" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S48" s="80">
@@ -6465,7 +6465,7 @@
         <v>0.5</v>
       </c>
       <c r="O49" s="80">
-        <f>P49/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P49" s="80">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="Q49" s="80"/>
       <c r="R49" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S49" s="80">
@@ -6542,7 +6542,7 @@
       <c r="C50" s="17">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="95"/>
+      <c r="D50" s="96"/>
       <c r="E50" s="33">
         <v>21.5</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0.5</v>
       </c>
       <c r="O50" s="81">
-        <f>P50/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P50" s="81">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="Q50" s="81"/>
       <c r="R50" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S50" s="81">
@@ -6685,7 +6685,7 @@
         <v>0.5</v>
       </c>
       <c r="O51" s="80">
-        <f>P51/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P51" s="80">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="Q51" s="80"/>
       <c r="R51" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S51" s="80">
@@ -6794,7 +6794,7 @@
         <v>0.5</v>
       </c>
       <c r="O52" s="80">
-        <f>P52/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P52" s="80">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="Q52" s="80"/>
       <c r="R52" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S52" s="80">
@@ -6903,7 +6903,7 @@
         <v>0.25</v>
       </c>
       <c r="O53" s="80">
-        <f>P53/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P53" s="80">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="Q53" s="80"/>
       <c r="R53" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S53" s="80">
@@ -7012,7 +7012,7 @@
         <v>0.25</v>
       </c>
       <c r="O54" s="80">
-        <f>P54/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P54" s="80">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="Q54" s="80"/>
       <c r="R54" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S54" s="80">
@@ -7121,7 +7121,7 @@
         <v>0.25</v>
       </c>
       <c r="O55" s="80">
-        <f>P55/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0262068965517241</v>
       </c>
       <c r="P55" s="80">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="Q55" s="80"/>
       <c r="R55" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S55" s="80">
@@ -7233,7 +7233,7 @@
         <v>0.25</v>
       </c>
       <c r="O56" s="80">
-        <f>P56/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0262068965517241</v>
       </c>
       <c r="P56" s="80">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Q56" s="80"/>
       <c r="R56" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S56" s="80">
@@ -7342,7 +7342,7 @@
         <v>0.5</v>
       </c>
       <c r="O57" s="80">
-        <f>P57/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2193103448275862</v>
       </c>
       <c r="P57" s="80">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="Q57" s="80"/>
       <c r="R57" s="80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S57" s="80">
@@ -7419,7 +7419,7 @@
       <c r="C58" s="17">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="96"/>
       <c r="E58" s="33">
         <v>21.5</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>0.5</v>
       </c>
       <c r="O58" s="81">
-        <f>P58/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2193103448275862</v>
       </c>
       <c r="P58" s="81">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="Q58" s="81"/>
       <c r="R58" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="S58" s="81">
@@ -7562,7 +7562,7 @@
         <v>0.5</v>
       </c>
       <c r="O59" s="80">
-        <f>P59/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P59" s="80">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="Q59" s="80"/>
       <c r="R59" s="80">
-        <f t="shared" ref="R59:R70" si="1">6.14-1.98</f>
+        <f t="shared" ref="R59:R70" si="3">6.14-1.98</f>
         <v>4.16</v>
       </c>
       <c r="S59" s="80">
@@ -7673,7 +7673,7 @@
         <v>0.5</v>
       </c>
       <c r="O60" s="80">
-        <f>P60/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P60" s="80">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="Q60" s="80"/>
       <c r="R60" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S60" s="80">
@@ -7782,7 +7782,7 @@
         <v>0.5</v>
       </c>
       <c r="O61" s="81">
-        <f>P61/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P61" s="81">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="Q61" s="81"/>
       <c r="R61" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S61" s="81">
@@ -7859,7 +7859,7 @@
       <c r="C62" s="14">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="116" t="s">
+      <c r="D62" s="102" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="31">
@@ -7893,7 +7893,7 @@
         <v>0.5</v>
       </c>
       <c r="O62" s="80">
-        <f>P62/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P62" s="80">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="Q62" s="80"/>
       <c r="R62" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S62" s="80">
@@ -7976,7 +7976,7 @@
       <c r="C63" s="14">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="117"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="31">
         <v>21.5</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>0.5</v>
       </c>
       <c r="O63" s="80">
-        <f>P63/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P63" s="80">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="Q63" s="80"/>
       <c r="R63" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S63" s="80">
@@ -8088,7 +8088,7 @@
       <c r="C64" s="17">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="119"/>
+      <c r="D64" s="105"/>
       <c r="E64" s="33">
         <v>21.5</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>0.5</v>
       </c>
       <c r="O64" s="81">
-        <f>P64/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P64" s="81">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="Q64" s="81"/>
       <c r="R64" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S64" s="81">
@@ -8200,7 +8200,7 @@
       <c r="C65" s="14">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="97" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="31">
@@ -8234,7 +8234,7 @@
         <v>0.5</v>
       </c>
       <c r="O65" s="80">
-        <f>P65/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P65" s="80">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="Q65" s="80"/>
       <c r="R65" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S65" s="80">
@@ -8311,7 +8311,7 @@
       <c r="C66" s="14">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="112"/>
+      <c r="D66" s="98"/>
       <c r="E66" s="31">
         <v>21.5</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>0.5</v>
       </c>
       <c r="O66" s="80">
-        <f>P66/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P66" s="80">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="Q66" s="80"/>
       <c r="R66" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S66" s="80">
@@ -8420,7 +8420,7 @@
       <c r="C67" s="14">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="112"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="31">
         <v>21.5</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>0.25</v>
       </c>
       <c r="O67" s="80">
-        <f>P67/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P67" s="80">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="Q67" s="80"/>
       <c r="R67" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S67" s="80">
@@ -8529,7 +8529,7 @@
       <c r="C68" s="17">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="113"/>
+      <c r="D68" s="99"/>
       <c r="E68" s="33">
         <v>21.5</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>0.25</v>
       </c>
       <c r="O68" s="81">
-        <f>P68/14.5</f>
+        <f t="shared" si="2"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P68" s="81">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="Q68" s="81"/>
       <c r="R68" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S68" s="81">
@@ -8638,7 +8638,7 @@
       <c r="C69" s="14">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="97" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="31">
@@ -8672,7 +8672,7 @@
         <v>0.5</v>
       </c>
       <c r="O69" s="80">
-        <f>P69/14.5</f>
+        <f t="shared" ref="O69:O100" si="4">P69/14.5</f>
         <v>1.2158620689655171</v>
       </c>
       <c r="P69" s="80">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="Q69" s="80"/>
       <c r="R69" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S69" s="80">
@@ -8752,7 +8752,7 @@
       <c r="C70" s="14">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="112"/>
+      <c r="D70" s="98"/>
       <c r="E70" s="31">
         <v>21.5</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>0.5</v>
       </c>
       <c r="O70" s="80">
-        <f>P70/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P70" s="80">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="Q70" s="80"/>
       <c r="R70" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.16</v>
       </c>
       <c r="S70" s="80">
@@ -8861,7 +8861,7 @@
       <c r="C71" s="14">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="112"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="31">
         <v>21.5</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>0.25</v>
       </c>
       <c r="O71" s="80">
-        <f>P71/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0282758620689656</v>
       </c>
       <c r="P71" s="80">
@@ -8969,7 +8969,7 @@
       <c r="C72" s="14">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="112"/>
+      <c r="D72" s="98"/>
       <c r="E72" s="31">
         <v>21.5</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0.25</v>
       </c>
       <c r="O72" s="80">
-        <f>P72/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0282758620689656</v>
       </c>
       <c r="P72" s="80">
@@ -9077,7 +9077,7 @@
       <c r="C73" s="14">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="112"/>
+      <c r="D73" s="98"/>
       <c r="E73" s="31">
         <v>21.5</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>0.5</v>
       </c>
       <c r="O73" s="80">
-        <f>P73/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P73" s="80">
@@ -9185,7 +9185,7 @@
       <c r="C74" s="14">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="112"/>
+      <c r="D74" s="98"/>
       <c r="E74" s="31">
         <v>21.5</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0.5</v>
       </c>
       <c r="O74" s="80">
-        <f>P74/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P74" s="80">
@@ -9293,7 +9293,7 @@
       <c r="C75" s="14">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="112"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="31">
         <v>21.5</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0.25</v>
       </c>
       <c r="O75" s="80">
-        <f>P75/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P75" s="80">
@@ -9401,7 +9401,7 @@
       <c r="C76" s="14">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="112"/>
+      <c r="D76" s="98"/>
       <c r="E76" s="31">
         <v>21.5</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>0.25</v>
       </c>
       <c r="O76" s="80">
-        <f>P76/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P76" s="80">
@@ -9509,7 +9509,7 @@
       <c r="C77" s="26">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="112"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="31">
         <v>21.5</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>0.25</v>
       </c>
       <c r="O77" s="80">
-        <f>P77/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0248275862068965</v>
       </c>
       <c r="P77" s="80">
@@ -9617,7 +9617,7 @@
       <c r="C78" s="26">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="112"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="31">
         <v>21.5</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0.25</v>
       </c>
       <c r="O78" s="80">
-        <f>P78/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.0248275862068965</v>
       </c>
       <c r="P78" s="80">
@@ -9728,7 +9728,7 @@
       <c r="C79" s="26">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="112"/>
+      <c r="D79" s="98"/>
       <c r="E79" s="31">
         <v>21.5</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>0.5</v>
       </c>
       <c r="O79" s="80">
-        <f>P79/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2144827586206897</v>
       </c>
       <c r="P79" s="80">
@@ -9836,7 +9836,7 @@
       <c r="C80" s="27">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="113"/>
+      <c r="D80" s="99"/>
       <c r="E80" s="33">
         <v>21.5</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0.5</v>
       </c>
       <c r="O80" s="81">
-        <f>P80/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2144827586206897</v>
       </c>
       <c r="P80" s="81">
@@ -9944,7 +9944,7 @@
       <c r="C81" s="14">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="116" t="s">
+      <c r="D81" s="102" t="s">
         <v>67</v>
       </c>
       <c r="E81" s="31">
@@ -9978,7 +9978,7 @@
         <v>0.5</v>
       </c>
       <c r="O81" s="80">
-        <f>P81/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P81" s="80">
@@ -10054,7 +10054,7 @@
       <c r="C82" s="14">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="117"/>
+      <c r="D82" s="103"/>
       <c r="E82" s="31">
         <v>21.5</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0.5</v>
       </c>
       <c r="O82" s="80">
-        <f>P82/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P82" s="80">
@@ -10162,7 +10162,7 @@
       <c r="C83" s="14">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="117"/>
+      <c r="D83" s="103"/>
       <c r="E83" s="31">
         <v>21.5</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>0.5</v>
       </c>
       <c r="O83" s="80">
-        <f>P83/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P83" s="80">
@@ -10270,7 +10270,7 @@
       <c r="C84" s="20">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="118"/>
+      <c r="D84" s="104"/>
       <c r="E84" s="35">
         <v>21.5</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="82">
-        <f>P84/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P84" s="82">
@@ -10381,7 +10381,7 @@
       <c r="C85" s="14">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D85" s="100" t="s">
         <v>67</v>
       </c>
       <c r="E85" s="31">
@@ -10415,7 +10415,7 @@
         <v>0.5</v>
       </c>
       <c r="O85" s="80">
-        <f>P85/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P85" s="80">
@@ -10491,7 +10491,7 @@
       <c r="C86" s="14">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="112"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="31">
         <v>21.5</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>0.5</v>
       </c>
       <c r="O86" s="80">
-        <f>P86/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P86" s="80">
@@ -10599,7 +10599,7 @@
       <c r="C87" s="14">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="112"/>
+      <c r="D87" s="98"/>
       <c r="E87" s="31">
         <v>21.5</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>0.5</v>
       </c>
       <c r="O87" s="80">
-        <f>P87/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P87" s="80">
@@ -10707,7 +10707,7 @@
       <c r="C88" s="17">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="113"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="33">
         <v>21.5</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>0.5</v>
       </c>
       <c r="O88" s="81">
-        <f>P88/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P88" s="81">
@@ -10815,7 +10815,7 @@
       <c r="C89" s="14">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="111" t="s">
+      <c r="D89" s="97" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="31">
@@ -10849,7 +10849,7 @@
         <v>0.5</v>
       </c>
       <c r="O89" s="80">
-        <f>P89/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P89" s="80">
@@ -10925,7 +10925,7 @@
       <c r="C90" s="14">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="112"/>
+      <c r="D90" s="98"/>
       <c r="E90" s="31">
         <v>21.5</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0.5</v>
       </c>
       <c r="O90" s="80">
-        <f>P90/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P90" s="80">
@@ -11033,7 +11033,7 @@
       <c r="C91" s="14">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="112"/>
+      <c r="D91" s="98"/>
       <c r="E91" s="31">
         <v>21.5</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>0.5</v>
       </c>
       <c r="O91" s="80">
-        <f>P91/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P91" s="80">
@@ -11141,7 +11141,7 @@
       <c r="C92" s="14">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="112"/>
+      <c r="D92" s="98"/>
       <c r="E92" s="31">
         <v>21.5</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>0.5</v>
       </c>
       <c r="O92" s="80">
-        <f>P92/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P92" s="80">
@@ -11249,7 +11249,7 @@
       <c r="C93" s="14">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="112"/>
+      <c r="D93" s="98"/>
       <c r="E93" s="31">
         <v>21.5</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>0.5</v>
       </c>
       <c r="O93" s="80">
-        <f>P93/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P93" s="80">
@@ -11357,7 +11357,7 @@
       <c r="C94" s="17">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="113"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="33">
         <v>21.5</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0.5</v>
       </c>
       <c r="O94" s="81">
-        <f>P94/14.5</f>
+        <f t="shared" si="4"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P94" s="81">
@@ -11465,7 +11465,7 @@
       <c r="C95" s="14">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="111" t="s">
+      <c r="D95" s="97" t="s">
         <v>70</v>
       </c>
       <c r="E95" s="31">
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="80">
-        <f>P95/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P95" s="80"/>
@@ -11575,7 +11575,7 @@
       <c r="C96" s="14">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="112"/>
+      <c r="D96" s="98"/>
       <c r="E96" s="31">
         <v>21.5</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="80">
-        <f>P96/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P96" s="80"/>
@@ -11683,7 +11683,7 @@
       <c r="C97" s="14">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="112"/>
+      <c r="D97" s="98"/>
       <c r="E97" s="31">
         <v>21.5</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>0.25</v>
       </c>
       <c r="O97" s="80">
-        <f>P97/14.5</f>
+        <f t="shared" si="4"/>
         <v>0.99379310344827587</v>
       </c>
       <c r="P97" s="80">
@@ -11796,7 +11796,7 @@
       <c r="C98" s="14">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="112"/>
+      <c r="D98" s="98"/>
       <c r="E98" s="31">
         <v>21.5</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="80">
-        <f>P98/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P98" s="80"/>
@@ -11904,7 +11904,7 @@
       <c r="C99" s="14">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="112"/>
+      <c r="D99" s="98"/>
       <c r="E99" s="31">
         <v>21.5</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="80">
-        <f>P99/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P99" s="80"/>
@@ -12012,7 +12012,7 @@
       <c r="C100" s="14">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="112"/>
+      <c r="D100" s="98"/>
       <c r="E100" s="31">
         <v>21.5</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="80">
-        <f>P100/14.5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P100" s="80"/>
@@ -12120,7 +12120,7 @@
       <c r="C101" s="14">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="112"/>
+      <c r="D101" s="98"/>
       <c r="E101" s="31">
         <v>21.5</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="80">
-        <f>P101/14.5</f>
+        <f t="shared" ref="O101:O132" si="5">P101/14.5</f>
         <v>0</v>
       </c>
       <c r="P101" s="80"/>
@@ -12228,7 +12228,7 @@
       <c r="C102" s="14">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="112"/>
+      <c r="D102" s="98"/>
       <c r="E102" s="31">
         <v>21.5</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="80">
-        <f>P102/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P102" s="80"/>
@@ -12336,7 +12336,7 @@
       <c r="C103" s="17">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="113"/>
+      <c r="D103" s="99"/>
       <c r="E103" s="33">
         <v>21.5</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="81">
-        <f>P103/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P103" s="81"/>
@@ -12447,7 +12447,7 @@
       <c r="C104" s="14">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="111" t="s">
+      <c r="D104" s="97" t="s">
         <v>74</v>
       </c>
       <c r="E104" s="31">
@@ -12481,7 +12481,7 @@
         <v>0.5</v>
       </c>
       <c r="O104" s="80">
-        <f>P104/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="P104" s="80">
@@ -12559,7 +12559,7 @@
       <c r="C105" s="14">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="112"/>
+      <c r="D105" s="98"/>
       <c r="E105" s="31">
         <v>21.5</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>0.25</v>
       </c>
       <c r="O105" s="80">
-        <f>P105/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P105" s="80">
@@ -12669,7 +12669,7 @@
       <c r="C106" s="14">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="112"/>
+      <c r="D106" s="98"/>
       <c r="E106" s="31">
         <v>21.5</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>0.5</v>
       </c>
       <c r="O106" s="80">
-        <f>P106/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2013793103448278</v>
       </c>
       <c r="P106" s="80">
@@ -12779,7 +12779,7 @@
       <c r="C107" s="14">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="112"/>
+      <c r="D107" s="98"/>
       <c r="E107" s="31">
         <v>21.5</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>0.25</v>
       </c>
       <c r="O107" s="80">
-        <f>P107/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P107" s="80">
@@ -12889,7 +12889,7 @@
       <c r="C108" s="14">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="112"/>
+      <c r="D108" s="98"/>
       <c r="E108" s="31">
         <v>21.5</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>0.5</v>
       </c>
       <c r="O108" s="80">
-        <f>P108/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="P108" s="80">
@@ -12999,7 +12999,7 @@
       <c r="C109" s="14">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="112"/>
+      <c r="D109" s="98"/>
       <c r="E109" s="31">
         <v>21.5</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>0.25</v>
       </c>
       <c r="O109" s="80">
-        <f>P109/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P109" s="80">
@@ -13109,7 +13109,7 @@
       <c r="C110" s="14">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="112"/>
+      <c r="D110" s="98"/>
       <c r="E110" s="31">
         <v>21.5</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>0.25</v>
       </c>
       <c r="O110" s="80">
-        <f>P110/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P110" s="80">
@@ -13219,7 +13219,7 @@
       <c r="C111" s="14">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="112"/>
+      <c r="D111" s="98"/>
       <c r="E111" s="31">
         <v>21.5</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>0.5</v>
       </c>
       <c r="O111" s="80">
-        <f>P111/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="P111" s="80">
@@ -13329,7 +13329,7 @@
       <c r="C112" s="14">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="112"/>
+      <c r="D112" s="98"/>
       <c r="E112" s="31">
         <v>21.5</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>0.5</v>
       </c>
       <c r="O112" s="80">
-        <f>P112/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="P112" s="80">
@@ -13439,7 +13439,7 @@
       <c r="C113" s="14">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="112"/>
+      <c r="D113" s="98"/>
       <c r="E113" s="31">
         <v>21.5</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>0.25</v>
       </c>
       <c r="O113" s="80">
-        <f>P113/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P113" s="80">
@@ -13549,7 +13549,7 @@
       <c r="C114" s="14">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="112"/>
+      <c r="D114" s="98"/>
       <c r="E114" s="31">
         <v>21.5</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>0.5</v>
       </c>
       <c r="O114" s="80">
-        <f>P114/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2006896551724138</v>
       </c>
       <c r="P114" s="80">
@@ -13659,7 +13659,7 @@
       <c r="C115" s="14">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="112"/>
+      <c r="D115" s="98"/>
       <c r="E115" s="31">
         <v>21.5</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>0.25</v>
       </c>
       <c r="O115" s="80">
-        <f>P115/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0241379310344827</v>
       </c>
       <c r="P115" s="80">
@@ -13769,7 +13769,7 @@
       <c r="C116" s="28">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="112"/>
+      <c r="D116" s="98"/>
       <c r="E116" s="31">
         <v>21.5</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>0.25</v>
       </c>
       <c r="O116" s="80">
-        <f>P116/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0241379310344827</v>
       </c>
       <c r="P116" s="80">
@@ -13879,7 +13879,7 @@
       <c r="C117" s="14">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="112"/>
+      <c r="D117" s="98"/>
       <c r="E117" s="31">
         <v>21.5</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>0.5</v>
       </c>
       <c r="O117" s="80">
-        <f>P117/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2027586206896552</v>
       </c>
       <c r="P117" s="80">
@@ -13989,7 +13989,7 @@
       <c r="C118" s="14">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="112"/>
+      <c r="D118" s="98"/>
       <c r="E118" s="31">
         <v>21.5</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>0.25</v>
       </c>
       <c r="O118" s="80">
-        <f>P118/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P118" s="80">
@@ -14099,7 +14099,7 @@
       <c r="C119" s="14">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="112"/>
+      <c r="D119" s="98"/>
       <c r="E119" s="31">
         <v>21.5</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>0.5</v>
       </c>
       <c r="O119" s="80">
-        <f>P119/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.1979310344827587</v>
       </c>
       <c r="P119" s="80">
@@ -14209,7 +14209,7 @@
       <c r="C120" s="20">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="115"/>
+      <c r="D120" s="101"/>
       <c r="E120" s="35">
         <v>21.5</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>0.25</v>
       </c>
       <c r="O120" s="82">
-        <f>P120/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P120" s="82">
@@ -14319,7 +14319,7 @@
       <c r="C121" s="14">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="114" t="s">
+      <c r="D121" s="100" t="s">
         <v>75</v>
       </c>
       <c r="E121" s="31">
@@ -14353,7 +14353,7 @@
         <v>0.5</v>
       </c>
       <c r="O121" s="80">
-        <f>P121/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P121" s="80">
@@ -14434,7 +14434,7 @@
       <c r="C122" s="14">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="112"/>
+      <c r="D122" s="98"/>
       <c r="E122" s="31">
         <v>21.5</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="80">
-        <f>P122/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P122" s="80">
@@ -14544,7 +14544,7 @@
       <c r="C123" s="14">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="112"/>
+      <c r="D123" s="98"/>
       <c r="E123" s="31">
         <v>21.5</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="80">
-        <f>P123/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P123" s="80">
@@ -14654,7 +14654,7 @@
       <c r="C124" s="14">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="112"/>
+      <c r="D124" s="98"/>
       <c r="E124" s="31">
         <v>21.5</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>0.25</v>
       </c>
       <c r="O124" s="80">
-        <f>P124/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0220689655172415</v>
       </c>
       <c r="P124" s="80">
@@ -14764,7 +14764,7 @@
       <c r="C125" s="17">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="113"/>
+      <c r="D125" s="99"/>
       <c r="E125" s="33">
         <v>21.5</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>0.25</v>
       </c>
       <c r="O125" s="81">
-        <f>P125/14.5</f>
+        <f t="shared" si="5"/>
         <v>1.0220689655172415</v>
       </c>
       <c r="P125" s="81">
@@ -14877,7 +14877,7 @@
       <c r="C126" s="14">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="111" t="s">
+      <c r="D126" s="97" t="s">
         <v>77</v>
       </c>
       <c r="E126" s="31">
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="80">
-        <f>P126/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P126" s="80"/>
@@ -14990,7 +14990,7 @@
       <c r="C127" s="14">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="112"/>
+      <c r="D127" s="98"/>
       <c r="E127" s="31">
         <v>21.5</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="80">
-        <f>P127/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P127" s="80"/>
@@ -15098,7 +15098,7 @@
       <c r="C128" s="14">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="112"/>
+      <c r="D128" s="98"/>
       <c r="E128" s="31">
         <v>21.5</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="80">
-        <f>P128/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P128" s="80"/>
@@ -15204,7 +15204,7 @@
       <c r="C129" s="14">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="112"/>
+      <c r="D129" s="98"/>
       <c r="E129" s="31">
         <v>21.5</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="80">
-        <f>P129/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P129" s="80"/>
@@ -15310,7 +15310,7 @@
       <c r="C130" s="14">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="112"/>
+      <c r="D130" s="98"/>
       <c r="E130" s="31">
         <v>21.5</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="80">
-        <f>P130/14.5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P130" s="80"/>
@@ -15419,7 +15419,7 @@
       <c r="C131" s="14">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="112"/>
+      <c r="D131" s="98"/>
       <c r="E131" s="31">
         <v>21.5</v>
       </c>
@@ -15451,10 +15451,12 @@
         <v>0</v>
       </c>
       <c r="O131" s="80">
-        <f>P131/14.5</f>
-        <v>0</v>
-      </c>
-      <c r="P131" s="80"/>
+        <f t="shared" si="5"/>
+        <v>0.97931034482758617</v>
+      </c>
+      <c r="P131" s="80">
+        <v>14.2</v>
+      </c>
       <c r="Q131" s="80"/>
       <c r="R131" s="83">
         <v>4.16</v>
@@ -15530,7 +15532,7 @@
       <c r="C132" s="14">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="112"/>
+      <c r="D132" s="98"/>
       <c r="E132" s="31">
         <v>21.5</v>
       </c>
@@ -15562,10 +15564,12 @@
         <v>0</v>
       </c>
       <c r="O132" s="80">
-        <f>P132/14.5</f>
-        <v>0</v>
-      </c>
-      <c r="P132" s="80"/>
+        <f t="shared" si="5"/>
+        <v>1.1724137931034482</v>
+      </c>
+      <c r="P132" s="80">
+        <v>17</v>
+      </c>
       <c r="Q132" s="80"/>
       <c r="R132" s="83">
         <v>4.16</v>
@@ -15641,7 +15645,7 @@
       <c r="C133" s="14">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="112"/>
+      <c r="D133" s="98"/>
       <c r="E133" s="31">
         <v>21.5</v>
       </c>
@@ -15673,10 +15677,11 @@
         <v>0</v>
       </c>
       <c r="O133" s="80">
-        <f>P133/14.5</f>
-        <v>0</v>
-      </c>
-      <c r="P133" s="80"/>
+        <v>1.4</v>
+      </c>
+      <c r="P133" s="80">
+        <v>20</v>
+      </c>
       <c r="Q133" s="80"/>
       <c r="R133" s="83">
         <v>4.16</v>
@@ -15749,7 +15754,7 @@
       <c r="C134" s="14">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="112"/>
+      <c r="D134" s="98"/>
       <c r="E134" s="31">
         <v>21.5</v>
       </c>
@@ -15781,8 +15786,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="80">
-        <f>P134/14.5</f>
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P134" s="80"/>
       <c r="Q134" s="80"/>
@@ -15857,7 +15861,7 @@
       <c r="C135" s="14">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="112"/>
+      <c r="D135" s="98"/>
       <c r="E135" s="31">
         <v>21.5</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="80">
-        <f>P135/14.5</f>
+        <f t="shared" ref="O133:O164" si="6">P135/14.5</f>
         <v>0</v>
       </c>
       <c r="P135" s="80"/>
@@ -15965,7 +15969,7 @@
       <c r="C136" s="14">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="112"/>
+      <c r="D136" s="98"/>
       <c r="E136" s="31">
         <v>21.5</v>
       </c>
@@ -15995,7 +15999,7 @@
         <v>0.5</v>
       </c>
       <c r="O136" s="80">
-        <f>P136/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.3655172413793104</v>
       </c>
       <c r="P136" s="80">
@@ -16073,7 +16077,7 @@
       <c r="C137" s="17">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="113"/>
+      <c r="D137" s="99"/>
       <c r="E137" s="33">
         <v>21.5</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>0.5</v>
       </c>
       <c r="O137" s="81">
-        <f>P137/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.4896551724137932</v>
       </c>
       <c r="P137" s="81">
@@ -16218,7 +16222,7 @@
         <v>0.5</v>
       </c>
       <c r="O138" s="80">
-        <f>P138/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P138" s="80">
@@ -16330,7 +16334,7 @@
         <v>0.5</v>
       </c>
       <c r="O139" s="80">
-        <f>P139/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P139" s="80">
@@ -16439,7 +16443,7 @@
         <v>0.5</v>
       </c>
       <c r="O140" s="80">
-        <f>P140/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.2965517241379312</v>
       </c>
       <c r="P140" s="80">
@@ -16548,7 +16552,7 @@
         <v>0.5</v>
       </c>
       <c r="O141" s="80">
-        <f>P141/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.3758620689655172</v>
       </c>
       <c r="P141" s="80">
@@ -16660,7 +16664,7 @@
         <v>0.5</v>
       </c>
       <c r="O142" s="80">
-        <f>P142/14.5</f>
+        <f t="shared" si="6"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P142" s="80">
@@ -16738,6 +16742,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -16751,20 +16769,6 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED1491-DCD0-C94A-B7E3-A4FF6F3E0773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118A8EA-43DD-FD48-B8B2-EC20614AE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="35600" windowHeight="21900" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="3420" windowWidth="32460" windowHeight="18320" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1275,10 +1275,10 @@
   <dimension ref="A1:AO143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="AC118" sqref="AC118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,8 +1519,14 @@
       <c r="N3" s="79">
         <v>0.5</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
+      <c r="O3" s="79">
+        <f t="shared" ref="O3:O36" si="0">P3/14.5</f>
+        <v>1.2206896551724138</v>
+      </c>
+      <c r="P3" s="79">
+        <f t="shared" ref="P3:P4" si="1">17.7</f>
+        <v>17.7</v>
+      </c>
       <c r="Q3" s="79"/>
       <c r="R3" s="79">
         <v>6.14</v>
@@ -1625,8 +1631,14 @@
       <c r="N4" s="79">
         <v>0.5</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
+      <c r="O4" s="79">
+        <f t="shared" si="0"/>
+        <v>1.2206896551724138</v>
+      </c>
+      <c r="P4" s="79">
+        <f t="shared" si="1"/>
+        <v>17.7</v>
+      </c>
       <c r="Q4" s="79"/>
       <c r="R4" s="79">
         <v>6.14</v>
@@ -1729,7 +1741,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" s="79">
-        <f t="shared" ref="O5:O36" si="0">P5/14.5</f>
+        <f t="shared" si="0"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P5" s="79">
@@ -4676,7 +4688,7 @@
       </c>
       <c r="Q32" s="79"/>
       <c r="R32" s="79">
-        <f t="shared" ref="R32:R58" si="1">6.14</f>
+        <f t="shared" ref="R32:R58" si="2">6.14</f>
         <v>6.14</v>
       </c>
       <c r="S32" s="79">
@@ -4785,7 +4797,7 @@
       </c>
       <c r="Q33" s="79"/>
       <c r="R33" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S33" s="79">
@@ -4896,7 +4908,7 @@
         <v>40</v>
       </c>
       <c r="R34" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S34" s="79">
@@ -5007,7 +5019,7 @@
         <v>40</v>
       </c>
       <c r="R35" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S35" s="79">
@@ -5219,7 +5231,7 @@
         <v>0.5</v>
       </c>
       <c r="O37" s="79">
-        <f t="shared" ref="O37:O68" si="2">P37/14.5</f>
+        <f t="shared" ref="O37:O68" si="3">P37/14.5</f>
         <v>1.2206896551724138</v>
       </c>
       <c r="P37" s="79">
@@ -5229,7 +5241,7 @@
         <v>20</v>
       </c>
       <c r="R37" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S37" s="79">
@@ -5330,7 +5342,7 @@
         <v>0.5</v>
       </c>
       <c r="O38" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P38" s="79">
@@ -5340,7 +5352,7 @@
         <v>10</v>
       </c>
       <c r="R38" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S38" s="79">
@@ -5441,7 +5453,7 @@
         <v>0.5</v>
       </c>
       <c r="O39" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2206896551724138</v>
       </c>
       <c r="P39" s="80">
@@ -5451,7 +5463,7 @@
         <v>10</v>
       </c>
       <c r="R39" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S39" s="80">
@@ -5554,7 +5566,7 @@
         <v>0.5</v>
       </c>
       <c r="O40" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P40" s="79">
@@ -5562,7 +5574,7 @@
       </c>
       <c r="Q40" s="79"/>
       <c r="R40" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S40" s="79">
@@ -5666,7 +5678,7 @@
         <v>0.5</v>
       </c>
       <c r="O41" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P41" s="79">
@@ -5674,7 +5686,7 @@
       </c>
       <c r="Q41" s="79"/>
       <c r="R41" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S41" s="79">
@@ -5775,7 +5787,7 @@
         <v>0.25</v>
       </c>
       <c r="O42" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P42" s="79">
@@ -5884,7 +5896,7 @@
         <v>0.25</v>
       </c>
       <c r="O43" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P43" s="79">
@@ -5892,7 +5904,7 @@
       </c>
       <c r="Q43" s="79"/>
       <c r="R43" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S43" s="79">
@@ -5993,7 +6005,7 @@
         <v>0.25</v>
       </c>
       <c r="O44" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P44" s="79">
@@ -6001,7 +6013,7 @@
       </c>
       <c r="Q44" s="79"/>
       <c r="R44" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S44" s="79">
@@ -6102,7 +6114,7 @@
         <v>0.5</v>
       </c>
       <c r="O45" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P45" s="81">
@@ -6110,7 +6122,7 @@
       </c>
       <c r="Q45" s="81"/>
       <c r="R45" s="81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S45" s="81">
@@ -6213,7 +6225,7 @@
         <v>0.25</v>
       </c>
       <c r="O46" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P46" s="79">
@@ -6221,7 +6233,7 @@
       </c>
       <c r="Q46" s="79"/>
       <c r="R46" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S46" s="79">
@@ -6325,7 +6337,7 @@
         <v>0.25</v>
       </c>
       <c r="O47" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P47" s="79">
@@ -6333,7 +6345,7 @@
       </c>
       <c r="Q47" s="79"/>
       <c r="R47" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S47" s="79">
@@ -6437,7 +6449,7 @@
         <v>0.25</v>
       </c>
       <c r="O48" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P48" s="79">
@@ -6445,7 +6457,7 @@
       </c>
       <c r="Q48" s="79"/>
       <c r="R48" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S48" s="79">
@@ -6546,7 +6558,7 @@
         <v>0.5</v>
       </c>
       <c r="O49" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P49" s="79">
@@ -6554,7 +6566,7 @@
       </c>
       <c r="Q49" s="79"/>
       <c r="R49" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S49" s="79">
@@ -6655,7 +6667,7 @@
         <v>0.5</v>
       </c>
       <c r="O50" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P50" s="80">
@@ -6663,7 +6675,7 @@
       </c>
       <c r="Q50" s="80"/>
       <c r="R50" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S50" s="80">
@@ -6766,7 +6778,7 @@
         <v>0.5</v>
       </c>
       <c r="O51" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P51" s="79">
@@ -6774,7 +6786,7 @@
       </c>
       <c r="Q51" s="79"/>
       <c r="R51" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S51" s="79">
@@ -6875,7 +6887,7 @@
         <v>0.5</v>
       </c>
       <c r="O52" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P52" s="79">
@@ -6883,7 +6895,7 @@
       </c>
       <c r="Q52" s="79"/>
       <c r="R52" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S52" s="79">
@@ -6984,7 +6996,7 @@
         <v>0.25</v>
       </c>
       <c r="O53" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P53" s="79">
@@ -6992,7 +7004,7 @@
       </c>
       <c r="Q53" s="79"/>
       <c r="R53" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S53" s="79">
@@ -7093,7 +7105,7 @@
         <v>0.25</v>
       </c>
       <c r="O54" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P54" s="79">
@@ -7101,7 +7113,7 @@
       </c>
       <c r="Q54" s="79"/>
       <c r="R54" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S54" s="79">
@@ -7202,7 +7214,7 @@
         <v>0.25</v>
       </c>
       <c r="O55" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0262068965517241</v>
       </c>
       <c r="P55" s="79">
@@ -7210,7 +7222,7 @@
       </c>
       <c r="Q55" s="79"/>
       <c r="R55" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S55" s="79">
@@ -7314,7 +7326,7 @@
         <v>0.25</v>
       </c>
       <c r="O56" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0262068965517241</v>
       </c>
       <c r="P56" s="79">
@@ -7322,7 +7334,7 @@
       </c>
       <c r="Q56" s="79"/>
       <c r="R56" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S56" s="79">
@@ -7423,7 +7435,7 @@
         <v>0.5</v>
       </c>
       <c r="O57" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2193103448275862</v>
       </c>
       <c r="P57" s="79">
@@ -7431,7 +7443,7 @@
       </c>
       <c r="Q57" s="79"/>
       <c r="R57" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S57" s="79">
@@ -7532,7 +7544,7 @@
         <v>0.5</v>
       </c>
       <c r="O58" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2193103448275862</v>
       </c>
       <c r="P58" s="80">
@@ -7540,7 +7552,7 @@
       </c>
       <c r="Q58" s="80"/>
       <c r="R58" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
       <c r="S58" s="80">
@@ -7643,7 +7655,7 @@
         <v>0.5</v>
       </c>
       <c r="O59" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P59" s="79">
@@ -7651,7 +7663,7 @@
       </c>
       <c r="Q59" s="79"/>
       <c r="R59" s="79">
-        <f t="shared" ref="R59:R70" si="3">6.14-1.98</f>
+        <f t="shared" ref="R59:R70" si="4">6.14-1.98</f>
         <v>4.16</v>
       </c>
       <c r="S59" s="79">
@@ -7754,7 +7766,7 @@
         <v>0.5</v>
       </c>
       <c r="O60" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P60" s="79">
@@ -7762,7 +7774,7 @@
       </c>
       <c r="Q60" s="79"/>
       <c r="R60" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S60" s="79">
@@ -7863,7 +7875,7 @@
         <v>0.5</v>
       </c>
       <c r="O61" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P61" s="80">
@@ -7871,7 +7883,7 @@
       </c>
       <c r="Q61" s="80"/>
       <c r="R61" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S61" s="80">
@@ -7974,7 +7986,7 @@
         <v>0.5</v>
       </c>
       <c r="O62" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P62" s="79">
@@ -7982,7 +7994,7 @@
       </c>
       <c r="Q62" s="79"/>
       <c r="R62" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S62" s="79">
@@ -8089,7 +8101,7 @@
         <v>0.5</v>
       </c>
       <c r="O63" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P63" s="79">
@@ -8097,7 +8109,7 @@
       </c>
       <c r="Q63" s="79"/>
       <c r="R63" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S63" s="79">
@@ -8201,7 +8213,7 @@
         <v>0.5</v>
       </c>
       <c r="O64" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P64" s="80">
@@ -8209,7 +8221,7 @@
       </c>
       <c r="Q64" s="80"/>
       <c r="R64" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S64" s="80">
@@ -8315,7 +8327,7 @@
         <v>0.5</v>
       </c>
       <c r="O65" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P65" s="79">
@@ -8323,7 +8335,7 @@
       </c>
       <c r="Q65" s="79"/>
       <c r="R65" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S65" s="79">
@@ -8424,7 +8436,7 @@
         <v>0.5</v>
       </c>
       <c r="O66" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2172413793103447</v>
       </c>
       <c r="P66" s="79">
@@ -8432,7 +8444,7 @@
       </c>
       <c r="Q66" s="79"/>
       <c r="R66" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S66" s="79">
@@ -8533,7 +8545,7 @@
         <v>0.25</v>
       </c>
       <c r="O67" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P67" s="79">
@@ -8541,7 +8553,7 @@
       </c>
       <c r="Q67" s="79"/>
       <c r="R67" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S67" s="79">
@@ -8642,7 +8654,7 @@
         <v>0.25</v>
       </c>
       <c r="O68" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P68" s="80">
@@ -8650,7 +8662,7 @@
       </c>
       <c r="Q68" s="80"/>
       <c r="R68" s="80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S68" s="80">
@@ -8753,7 +8765,7 @@
         <v>0.5</v>
       </c>
       <c r="O69" s="79">
-        <f t="shared" ref="O69:O100" si="4">P69/14.5</f>
+        <f t="shared" ref="O69:O100" si="5">P69/14.5</f>
         <v>1.2158620689655171</v>
       </c>
       <c r="P69" s="79">
@@ -8761,7 +8773,7 @@
       </c>
       <c r="Q69" s="79"/>
       <c r="R69" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S69" s="79">
@@ -8865,7 +8877,7 @@
         <v>0.5</v>
       </c>
       <c r="O70" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2158620689655171</v>
       </c>
       <c r="P70" s="79">
@@ -8873,7 +8885,7 @@
       </c>
       <c r="Q70" s="79"/>
       <c r="R70" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
       <c r="S70" s="79">
@@ -8974,7 +8986,7 @@
         <v>0.25</v>
       </c>
       <c r="O71" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0282758620689656</v>
       </c>
       <c r="P71" s="79">
@@ -9082,7 +9094,7 @@
         <v>0.25</v>
       </c>
       <c r="O72" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0282758620689656</v>
       </c>
       <c r="P72" s="79">
@@ -9190,7 +9202,7 @@
         <v>0.5</v>
       </c>
       <c r="O73" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P73" s="79">
@@ -9298,7 +9310,7 @@
         <v>0.5</v>
       </c>
       <c r="O74" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P74" s="79">
@@ -9406,7 +9418,7 @@
         <v>0.25</v>
       </c>
       <c r="O75" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P75" s="79">
@@ -9514,7 +9526,7 @@
         <v>0.25</v>
       </c>
       <c r="O76" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0275862068965518</v>
       </c>
       <c r="P76" s="79">
@@ -9622,7 +9634,7 @@
         <v>0.25</v>
       </c>
       <c r="O77" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0248275862068965</v>
       </c>
       <c r="P77" s="79">
@@ -9730,7 +9742,7 @@
         <v>0.25</v>
       </c>
       <c r="O78" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0248275862068965</v>
       </c>
       <c r="P78" s="79">
@@ -9841,7 +9853,7 @@
         <v>0.5</v>
       </c>
       <c r="O79" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2144827586206897</v>
       </c>
       <c r="P79" s="79">
@@ -9949,7 +9961,7 @@
         <v>0.5</v>
       </c>
       <c r="O80" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2144827586206897</v>
       </c>
       <c r="P80" s="80">
@@ -10059,7 +10071,7 @@
         <v>0.5</v>
       </c>
       <c r="O81" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P81" s="79">
@@ -10167,7 +10179,7 @@
         <v>0.5</v>
       </c>
       <c r="O82" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P82" s="79">
@@ -10275,7 +10287,7 @@
         <v>0.5</v>
       </c>
       <c r="O83" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2137931034482761</v>
       </c>
       <c r="P83" s="79">
@@ -10383,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P84" s="81">
@@ -10496,7 +10508,7 @@
         <v>0.5</v>
       </c>
       <c r="O85" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P85" s="79">
@@ -10604,7 +10616,7 @@
         <v>0.5</v>
       </c>
       <c r="O86" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2165517241379311</v>
       </c>
       <c r="P86" s="79">
@@ -10712,7 +10724,7 @@
         <v>0.5</v>
       </c>
       <c r="O87" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P87" s="79">
@@ -10820,7 +10832,7 @@
         <v>0.5</v>
       </c>
       <c r="O88" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P88" s="80">
@@ -10930,7 +10942,7 @@
         <v>0.5</v>
       </c>
       <c r="O89" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P89" s="79">
@@ -11038,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="O90" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P90" s="79">
@@ -11146,7 +11158,7 @@
         <v>0.5</v>
       </c>
       <c r="O91" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P91" s="79">
@@ -11254,7 +11266,7 @@
         <v>0.5</v>
       </c>
       <c r="O92" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P92" s="79">
@@ -11362,7 +11374,7 @@
         <v>0.5</v>
       </c>
       <c r="O93" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P93" s="79">
@@ -11470,7 +11482,7 @@
         <v>0.5</v>
       </c>
       <c r="O94" s="80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2020689655172414</v>
       </c>
       <c r="P94" s="80">
@@ -11580,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P95" s="79"/>
@@ -11688,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P96" s="79"/>
@@ -11796,7 +11808,7 @@
         <v>0.25</v>
       </c>
       <c r="O97" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99379310344827587</v>
       </c>
       <c r="P97" s="79">
@@ -11909,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P98" s="79"/>
@@ -12017,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P99" s="125"/>
@@ -12125,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P100" s="79"/>
@@ -12233,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="79">
-        <f t="shared" ref="O101:O132" si="5">P101/14.5</f>
+        <f t="shared" ref="O101:O132" si="6">P101/14.5</f>
         <v>0</v>
       </c>
       <c r="P101" s="79"/>
@@ -12341,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P102" s="79"/>
@@ -12449,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P103" s="80"/>
@@ -12562,7 +12574,7 @@
         <v>0.5</v>
       </c>
       <c r="O104" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="P104" s="79">
@@ -12672,7 +12684,7 @@
         <v>0.25</v>
       </c>
       <c r="O105" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P105" s="79">
@@ -12782,7 +12794,7 @@
         <v>0.5</v>
       </c>
       <c r="O106" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2013793103448278</v>
       </c>
       <c r="P106" s="79">
@@ -12892,7 +12904,7 @@
         <v>0.25</v>
       </c>
       <c r="O107" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P107" s="125">
@@ -13002,7 +13014,7 @@
         <v>0.5</v>
       </c>
       <c r="O108" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="P108" s="79">
@@ -13112,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="O109" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P109" s="79">
@@ -13222,7 +13234,7 @@
         <v>0.25</v>
       </c>
       <c r="O110" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P110" s="79">
@@ -13332,7 +13344,7 @@
         <v>0.5</v>
       </c>
       <c r="O111" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="P111" s="125">
@@ -13442,7 +13454,7 @@
         <v>0.5</v>
       </c>
       <c r="O112" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
       <c r="P112" s="79">
@@ -13552,7 +13564,7 @@
         <v>0.25</v>
       </c>
       <c r="O113" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P113" s="79">
@@ -13662,7 +13674,7 @@
         <v>0.5</v>
       </c>
       <c r="O114" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2006896551724138</v>
       </c>
       <c r="P114" s="79">
@@ -13772,7 +13784,7 @@
         <v>0.25</v>
       </c>
       <c r="O115" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0241379310344827</v>
       </c>
       <c r="P115" s="79">
@@ -13882,7 +13894,7 @@
         <v>0.25</v>
       </c>
       <c r="O116" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0241379310344827</v>
       </c>
       <c r="P116" s="125">
@@ -13992,7 +14004,7 @@
         <v>0.5</v>
       </c>
       <c r="O117" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2027586206896552</v>
       </c>
       <c r="P117" s="79">
@@ -14102,7 +14114,7 @@
         <v>0.25</v>
       </c>
       <c r="O118" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P118" s="79">
@@ -14212,7 +14224,7 @@
         <v>0.5</v>
       </c>
       <c r="O119" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1979310344827587</v>
       </c>
       <c r="P119" s="79">
@@ -14322,7 +14334,7 @@
         <v>0.25</v>
       </c>
       <c r="O120" s="81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
       <c r="P120" s="81">
@@ -14434,7 +14446,7 @@
         <v>0.5</v>
       </c>
       <c r="O121" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P121" s="79">
@@ -14547,7 +14559,7 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P122" s="79">
@@ -14657,7 +14669,7 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="P123" s="79">
@@ -14767,7 +14779,7 @@
         <v>0.25</v>
       </c>
       <c r="O124" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0220689655172415</v>
       </c>
       <c r="P124" s="79">
@@ -14877,7 +14889,7 @@
         <v>0.25</v>
       </c>
       <c r="O125" s="80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0220689655172415</v>
       </c>
       <c r="P125" s="80">
@@ -14992,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P126" s="79"/>
@@ -15103,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P127" s="79"/>
@@ -15209,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P128" s="79"/>
@@ -15315,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P129" s="79"/>
@@ -15421,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P130" s="125"/>
@@ -15532,7 +15544,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97931034482758617</v>
       </c>
       <c r="P131" s="79">
@@ -15645,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1724137931034482</v>
       </c>
       <c r="P132" s="79">
@@ -15974,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="79">
-        <f t="shared" ref="O133:O164" si="6">P135/14.5</f>
+        <f t="shared" ref="O133:O164" si="7">P135/14.5</f>
         <v>0</v>
       </c>
       <c r="P135" s="79"/>
@@ -16080,7 +16092,7 @@
         <v>0.5</v>
       </c>
       <c r="O136" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3655172413793104</v>
       </c>
       <c r="P136" s="79">
@@ -16188,7 +16200,7 @@
         <v>0.5</v>
       </c>
       <c r="O137" s="80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4896551724137932</v>
       </c>
       <c r="P137" s="80">
@@ -16303,7 +16315,7 @@
         <v>0.5</v>
       </c>
       <c r="O138" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P138" s="79">
@@ -16415,7 +16427,7 @@
         <v>0.5</v>
       </c>
       <c r="O139" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P139" s="79">
@@ -16524,7 +16536,7 @@
         <v>0.5</v>
       </c>
       <c r="O140" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2965517241379312</v>
       </c>
       <c r="P140" s="79">
@@ -16633,7 +16645,7 @@
         <v>0.5</v>
       </c>
       <c r="O141" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3758620689655172</v>
       </c>
       <c r="P141" s="79">
@@ -16745,7 +16757,7 @@
         <v>0.5</v>
       </c>
       <c r="O142" s="79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1655172413793102</v>
       </c>
       <c r="P142" s="79">

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118A8EA-43DD-FD48-B8B2-EC20614AE6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B4BAF-4848-D943-AAE1-9992807DD5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1740" yWindow="3420" windowWidth="32460" windowHeight="18320" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView xWindow="1740" yWindow="3400" windowWidth="32460" windowHeight="18320" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>Pulse length scan</t>
   </si>
   <si>
-    <t>Cold filter test</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>LLNL HPGe in spectrum instead of list mode</t>
-  </si>
-  <si>
-    <t>LN2 tests</t>
   </si>
   <si>
     <t>Shorter filter for LN2 test</t>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>Converter_</t>
+  </si>
+  <si>
+    <t>LN2 tests 1</t>
+  </si>
+  <si>
+    <t>LN2 tests2</t>
   </si>
 </sst>
 </file>
@@ -833,87 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -958,6 +877,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,11 +1274,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BCDDE3-F5B4-DA4C-B718-384735F9678D}">
   <dimension ref="A1:AO143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC118" sqref="AC118"/>
+      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,7 +1300,7 @@
     <col min="27" max="27" width="8.5" style="11" customWidth="1"/>
     <col min="28" max="28" width="2.1640625" style="12" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="9.6640625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.83203125" style="12" customWidth="1"/>
     <col min="31" max="32" width="10.83203125" style="12"/>
     <col min="33" max="33" width="9.83203125" style="13" customWidth="1"/>
     <col min="34" max="34" width="9.1640625" style="9" customWidth="1"/>
@@ -1309,59 +1309,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106" t="s">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106" t="s">
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="106"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="111" t="s">
+      <c r="W1" s="119"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="107" t="s">
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="105" t="s">
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
     </row>
     <row r="2" spans="1:39" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1407,34 +1407,34 @@
         <v>21</v>
       </c>
       <c r="O2" s="78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="78" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="78" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S2" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="V2" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="W2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="X2" s="86" t="s">
         <v>92</v>
-      </c>
-      <c r="W2" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="86" t="s">
-        <v>94</v>
       </c>
       <c r="Y2" s="38" t="s">
         <v>23</v>
@@ -1452,19 +1452,19 @@
         <v>27</v>
       </c>
       <c r="AD2" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="40" t="s">
         <v>28</v>
       </c>
       <c r="AF2" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI2" s="37" t="s">
         <v>29</v>
@@ -1486,7 +1486,7 @@
       <c r="C3" s="14">
         <v>0.40127314814814818</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="30">
@@ -1600,7 +1600,7 @@
       <c r="C4" s="14">
         <v>0.40682870370370372</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="30">
         <v>21.5</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="C5" s="14">
         <v>0.41111111111111115</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="30">
         <v>21.5</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="C6" s="14">
         <v>0.42552083333333335</v>
       </c>
-      <c r="D6" s="93"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="30">
         <v>21.5</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="C7" s="17">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="32">
         <v>21.5</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="C8" s="14">
         <v>0.44421296296296298</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="110" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="30">
@@ -2147,7 +2147,7 @@
       <c r="C9" s="14">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D9" s="93"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="30">
         <v>21.5</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="C10" s="14">
         <v>0.47092592592592591</v>
       </c>
-      <c r="D10" s="93"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="30">
         <v>21.5</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="C11" s="14">
         <v>0.47674768518518523</v>
       </c>
-      <c r="D11" s="93"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="30">
         <v>21.5</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="C12" s="14">
         <v>0.48277777777777775</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="30">
         <v>21.5</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="C13" s="14">
         <v>0.48981481481481487</v>
       </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30">
         <v>21.5</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="C14" s="17">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="95"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="32">
         <v>21.5</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="C15" s="14">
         <v>0.5020486111111111</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="111" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="30">
@@ -2905,7 +2905,7 @@
       <c r="C16" s="14">
         <v>0.51172453703703702</v>
       </c>
-      <c r="D16" s="93"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="30">
         <v>21.5</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="C17" s="14">
         <v>0.51809027777777772</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="30">
         <v>21.5</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="C18" s="14">
         <v>0.52388888888888896</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="30">
         <v>21.5</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="C19" s="14">
         <v>0.52932870370370366</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="30">
         <v>21.5</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="95"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="32">
         <v>21.5</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="C21" s="14">
         <v>0.55019675925925926</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="30">
@@ -3556,7 +3556,7 @@
       <c r="C22" s="14">
         <v>0.55509259259259258</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="30">
         <v>21.5</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="C23" s="17">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="32">
         <v>21.5</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="C24" s="14">
         <v>0.57002314814814814</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="110" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="30">
@@ -3883,7 +3883,7 @@
       <c r="C25" s="14">
         <v>0.57422453703703702</v>
       </c>
-      <c r="D25" s="93"/>
+      <c r="D25" s="111"/>
       <c r="E25" s="30">
         <v>21.5</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="C26" s="14">
         <v>0.5788078703703704</v>
       </c>
-      <c r="D26" s="93"/>
+      <c r="D26" s="111"/>
       <c r="E26" s="30">
         <v>21.5</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="C27" s="14">
         <v>0.58398148148148155</v>
       </c>
-      <c r="D27" s="93"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="30">
         <v>21.5</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="C28" s="14">
         <v>0.59293981481481484</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="111"/>
       <c r="E28" s="30">
         <v>21.5</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="C29" s="14">
         <v>0.5967824074074074</v>
       </c>
-      <c r="D29" s="93"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="30">
         <v>21.5</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="C30" s="14">
         <v>0.60218749999999999</v>
       </c>
-      <c r="D30" s="93"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="30">
         <v>21.5</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="C31" s="17">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="95"/>
+      <c r="D31" s="112"/>
       <c r="E31" s="32">
         <v>21.5</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="C32" s="14">
         <v>0.61603009259259256</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="110" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="30">
@@ -4757,7 +4757,7 @@
       <c r="C33" s="14">
         <v>0.62089120370370365</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="30">
         <v>21.5</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="C34" s="14">
         <v>0.62523148148148155</v>
       </c>
-      <c r="D34" s="93"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="30">
         <v>21.5</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="C35" s="14">
         <v>0.6333333333333333</v>
       </c>
-      <c r="D35" s="93"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="30">
         <v>21.5</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="C36" s="14">
         <v>0.63993055555555556</v>
       </c>
-      <c r="D36" s="93"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="30">
         <v>21.5</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="C37" s="14">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D37" s="93"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="30">
         <v>21.5</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="C38" s="14">
         <v>0.65271990740740737</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="30">
         <v>21.5</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="C39" s="17">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="95"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="32">
         <v>21.5</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="C40" s="14">
         <v>0.67921296296296296</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D40" s="110" t="s">
         <v>47</v>
       </c>
       <c r="E40" s="30">
@@ -5646,7 +5646,7 @@
       <c r="C41" s="14">
         <v>0.68548611111111113</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="111"/>
       <c r="E41" s="30">
         <v>21.5</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="C42" s="14">
         <v>0.6899305555555556</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="111"/>
       <c r="E42" s="30">
         <v>21.5</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="C43" s="14">
         <v>0.69453703703703706</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="111"/>
       <c r="E43" s="30">
         <v>21.5</v>
       </c>
@@ -5973,7 +5973,7 @@
       <c r="C44" s="14">
         <v>0.69836805555555559</v>
       </c>
-      <c r="D44" s="93"/>
+      <c r="D44" s="111"/>
       <c r="E44" s="30">
         <v>21.5</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="C45" s="20">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="94"/>
+      <c r="D45" s="127"/>
       <c r="E45" s="34">
         <v>21.5</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="C46" s="14">
         <v>0.36270833333333335</v>
       </c>
-      <c r="D46" s="93" t="s">
+      <c r="D46" s="111" t="s">
         <v>49</v>
       </c>
       <c r="E46" s="30">
@@ -6305,7 +6305,7 @@
       <c r="C47" s="14">
         <v>0.38802083333333331</v>
       </c>
-      <c r="D47" s="93"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="30">
         <v>21.5</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="C48" s="14">
         <v>0.3918402777777778</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="30">
         <v>21.5</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="C49" s="14">
         <v>0.39940972222222221</v>
       </c>
-      <c r="D49" s="93"/>
+      <c r="D49" s="111"/>
       <c r="E49" s="30">
         <v>21.5</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="C50" s="17">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="95"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="32">
         <v>21.5</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="C51" s="14">
         <v>0.41876157407407405</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="110" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="30">
@@ -6855,7 +6855,7 @@
       <c r="C52" s="14">
         <v>0.42442129629629632</v>
       </c>
-      <c r="D52" s="93"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="30">
         <v>21.5</v>
       </c>
@@ -6964,7 +6964,7 @@
       <c r="C53" s="14">
         <v>0.43077546296296299</v>
       </c>
-      <c r="D53" s="93"/>
+      <c r="D53" s="111"/>
       <c r="E53" s="30">
         <v>21.5</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="C54" s="14">
         <v>0.43530092592592595</v>
       </c>
-      <c r="D54" s="93"/>
+      <c r="D54" s="111"/>
       <c r="E54" s="30">
         <v>21.5</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="C55" s="14">
         <v>0.45018518518518519</v>
       </c>
-      <c r="D55" s="93"/>
+      <c r="D55" s="111"/>
       <c r="E55" s="30">
         <v>21.5</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="C56" s="14">
         <v>0.45510416666666664</v>
       </c>
-      <c r="D56" s="93"/>
+      <c r="D56" s="111"/>
       <c r="E56" s="30">
         <v>21.5</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="C57" s="14">
         <v>0.46217592592592593</v>
       </c>
-      <c r="D57" s="93"/>
+      <c r="D57" s="111"/>
       <c r="E57" s="30">
         <v>21.5</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="C58" s="17">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="112"/>
       <c r="E58" s="32">
         <v>21.5</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="C62" s="14">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="101" t="s">
+      <c r="D62" s="133" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="30">
@@ -8069,7 +8069,7 @@
       <c r="C63" s="14">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="102"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="30">
         <v>21.5</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="C64" s="17">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="104"/>
+      <c r="D64" s="136"/>
       <c r="E64" s="32">
         <v>21.5</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="C65" s="14">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="128" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="30">
@@ -8404,7 +8404,7 @@
       <c r="C66" s="14">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="97"/>
+      <c r="D66" s="129"/>
       <c r="E66" s="30">
         <v>21.5</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="C67" s="14">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="97"/>
+      <c r="D67" s="129"/>
       <c r="E67" s="30">
         <v>21.5</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="C68" s="17">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="98"/>
+      <c r="D68" s="130"/>
       <c r="E68" s="32">
         <v>21.5</v>
       </c>
@@ -8731,7 +8731,7 @@
       <c r="C69" s="14">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="96" t="s">
+      <c r="D69" s="128" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="30">
@@ -8845,7 +8845,7 @@
       <c r="C70" s="14">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="129"/>
       <c r="E70" s="30">
         <v>21.5</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="C71" s="14">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="129"/>
       <c r="E71" s="30">
         <v>21.5</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="C72" s="14">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="97"/>
+      <c r="D72" s="129"/>
       <c r="E72" s="30">
         <v>21.5</v>
       </c>
@@ -9170,7 +9170,7 @@
       <c r="C73" s="14">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="97"/>
+      <c r="D73" s="129"/>
       <c r="E73" s="30">
         <v>21.5</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="C74" s="14">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="129"/>
       <c r="E74" s="30">
         <v>21.5</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="C75" s="14">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="97"/>
+      <c r="D75" s="129"/>
       <c r="E75" s="30">
         <v>21.5</v>
       </c>
@@ -9494,7 +9494,7 @@
       <c r="C76" s="14">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="129"/>
       <c r="E76" s="30">
         <v>21.5</v>
       </c>
@@ -9602,7 +9602,7 @@
       <c r="C77" s="26">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="97"/>
+      <c r="D77" s="129"/>
       <c r="E77" s="30">
         <v>21.5</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="C78" s="26">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="129"/>
       <c r="E78" s="30">
         <v>21.5</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="C79" s="26">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="97"/>
+      <c r="D79" s="129"/>
       <c r="E79" s="30">
         <v>21.5</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="C80" s="27">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="98"/>
+      <c r="D80" s="130"/>
       <c r="E80" s="32">
         <v>21.5</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="C81" s="14">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="101" t="s">
+      <c r="D81" s="133" t="s">
         <v>67</v>
       </c>
       <c r="E81" s="30">
@@ -10147,7 +10147,7 @@
       <c r="C82" s="14">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="102"/>
+      <c r="D82" s="134"/>
       <c r="E82" s="30">
         <v>21.5</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="C83" s="14">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="102"/>
+      <c r="D83" s="134"/>
       <c r="E83" s="30">
         <v>21.5</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="C84" s="20">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="103"/>
+      <c r="D84" s="135"/>
       <c r="E84" s="34">
         <v>21.5</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="C85" s="14">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="99" t="s">
+      <c r="D85" s="131" t="s">
         <v>67</v>
       </c>
       <c r="E85" s="30">
@@ -10584,7 +10584,7 @@
       <c r="C86" s="14">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="97"/>
+      <c r="D86" s="129"/>
       <c r="E86" s="30">
         <v>21.5</v>
       </c>
@@ -10692,7 +10692,7 @@
       <c r="C87" s="14">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="129"/>
       <c r="E87" s="30">
         <v>21.5</v>
       </c>
@@ -10800,7 +10800,7 @@
       <c r="C88" s="17">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="98"/>
+      <c r="D88" s="130"/>
       <c r="E88" s="32">
         <v>21.5</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="C89" s="14">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D89" s="128" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="30">
@@ -11018,7 +11018,7 @@
       <c r="C90" s="14">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="97"/>
+      <c r="D90" s="129"/>
       <c r="E90" s="30">
         <v>21.5</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="C91" s="14">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="97"/>
+      <c r="D91" s="129"/>
       <c r="E91" s="30">
         <v>21.5</v>
       </c>
@@ -11234,7 +11234,7 @@
       <c r="C92" s="14">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="97"/>
+      <c r="D92" s="129"/>
       <c r="E92" s="30">
         <v>21.5</v>
       </c>
@@ -11342,7 +11342,7 @@
       <c r="C93" s="14">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="97"/>
+      <c r="D93" s="129"/>
       <c r="E93" s="30">
         <v>21.5</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="C94" s="17">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="98"/>
+      <c r="D94" s="130"/>
       <c r="E94" s="32">
         <v>21.5</v>
       </c>
@@ -11558,8 +11558,8 @@
       <c r="C95" s="14">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="96" t="s">
-        <v>70</v>
+      <c r="D95" s="128" t="s">
+        <v>100</v>
       </c>
       <c r="E95" s="30">
         <v>21.5</v>
@@ -11637,7 +11637,7 @@
         <v>4</v>
       </c>
       <c r="AE95" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF95" s="61">
         <v>2</v>
@@ -11668,7 +11668,7 @@
       <c r="C96" s="14">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="97"/>
+      <c r="D96" s="129"/>
       <c r="E96" s="30">
         <v>21.5</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>4</v>
       </c>
       <c r="AE96" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF96" s="61">
         <v>2</v>
@@ -11776,7 +11776,7 @@
       <c r="C97" s="14">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="97"/>
+      <c r="D97" s="129"/>
       <c r="E97" s="30">
         <v>21.5</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>4</v>
       </c>
       <c r="AE97" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF97" s="61">
         <v>2</v>
@@ -11889,7 +11889,7 @@
       <c r="C98" s="14">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="97"/>
+      <c r="D98" s="129"/>
       <c r="E98" s="30">
         <v>21.5</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>4</v>
       </c>
       <c r="AE98" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF98" s="61">
         <v>2</v>
@@ -11987,111 +11987,111 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:38" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="119">
+    <row r="99" spans="1:38" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="92">
         <v>97</v>
       </c>
-      <c r="B99" s="120">
+      <c r="B99" s="93">
         <v>44434</v>
       </c>
-      <c r="C99" s="121">
+      <c r="C99" s="94">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="122">
+      <c r="D99" s="129"/>
+      <c r="E99" s="95">
         <v>21.5</v>
       </c>
-      <c r="F99" s="122">
+      <c r="F99" s="95">
         <v>200</v>
       </c>
-      <c r="G99" s="122">
+      <c r="G99" s="95">
         <v>5</v>
       </c>
-      <c r="H99" s="122">
+      <c r="H99" s="95">
         <v>320</v>
       </c>
-      <c r="I99" s="122">
+      <c r="I99" s="95">
         <v>613</v>
       </c>
-      <c r="J99" s="122">
+      <c r="J99" s="95">
         <v>3</v>
       </c>
-      <c r="K99" s="123" t="s">
+      <c r="K99" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L99" s="124">
-        <v>1</v>
-      </c>
-      <c r="M99" s="124">
+      <c r="L99" s="97">
+        <v>1</v>
+      </c>
+      <c r="M99" s="97">
         <v>15.43</v>
       </c>
-      <c r="N99" s="125">
-        <v>0</v>
-      </c>
-      <c r="O99" s="125">
+      <c r="N99" s="98">
+        <v>0</v>
+      </c>
+      <c r="O99" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P99" s="125"/>
-      <c r="Q99" s="125"/>
-      <c r="R99" s="126">
+      <c r="P99" s="98"/>
+      <c r="Q99" s="98"/>
+      <c r="R99" s="99">
         <v>4.16</v>
       </c>
-      <c r="S99" s="125">
-        <v>0</v>
-      </c>
-      <c r="T99" s="125">
-        <v>1</v>
-      </c>
-      <c r="U99" s="125">
-        <v>0</v>
-      </c>
-      <c r="V99" s="125">
-        <v>0</v>
-      </c>
-      <c r="W99" s="125">
-        <v>1</v>
-      </c>
-      <c r="X99" s="127">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="128" t="s">
+      <c r="S99" s="98">
+        <v>0</v>
+      </c>
+      <c r="T99" s="98">
+        <v>1</v>
+      </c>
+      <c r="U99" s="98">
+        <v>0</v>
+      </c>
+      <c r="V99" s="98">
+        <v>0</v>
+      </c>
+      <c r="W99" s="98">
+        <v>1</v>
+      </c>
+      <c r="X99" s="100">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="Z99" s="128" t="s">
+      <c r="Z99" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AA99" s="135">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="130">
-        <v>2</v>
-      </c>
-      <c r="AC99" s="130">
-        <v>1</v>
-      </c>
-      <c r="AD99" s="130">
+      <c r="AA99" s="108">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="103">
+        <v>2</v>
+      </c>
+      <c r="AC99" s="103">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="103">
         <v>4</v>
       </c>
-      <c r="AE99" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF99" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG99" s="131">
-        <v>2</v>
-      </c>
-      <c r="AH99" s="132" t="s">
+      <c r="AE99" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF99" s="103">
+        <v>2</v>
+      </c>
+      <c r="AG99" s="104">
+        <v>2</v>
+      </c>
+      <c r="AH99" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AI99" s="133">
+      <c r="AI99" s="106">
         <v>8</v>
       </c>
-      <c r="AJ99" s="124">
+      <c r="AJ99" s="97">
         <v>3500</v>
       </c>
-      <c r="AK99" s="124" t="s">
+      <c r="AK99" s="97" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="C100" s="14">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="97"/>
+      <c r="D100" s="129"/>
       <c r="E100" s="30">
         <v>21.5</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>4</v>
       </c>
       <c r="AE100" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF100" s="61">
         <v>2</v>
@@ -12213,7 +12213,7 @@
       <c r="C101" s="14">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="97"/>
+      <c r="D101" s="129"/>
       <c r="E101" s="30">
         <v>21.5</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>4</v>
       </c>
       <c r="AE101" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF101" s="61">
         <v>2</v>
@@ -12321,7 +12321,7 @@
       <c r="C102" s="14">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="97"/>
+      <c r="D102" s="129"/>
       <c r="E102" s="30">
         <v>21.5</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>4</v>
       </c>
       <c r="AE102" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF102" s="61">
         <v>2</v>
@@ -12429,7 +12429,7 @@
       <c r="C103" s="17">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="98"/>
+      <c r="D103" s="130"/>
       <c r="E103" s="32">
         <v>21.5</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>4</v>
       </c>
       <c r="AE103" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF103" s="52">
         <v>2</v>
@@ -12527,7 +12527,7 @@
         <v>39</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.2">
@@ -12540,8 +12540,8 @@
       <c r="C104" s="14">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="96" t="s">
-        <v>74</v>
+      <c r="D104" s="128" t="s">
+        <v>73</v>
       </c>
       <c r="E104" s="30">
         <v>21.5</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="AE104" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF104" s="61">
         <v>2</v>
@@ -12652,7 +12652,7 @@
       <c r="C105" s="14">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="97"/>
+      <c r="D105" s="129"/>
       <c r="E105" s="30">
         <v>21.5</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="AE105" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF105" s="61">
         <v>2</v>
@@ -12762,7 +12762,7 @@
       <c r="C106" s="14">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="97"/>
+      <c r="D106" s="129"/>
       <c r="E106" s="30">
         <v>21.5</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="AE106" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF106" s="61">
         <v>2</v>
@@ -12862,113 +12862,113 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:38" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="119">
+    <row r="107" spans="1:38" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="92">
         <v>105</v>
       </c>
-      <c r="B107" s="120">
+      <c r="B107" s="93">
         <v>44434</v>
       </c>
-      <c r="C107" s="121">
+      <c r="C107" s="94">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="97"/>
-      <c r="E107" s="122">
+      <c r="D107" s="129"/>
+      <c r="E107" s="95">
         <v>21.5</v>
       </c>
-      <c r="F107" s="122">
+      <c r="F107" s="95">
         <v>200</v>
       </c>
-      <c r="G107" s="122">
+      <c r="G107" s="95">
         <v>5</v>
       </c>
-      <c r="H107" s="122">
+      <c r="H107" s="95">
         <v>320</v>
       </c>
-      <c r="I107" s="122">
+      <c r="I107" s="95">
         <v>594</v>
       </c>
-      <c r="J107" s="122">
+      <c r="J107" s="95">
         <v>3</v>
       </c>
-      <c r="K107" s="123" t="s">
+      <c r="K107" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L107" s="124">
+      <c r="L107" s="97">
         <v>0.25</v>
       </c>
-      <c r="M107" s="124">
+      <c r="M107" s="97">
         <v>14.8</v>
       </c>
-      <c r="N107" s="125">
+      <c r="N107" s="98">
         <v>0.25</v>
       </c>
-      <c r="O107" s="125">
+      <c r="O107" s="98">
         <f t="shared" si="6"/>
         <v>1.0206896551724138</v>
       </c>
-      <c r="P107" s="125">
+      <c r="P107" s="98">
         <v>14.8</v>
       </c>
-      <c r="Q107" s="125"/>
-      <c r="R107" s="126">
+      <c r="Q107" s="98"/>
+      <c r="R107" s="99">
         <v>4.16</v>
       </c>
-      <c r="S107" s="125">
-        <v>1</v>
-      </c>
-      <c r="T107" s="125">
-        <v>0</v>
-      </c>
-      <c r="U107" s="125">
-        <v>0</v>
-      </c>
-      <c r="V107" s="125">
-        <v>0</v>
-      </c>
-      <c r="W107" s="125">
-        <v>0</v>
-      </c>
-      <c r="X107" s="127">
-        <v>1</v>
-      </c>
-      <c r="Y107" s="128" t="s">
+      <c r="S107" s="98">
+        <v>1</v>
+      </c>
+      <c r="T107" s="98">
+        <v>0</v>
+      </c>
+      <c r="U107" s="98">
+        <v>0</v>
+      </c>
+      <c r="V107" s="98">
+        <v>0</v>
+      </c>
+      <c r="W107" s="98">
+        <v>0</v>
+      </c>
+      <c r="X107" s="100">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="Z107" s="128" t="s">
+      <c r="Z107" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AA107" s="135">
+      <c r="AA107" s="108">
         <v>2.5</v>
       </c>
-      <c r="AB107" s="130">
-        <v>2</v>
-      </c>
-      <c r="AC107" s="130">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="130">
-        <v>1</v>
-      </c>
-      <c r="AE107" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF107" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG107" s="131">
-        <v>2</v>
-      </c>
-      <c r="AH107" s="132" t="s">
+      <c r="AB107" s="103">
+        <v>2</v>
+      </c>
+      <c r="AC107" s="103">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="103">
+        <v>1</v>
+      </c>
+      <c r="AE107" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF107" s="103">
+        <v>2</v>
+      </c>
+      <c r="AG107" s="104">
+        <v>2</v>
+      </c>
+      <c r="AH107" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AI107" s="133">
+      <c r="AI107" s="106">
         <v>8</v>
       </c>
-      <c r="AJ107" s="124">
+      <c r="AJ107" s="97">
         <v>3625</v>
       </c>
-      <c r="AK107" s="124" t="s">
+      <c r="AK107" s="97" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       <c r="C108" s="14">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="97"/>
+      <c r="D108" s="129"/>
       <c r="E108" s="30">
         <v>21.5</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="AE108" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF108" s="61">
         <v>2</v>
@@ -13092,7 +13092,7 @@
       <c r="C109" s="14">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="97"/>
+      <c r="D109" s="129"/>
       <c r="E109" s="30">
         <v>21.5</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="AE109" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF109" s="61">
         <v>2</v>
@@ -13202,7 +13202,7 @@
       <c r="C110" s="14">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="97"/>
+      <c r="D110" s="129"/>
       <c r="E110" s="30">
         <v>21.5</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="AE110" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF110" s="61">
         <v>2</v>
@@ -13302,113 +13302,113 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:38" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="119">
+    <row r="111" spans="1:38" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="92">
         <v>109</v>
       </c>
-      <c r="B111" s="120">
+      <c r="B111" s="93">
         <v>44434</v>
       </c>
-      <c r="C111" s="121">
+      <c r="C111" s="94">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="97"/>
-      <c r="E111" s="122">
+      <c r="D111" s="129"/>
+      <c r="E111" s="95">
         <v>21.5</v>
       </c>
-      <c r="F111" s="122">
+      <c r="F111" s="95">
         <v>200</v>
       </c>
-      <c r="G111" s="122">
+      <c r="G111" s="95">
         <v>5</v>
       </c>
-      <c r="H111" s="122">
+      <c r="H111" s="95">
         <v>320</v>
       </c>
-      <c r="I111" s="122">
+      <c r="I111" s="95">
         <v>606</v>
       </c>
-      <c r="J111" s="122">
+      <c r="J111" s="95">
         <v>3</v>
       </c>
-      <c r="K111" s="123" t="s">
+      <c r="K111" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L111" s="124">
+      <c r="L111" s="97">
         <v>0.5</v>
       </c>
-      <c r="M111" s="124">
+      <c r="M111" s="97">
         <v>17.399999999999999</v>
       </c>
-      <c r="N111" s="125">
+      <c r="N111" s="98">
         <v>0.5</v>
       </c>
-      <c r="O111" s="125">
+      <c r="O111" s="98">
         <f t="shared" si="6"/>
         <v>1.2</v>
       </c>
-      <c r="P111" s="125">
+      <c r="P111" s="98">
         <v>17.399999999999999</v>
       </c>
-      <c r="Q111" s="125"/>
-      <c r="R111" s="126">
+      <c r="Q111" s="98"/>
+      <c r="R111" s="99">
         <v>4.16</v>
       </c>
-      <c r="S111" s="125">
-        <v>0</v>
-      </c>
-      <c r="T111" s="125">
-        <v>1</v>
-      </c>
-      <c r="U111" s="125">
-        <v>0</v>
-      </c>
-      <c r="V111" s="125">
-        <v>0</v>
-      </c>
-      <c r="W111" s="125">
-        <v>1</v>
-      </c>
-      <c r="X111" s="127">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="128" t="s">
+      <c r="S111" s="98">
+        <v>0</v>
+      </c>
+      <c r="T111" s="98">
+        <v>1</v>
+      </c>
+      <c r="U111" s="98">
+        <v>0</v>
+      </c>
+      <c r="V111" s="98">
+        <v>0</v>
+      </c>
+      <c r="W111" s="98">
+        <v>1</v>
+      </c>
+      <c r="X111" s="100">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="Z111" s="128" t="s">
+      <c r="Z111" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AA111" s="129">
+      <c r="AA111" s="102">
         <v>5</v>
       </c>
-      <c r="AB111" s="130">
-        <v>2</v>
-      </c>
-      <c r="AC111" s="130">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="130">
-        <v>1</v>
-      </c>
-      <c r="AE111" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF111" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG111" s="131">
-        <v>2</v>
-      </c>
-      <c r="AH111" s="132" t="s">
+      <c r="AB111" s="103">
+        <v>2</v>
+      </c>
+      <c r="AC111" s="103">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="103">
+        <v>1</v>
+      </c>
+      <c r="AE111" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF111" s="103">
+        <v>2</v>
+      </c>
+      <c r="AG111" s="104">
+        <v>2</v>
+      </c>
+      <c r="AH111" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AI111" s="133">
+      <c r="AI111" s="106">
         <v>8</v>
       </c>
-      <c r="AJ111" s="124">
+      <c r="AJ111" s="97">
         <v>3625</v>
       </c>
-      <c r="AK111" s="124" t="s">
+      <c r="AK111" s="97" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13422,7 +13422,7 @@
       <c r="C112" s="14">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="97"/>
+      <c r="D112" s="129"/>
       <c r="E112" s="30">
         <v>21.5</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="AE112" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF112" s="61">
         <v>2</v>
@@ -13532,7 +13532,7 @@
       <c r="C113" s="14">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="97"/>
+      <c r="D113" s="129"/>
       <c r="E113" s="30">
         <v>21.5</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="AE113" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF113" s="61">
         <v>2</v>
@@ -13642,7 +13642,7 @@
       <c r="C114" s="14">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="97"/>
+      <c r="D114" s="129"/>
       <c r="E114" s="30">
         <v>21.5</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="AE114" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF114" s="61">
         <v>2</v>
@@ -13752,7 +13752,7 @@
       <c r="C115" s="14">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="97"/>
+      <c r="D115" s="129"/>
       <c r="E115" s="30">
         <v>21.5</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="AE115" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF115" s="61">
         <v>2</v>
@@ -13852,113 +13852,113 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:38" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="119">
+    <row r="116" spans="1:38" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="92">
         <v>114</v>
       </c>
-      <c r="B116" s="120">
+      <c r="B116" s="93">
         <v>44434</v>
       </c>
-      <c r="C116" s="136">
+      <c r="C116" s="109">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="97"/>
-      <c r="E116" s="122">
+      <c r="D116" s="129"/>
+      <c r="E116" s="95">
         <v>21.5</v>
       </c>
-      <c r="F116" s="122">
+      <c r="F116" s="95">
         <v>200</v>
       </c>
-      <c r="G116" s="122">
+      <c r="G116" s="95">
         <v>5</v>
       </c>
-      <c r="H116" s="122">
+      <c r="H116" s="95">
         <v>320</v>
       </c>
-      <c r="I116" s="122">
+      <c r="I116" s="95">
         <v>619</v>
       </c>
-      <c r="J116" s="122">
+      <c r="J116" s="95">
         <v>3</v>
       </c>
-      <c r="K116" s="123" t="s">
+      <c r="K116" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L116" s="124">
+      <c r="L116" s="97">
         <v>0.25</v>
       </c>
-      <c r="M116" s="124">
+      <c r="M116" s="97">
         <v>14.85</v>
       </c>
-      <c r="N116" s="125">
+      <c r="N116" s="98">
         <v>0.25</v>
       </c>
-      <c r="O116" s="125">
+      <c r="O116" s="98">
         <f t="shared" si="6"/>
         <v>1.0241379310344827</v>
       </c>
-      <c r="P116" s="125">
+      <c r="P116" s="98">
         <v>14.85</v>
       </c>
-      <c r="Q116" s="125"/>
-      <c r="R116" s="126">
+      <c r="Q116" s="98"/>
+      <c r="R116" s="99">
         <v>4.16</v>
       </c>
-      <c r="S116" s="125">
-        <v>1</v>
-      </c>
-      <c r="T116" s="125">
-        <v>0</v>
-      </c>
-      <c r="U116" s="125">
-        <v>0</v>
-      </c>
-      <c r="V116" s="125">
-        <v>0</v>
-      </c>
-      <c r="W116" s="125">
-        <v>0</v>
-      </c>
-      <c r="X116" s="127">
-        <v>1</v>
-      </c>
-      <c r="Y116" s="128" t="s">
+      <c r="S116" s="98">
+        <v>1</v>
+      </c>
+      <c r="T116" s="98">
+        <v>0</v>
+      </c>
+      <c r="U116" s="98">
+        <v>0</v>
+      </c>
+      <c r="V116" s="98">
+        <v>0</v>
+      </c>
+      <c r="W116" s="98">
+        <v>0</v>
+      </c>
+      <c r="X116" s="100">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="Z116" s="128" t="s">
+      <c r="Z116" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AA116" s="129">
+      <c r="AA116" s="102">
         <v>10</v>
       </c>
-      <c r="AB116" s="130">
-        <v>2</v>
-      </c>
-      <c r="AC116" s="130">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="130">
-        <v>1</v>
-      </c>
-      <c r="AE116" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF116" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG116" s="131">
-        <v>2</v>
-      </c>
-      <c r="AH116" s="132" t="s">
+      <c r="AB116" s="103">
+        <v>2</v>
+      </c>
+      <c r="AC116" s="103">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="103">
+        <v>1</v>
+      </c>
+      <c r="AE116" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF116" s="103">
+        <v>2</v>
+      </c>
+      <c r="AG116" s="104">
+        <v>2</v>
+      </c>
+      <c r="AH116" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AI116" s="133">
+      <c r="AI116" s="106">
         <v>8</v>
       </c>
-      <c r="AJ116" s="124">
+      <c r="AJ116" s="97">
         <v>3625</v>
       </c>
-      <c r="AK116" s="124" t="s">
+      <c r="AK116" s="97" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13972,7 +13972,7 @@
       <c r="C117" s="14">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="97"/>
+      <c r="D117" s="129"/>
       <c r="E117" s="30">
         <v>21.5</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="AE117" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF117" s="61">
         <v>2</v>
@@ -14082,7 +14082,7 @@
       <c r="C118" s="14">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="97"/>
+      <c r="D118" s="129"/>
       <c r="E118" s="30">
         <v>21.5</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="AE118" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF118" s="61">
         <v>2</v>
@@ -14192,7 +14192,7 @@
       <c r="C119" s="14">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="97"/>
+      <c r="D119" s="129"/>
       <c r="E119" s="30">
         <v>21.5</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="AE119" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF119" s="61">
         <v>2</v>
@@ -14302,7 +14302,7 @@
       <c r="C120" s="20">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="100"/>
+      <c r="D120" s="132"/>
       <c r="E120" s="34">
         <v>21.5</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="AE120" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF120" s="59">
         <v>2</v>
@@ -14412,8 +14412,8 @@
       <c r="C121" s="14">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="99" t="s">
-        <v>75</v>
+      <c r="D121" s="131" t="s">
+        <v>74</v>
       </c>
       <c r="E121" s="30">
         <v>21.5</v>
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="AE121" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF121" s="61">
         <v>2</v>
@@ -14514,7 +14514,7 @@
         <v>35</v>
       </c>
       <c r="AL121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.2">
@@ -14527,7 +14527,7 @@
       <c r="C122" s="14">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="97"/>
+      <c r="D122" s="129"/>
       <c r="E122" s="30">
         <v>21.5</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="AE122" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF122" s="61">
         <v>2</v>
@@ -14637,7 +14637,7 @@
       <c r="C123" s="14">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="97"/>
+      <c r="D123" s="129"/>
       <c r="E123" s="30">
         <v>21.5</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>1</v>
       </c>
       <c r="AE123" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF123" s="61">
         <v>2</v>
@@ -14747,7 +14747,7 @@
       <c r="C124" s="14">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="97"/>
+      <c r="D124" s="129"/>
       <c r="E124" s="30">
         <v>21.5</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="AE124" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF124" s="61">
         <v>2</v>
@@ -14857,7 +14857,7 @@
       <c r="C125" s="17">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="98"/>
+      <c r="D125" s="130"/>
       <c r="E125" s="32">
         <v>21.5</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="AE125" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF125" s="52">
         <v>2</v>
@@ -14957,7 +14957,7 @@
         <v>35</v>
       </c>
       <c r="AL125" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.2">
@@ -14970,8 +14970,8 @@
       <c r="C126" s="14">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="96" t="s">
-        <v>77</v>
+      <c r="D126" s="128" t="s">
+        <v>101</v>
       </c>
       <c r="E126" s="30">
         <v>21.5</v>
@@ -15049,7 +15049,7 @@
         <v>5</v>
       </c>
       <c r="AE126" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF126" s="61">
         <v>2</v>
@@ -15070,7 +15070,7 @@
         <v>35</v>
       </c>
       <c r="AL126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.2">
@@ -15083,7 +15083,7 @@
       <c r="C127" s="14">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="97"/>
+      <c r="D127" s="129"/>
       <c r="E127" s="30">
         <v>21.5</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>5</v>
       </c>
       <c r="AE127" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF127" s="61">
         <v>2</v>
@@ -15191,7 +15191,7 @@
       <c r="C128" s="14">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="97"/>
+      <c r="D128" s="129"/>
       <c r="E128" s="30">
         <v>21.5</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>5</v>
       </c>
       <c r="AE128" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF128" s="61">
         <v>2</v>
@@ -15297,7 +15297,7 @@
       <c r="C129" s="14">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="97"/>
+      <c r="D129" s="129"/>
       <c r="E129" s="30">
         <v>21.5</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>5</v>
       </c>
       <c r="AE129" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF129" s="61">
         <v>2</v>
@@ -15393,113 +15393,113 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:38" s="134" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="119">
+    <row r="130" spans="1:38" s="107" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="92">
         <v>128</v>
       </c>
-      <c r="B130" s="120">
+      <c r="B130" s="93">
         <v>44435</v>
       </c>
-      <c r="C130" s="121">
+      <c r="C130" s="94">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="97"/>
-      <c r="E130" s="122">
+      <c r="D130" s="129"/>
+      <c r="E130" s="95">
         <v>21.5</v>
       </c>
-      <c r="F130" s="122">
+      <c r="F130" s="95">
         <v>200</v>
       </c>
-      <c r="G130" s="122">
+      <c r="G130" s="95">
         <v>5</v>
       </c>
-      <c r="H130" s="122">
+      <c r="H130" s="95">
         <v>320</v>
       </c>
-      <c r="I130" s="122">
+      <c r="I130" s="95">
         <v>619</v>
       </c>
-      <c r="J130" s="122">
+      <c r="J130" s="95">
         <v>3</v>
       </c>
-      <c r="K130" s="123" t="s">
+      <c r="K130" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="L130" s="124">
-        <v>1</v>
-      </c>
-      <c r="M130" s="124"/>
-      <c r="N130" s="125">
-        <v>0</v>
-      </c>
-      <c r="O130" s="125">
+      <c r="L130" s="97">
+        <v>1</v>
+      </c>
+      <c r="M130" s="97"/>
+      <c r="N130" s="98">
+        <v>0</v>
+      </c>
+      <c r="O130" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P130" s="125"/>
-      <c r="Q130" s="125"/>
-      <c r="R130" s="126">
+      <c r="P130" s="98"/>
+      <c r="Q130" s="98"/>
+      <c r="R130" s="99">
         <v>4.16</v>
       </c>
-      <c r="S130" s="125">
-        <v>1</v>
-      </c>
-      <c r="T130" s="125">
-        <v>0</v>
-      </c>
-      <c r="U130" s="125">
-        <v>0</v>
-      </c>
-      <c r="V130" s="125">
-        <v>0</v>
-      </c>
-      <c r="W130" s="125">
-        <v>0</v>
-      </c>
-      <c r="X130" s="127">
-        <v>1</v>
-      </c>
-      <c r="Y130" s="128" t="s">
+      <c r="S130" s="98">
+        <v>1</v>
+      </c>
+      <c r="T130" s="98">
+        <v>0</v>
+      </c>
+      <c r="U130" s="98">
+        <v>0</v>
+      </c>
+      <c r="V130" s="98">
+        <v>0</v>
+      </c>
+      <c r="W130" s="98">
+        <v>0</v>
+      </c>
+      <c r="X130" s="100">
+        <v>1</v>
+      </c>
+      <c r="Y130" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="Z130" s="128" t="s">
+      <c r="Z130" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="AA130" s="129">
-        <v>0</v>
-      </c>
-      <c r="AB130" s="130">
-        <v>2</v>
-      </c>
-      <c r="AC130" s="130">
-        <v>1</v>
-      </c>
-      <c r="AD130" s="130">
+      <c r="AA130" s="102">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="103">
+        <v>2</v>
+      </c>
+      <c r="AC130" s="103">
+        <v>1</v>
+      </c>
+      <c r="AD130" s="103">
         <v>5</v>
       </c>
-      <c r="AE130" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF130" s="130">
-        <v>2</v>
-      </c>
-      <c r="AG130" s="131">
-        <v>2</v>
-      </c>
-      <c r="AH130" s="132" t="s">
+      <c r="AE130" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF130" s="103">
+        <v>2</v>
+      </c>
+      <c r="AG130" s="104">
+        <v>2</v>
+      </c>
+      <c r="AH130" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AI130" s="133">
+      <c r="AI130" s="106">
         <v>8</v>
       </c>
-      <c r="AJ130" s="124">
+      <c r="AJ130" s="97">
         <v>3625</v>
       </c>
-      <c r="AK130" s="124" t="s">
+      <c r="AK130" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AL130" s="134" t="s">
-        <v>79</v>
+      <c r="AL130" s="107" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.2">
@@ -15512,7 +15512,7 @@
       <c r="C131" s="14">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="97"/>
+      <c r="D131" s="129"/>
       <c r="E131" s="30">
         <v>21.5</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>5</v>
       </c>
       <c r="AE131" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF131" s="61">
         <v>2</v>
@@ -15612,7 +15612,7 @@
         <v>35</v>
       </c>
       <c r="AL131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.2">
@@ -15625,7 +15625,7 @@
       <c r="C132" s="14">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="97"/>
+      <c r="D132" s="129"/>
       <c r="E132" s="30">
         <v>21.5</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>5</v>
       </c>
       <c r="AE132" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF132" s="61">
         <v>2</v>
@@ -15725,7 +15725,7 @@
         <v>35</v>
       </c>
       <c r="AL132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.2">
@@ -15738,7 +15738,7 @@
       <c r="C133" s="14">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="97"/>
+      <c r="D133" s="129"/>
       <c r="E133" s="30">
         <v>21.5</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>5</v>
       </c>
       <c r="AE133" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF133" s="61">
         <v>2</v>
@@ -15847,7 +15847,7 @@
       <c r="C134" s="14">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="97"/>
+      <c r="D134" s="129"/>
       <c r="E134" s="30">
         <v>21.5</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>5</v>
       </c>
       <c r="AE134" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF134" s="61">
         <v>2</v>
@@ -15954,7 +15954,7 @@
       <c r="C135" s="14">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="97"/>
+      <c r="D135" s="129"/>
       <c r="E135" s="30">
         <v>21.5</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="79">
-        <f t="shared" ref="O133:O164" si="7">P135/14.5</f>
+        <f t="shared" ref="O135:O142" si="7">P135/14.5</f>
         <v>0</v>
       </c>
       <c r="P135" s="79"/>
@@ -16031,7 +16031,7 @@
         <v>5</v>
       </c>
       <c r="AE135" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF135" s="61">
         <v>2</v>
@@ -16062,7 +16062,7 @@
       <c r="C136" s="14">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="97"/>
+      <c r="D136" s="129"/>
       <c r="E136" s="30">
         <v>21.5</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>5</v>
       </c>
       <c r="AE136" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF136" s="61">
         <v>2</v>
@@ -16170,7 +16170,7 @@
       <c r="C137" s="17">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="98"/>
+      <c r="D137" s="130"/>
       <c r="E137" s="32">
         <v>21.5</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>5</v>
       </c>
       <c r="AE137" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF137" s="52">
         <v>2</v>
@@ -16268,7 +16268,7 @@
         <v>35</v>
       </c>
       <c r="AL137" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.2">
@@ -16282,7 +16282,7 @@
         <v>0.63638888888888889</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E138" s="30">
         <v>21.5</v>
@@ -16362,7 +16362,7 @@
         <v>3</v>
       </c>
       <c r="AE138" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF138" s="61">
         <v>2</v>
@@ -16383,7 +16383,7 @@
         <v>35</v>
       </c>
       <c r="AL138" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.2">
@@ -16474,7 +16474,7 @@
         <v>3</v>
       </c>
       <c r="AE139" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF139" s="61">
         <v>2</v>
@@ -16583,7 +16583,7 @@
         <v>3</v>
       </c>
       <c r="AE140" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF140" s="61">
         <v>3</v>
@@ -16692,7 +16692,7 @@
         <v>3</v>
       </c>
       <c r="AE141" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF141" s="61">
         <v>4</v>
@@ -16724,7 +16724,7 @@
         <v>0.6931018518518518</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E142" s="30">
         <v>21.5</v>
@@ -16804,7 +16804,7 @@
         <v>3</v>
       </c>
       <c r="AE142" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF142" s="61">
         <v>2</v>
@@ -16825,30 +16825,16 @@
         <v>35</v>
       </c>
       <c r="AL142" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL143" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -16862,6 +16848,20 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/exp_data/IAC Run Spreadsheet.xlsx
+++ b/exp_data/IAC Run Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burggraf1/PycharmProjects/IACExperiment/exp_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B4BAF-4848-D943-AAE1-9992807DD5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D32E6-BF88-C041-B8B2-D418947BB143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3400" windowWidth="32460" windowHeight="18320" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35140" windowHeight="18220" xr2:uid="{44EF44F4-DB61-6E43-BE41-46C792395757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -883,52 +883,10 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +916,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,6 +976,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394470</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>76969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>96212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B863008D-9B08-74D9-A616-7A4587BB8348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394470" y="29450530"/>
+          <a:ext cx="3954318" cy="2443788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Misc notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Ni from inside the chamber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> was places on the LLNL detector, and the other on the IAC's detector. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1272,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BCDDE3-F5B4-DA4C-B718-384735F9678D}">
-  <dimension ref="A1:AO143"/>
+  <dimension ref="A1:AO146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomRight" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,59 +1398,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119" t="s">
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119" t="s">
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="119"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="124" t="s">
+      <c r="W1" s="124"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="120" t="s">
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="118" t="s">
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
     </row>
     <row r="2" spans="1:39" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1926,7 +2015,7 @@
       <c r="C7" s="17">
         <v>0.43434027777777778</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="32">
         <v>21.5</v>
       </c>
@@ -2687,7 +2776,7 @@
       <c r="C14" s="17">
         <v>0.49459490740740741</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="32">
         <v>21.5</v>
       </c>
@@ -3335,7 +3424,7 @@
         <v>44432</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="112"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="32">
         <v>21.5</v>
       </c>
@@ -3664,7 +3753,7 @@
       <c r="C23" s="17">
         <v>0.55973379629629627</v>
       </c>
-      <c r="D23" s="112"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="32">
         <v>21.5</v>
       </c>
@@ -4537,7 +4626,7 @@
       <c r="C31" s="17">
         <v>0.60856481481481484</v>
       </c>
-      <c r="D31" s="112"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="32">
         <v>21.5</v>
       </c>
@@ -5421,7 +5510,7 @@
       <c r="C39" s="17">
         <v>0.65907407407407403</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="113"/>
       <c r="E39" s="32">
         <v>21.5</v>
       </c>
@@ -6082,7 +6171,7 @@
       <c r="C45" s="20">
         <v>0.70328703703703699</v>
       </c>
-      <c r="D45" s="127"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="34">
         <v>21.5</v>
       </c>
@@ -6635,7 +6724,7 @@
       <c r="C50" s="17">
         <v>0.40581018518518519</v>
       </c>
-      <c r="D50" s="112"/>
+      <c r="D50" s="113"/>
       <c r="E50" s="32">
         <v>21.5</v>
       </c>
@@ -7512,7 +7601,7 @@
       <c r="C58" s="17">
         <v>0.46806712962962965</v>
       </c>
-      <c r="D58" s="112"/>
+      <c r="D58" s="113"/>
       <c r="E58" s="32">
         <v>21.5</v>
       </c>
@@ -7952,7 +8041,7 @@
       <c r="C62" s="14">
         <v>0.5100810185185185</v>
       </c>
-      <c r="D62" s="133" t="s">
+      <c r="D62" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="30">
@@ -8069,7 +8158,7 @@
       <c r="C63" s="14">
         <v>0.52094907407407409</v>
       </c>
-      <c r="D63" s="134"/>
+      <c r="D63" s="120"/>
       <c r="E63" s="30">
         <v>21.5</v>
       </c>
@@ -8181,7 +8270,7 @@
       <c r="C64" s="17">
         <v>0.5284375</v>
       </c>
-      <c r="D64" s="136"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="32">
         <v>21.5</v>
       </c>
@@ -8293,7 +8382,7 @@
       <c r="C65" s="14">
         <v>0.54836805555555557</v>
       </c>
-      <c r="D65" s="128" t="s">
+      <c r="D65" s="114" t="s">
         <v>63</v>
       </c>
       <c r="E65" s="30">
@@ -8404,7 +8493,7 @@
       <c r="C66" s="14">
         <v>0.5584027777777778</v>
       </c>
-      <c r="D66" s="129"/>
+      <c r="D66" s="115"/>
       <c r="E66" s="30">
         <v>21.5</v>
       </c>
@@ -8513,7 +8602,7 @@
       <c r="C67" s="14">
         <v>0.5649305555555556</v>
       </c>
-      <c r="D67" s="129"/>
+      <c r="D67" s="115"/>
       <c r="E67" s="30">
         <v>21.5</v>
       </c>
@@ -8622,7 +8711,7 @@
       <c r="C68" s="17">
         <v>0.57037037037037031</v>
       </c>
-      <c r="D68" s="130"/>
+      <c r="D68" s="116"/>
       <c r="E68" s="32">
         <v>21.5</v>
       </c>
@@ -8731,7 +8820,7 @@
       <c r="C69" s="14">
         <v>0.58856481481481482</v>
       </c>
-      <c r="D69" s="128" t="s">
+      <c r="D69" s="114" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="30">
@@ -8845,7 +8934,7 @@
       <c r="C70" s="14">
         <v>0.59457175925925931</v>
       </c>
-      <c r="D70" s="129"/>
+      <c r="D70" s="115"/>
       <c r="E70" s="30">
         <v>21.5</v>
       </c>
@@ -8954,7 +9043,7 @@
       <c r="C71" s="14">
         <v>0.60329861111111105</v>
       </c>
-      <c r="D71" s="129"/>
+      <c r="D71" s="115"/>
       <c r="E71" s="30">
         <v>21.5</v>
       </c>
@@ -9062,7 +9151,7 @@
       <c r="C72" s="14">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D72" s="129"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="30">
         <v>21.5</v>
       </c>
@@ -9170,7 +9259,7 @@
       <c r="C73" s="14">
         <v>0.61990740740740746</v>
       </c>
-      <c r="D73" s="129"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="30">
         <v>21.5</v>
       </c>
@@ -9278,7 +9367,7 @@
       <c r="C74" s="14">
         <v>0.62465277777777783</v>
       </c>
-      <c r="D74" s="129"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="30">
         <v>21.5</v>
       </c>
@@ -9386,7 +9475,7 @@
       <c r="C75" s="14">
         <v>0.62957175925925923</v>
       </c>
-      <c r="D75" s="129"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="30">
         <v>21.5</v>
       </c>
@@ -9494,7 +9583,7 @@
       <c r="C76" s="14">
         <v>0.63405092592592593</v>
       </c>
-      <c r="D76" s="129"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="30">
         <v>21.5</v>
       </c>
@@ -9602,7 +9691,7 @@
       <c r="C77" s="26">
         <v>0.64356481481481487</v>
       </c>
-      <c r="D77" s="129"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="30">
         <v>21.5</v>
       </c>
@@ -9710,7 +9799,7 @@
       <c r="C78" s="26">
         <v>0.65311342592592592</v>
       </c>
-      <c r="D78" s="129"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="30">
         <v>21.5</v>
       </c>
@@ -9821,7 +9910,7 @@
       <c r="C79" s="26">
         <v>0.65856481481481477</v>
       </c>
-      <c r="D79" s="129"/>
+      <c r="D79" s="115"/>
       <c r="E79" s="30">
         <v>21.5</v>
       </c>
@@ -9929,7 +10018,7 @@
       <c r="C80" s="27">
         <v>0.66261574074074081</v>
       </c>
-      <c r="D80" s="130"/>
+      <c r="D80" s="116"/>
       <c r="E80" s="32">
         <v>21.5</v>
       </c>
@@ -10037,7 +10126,7 @@
       <c r="C81" s="14">
         <v>0.67179398148148151</v>
       </c>
-      <c r="D81" s="133" t="s">
+      <c r="D81" s="119" t="s">
         <v>67</v>
       </c>
       <c r="E81" s="30">
@@ -10147,7 +10236,7 @@
       <c r="C82" s="14">
         <v>0.67939814814814825</v>
       </c>
-      <c r="D82" s="134"/>
+      <c r="D82" s="120"/>
       <c r="E82" s="30">
         <v>21.5</v>
       </c>
@@ -10255,7 +10344,7 @@
       <c r="C83" s="14">
         <v>0.6840856481481481</v>
       </c>
-      <c r="D83" s="134"/>
+      <c r="D83" s="120"/>
       <c r="E83" s="30">
         <v>21.5</v>
       </c>
@@ -10363,7 +10452,7 @@
       <c r="C84" s="20">
         <v>0.68775462962962963</v>
       </c>
-      <c r="D84" s="135"/>
+      <c r="D84" s="121"/>
       <c r="E84" s="34">
         <v>21.5</v>
       </c>
@@ -10474,7 +10563,7 @@
       <c r="C85" s="14">
         <v>0.36561342592592588</v>
       </c>
-      <c r="D85" s="131" t="s">
+      <c r="D85" s="117" t="s">
         <v>67</v>
       </c>
       <c r="E85" s="30">
@@ -10584,7 +10673,7 @@
       <c r="C86" s="14">
         <v>0.37042824074074071</v>
       </c>
-      <c r="D86" s="129"/>
+      <c r="D86" s="115"/>
       <c r="E86" s="30">
         <v>21.5</v>
       </c>
@@ -10692,7 +10781,7 @@
       <c r="C87" s="14">
         <v>0.38847222222222227</v>
       </c>
-      <c r="D87" s="129"/>
+      <c r="D87" s="115"/>
       <c r="E87" s="30">
         <v>21.5</v>
       </c>
@@ -10800,7 +10889,7 @@
       <c r="C88" s="17">
         <v>0.39270833333333338</v>
       </c>
-      <c r="D88" s="130"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="32">
         <v>21.5</v>
       </c>
@@ -10908,7 +10997,7 @@
       <c r="C89" s="14">
         <v>0.39737268518518515</v>
       </c>
-      <c r="D89" s="128" t="s">
+      <c r="D89" s="114" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="30">
@@ -11018,7 +11107,7 @@
       <c r="C90" s="14">
         <v>0.40069444444444446</v>
       </c>
-      <c r="D90" s="129"/>
+      <c r="D90" s="115"/>
       <c r="E90" s="30">
         <v>21.5</v>
       </c>
@@ -11126,7 +11215,7 @@
       <c r="C91" s="14">
         <v>0.40631944444444446</v>
       </c>
-      <c r="D91" s="129"/>
+      <c r="D91" s="115"/>
       <c r="E91" s="30">
         <v>21.5</v>
       </c>
@@ -11234,7 +11323,7 @@
       <c r="C92" s="14">
         <v>0.4133680555555555</v>
       </c>
-      <c r="D92" s="129"/>
+      <c r="D92" s="115"/>
       <c r="E92" s="30">
         <v>21.5</v>
       </c>
@@ -11342,7 +11431,7 @@
       <c r="C93" s="14">
         <v>0.41718749999999999</v>
       </c>
-      <c r="D93" s="129"/>
+      <c r="D93" s="115"/>
       <c r="E93" s="30">
         <v>21.5</v>
       </c>
@@ -11450,7 +11539,7 @@
       <c r="C94" s="17">
         <v>0.42212962962962958</v>
       </c>
-      <c r="D94" s="130"/>
+      <c r="D94" s="116"/>
       <c r="E94" s="32">
         <v>21.5</v>
       </c>
@@ -11558,7 +11647,7 @@
       <c r="C95" s="14">
         <v>0.43333333333333335</v>
       </c>
-      <c r="D95" s="128" t="s">
+      <c r="D95" s="114" t="s">
         <v>100</v>
       </c>
       <c r="E95" s="30">
@@ -11668,7 +11757,7 @@
       <c r="C96" s="14">
         <v>0.43796296296296294</v>
       </c>
-      <c r="D96" s="129"/>
+      <c r="D96" s="115"/>
       <c r="E96" s="30">
         <v>21.5</v>
       </c>
@@ -11776,7 +11865,7 @@
       <c r="C97" s="14">
         <v>0.44862268518518517</v>
       </c>
-      <c r="D97" s="129"/>
+      <c r="D97" s="115"/>
       <c r="E97" s="30">
         <v>21.5</v>
       </c>
@@ -11889,7 +11978,7 @@
       <c r="C98" s="14">
         <v>0.45274305555555555</v>
       </c>
-      <c r="D98" s="129"/>
+      <c r="D98" s="115"/>
       <c r="E98" s="30">
         <v>21.5</v>
       </c>
@@ -11997,7 +12086,7 @@
       <c r="C99" s="94">
         <v>0.45817129629629627</v>
       </c>
-      <c r="D99" s="129"/>
+      <c r="D99" s="115"/>
       <c r="E99" s="95">
         <v>21.5</v>
       </c>
@@ -12105,7 +12194,7 @@
       <c r="C100" s="14">
         <v>0.47403935185185181</v>
       </c>
-      <c r="D100" s="129"/>
+      <c r="D100" s="115"/>
       <c r="E100" s="30">
         <v>21.5</v>
       </c>
@@ -12213,7 +12302,7 @@
       <c r="C101" s="14">
         <v>0.47988425925925932</v>
       </c>
-      <c r="D101" s="129"/>
+      <c r="D101" s="115"/>
       <c r="E101" s="30">
         <v>21.5</v>
       </c>
@@ -12321,7 +12410,7 @@
       <c r="C102" s="14">
         <v>0.49253472222222222</v>
       </c>
-      <c r="D102" s="129"/>
+      <c r="D102" s="115"/>
       <c r="E102" s="30">
         <v>21.5</v>
       </c>
@@ -12429,7 +12518,7 @@
       <c r="C103" s="17">
         <v>0.50130787037037039</v>
       </c>
-      <c r="D103" s="130"/>
+      <c r="D103" s="116"/>
       <c r="E103" s="32">
         <v>21.5</v>
       </c>
@@ -12540,7 +12629,7 @@
       <c r="C104" s="14">
         <v>0.54422453703703699</v>
       </c>
-      <c r="D104" s="128" t="s">
+      <c r="D104" s="114" t="s">
         <v>73</v>
       </c>
       <c r="E104" s="30">
@@ -12652,7 +12741,7 @@
       <c r="C105" s="14">
         <v>0.55127314814814821</v>
       </c>
-      <c r="D105" s="129"/>
+      <c r="D105" s="115"/>
       <c r="E105" s="30">
         <v>21.5</v>
       </c>
@@ -12762,7 +12851,7 @@
       <c r="C106" s="14">
         <v>0.56064814814814812</v>
       </c>
-      <c r="D106" s="129"/>
+      <c r="D106" s="115"/>
       <c r="E106" s="30">
         <v>21.5</v>
       </c>
@@ -12872,7 +12961,7 @@
       <c r="C107" s="94">
         <v>0.56550925925925932</v>
       </c>
-      <c r="D107" s="129"/>
+      <c r="D107" s="115"/>
       <c r="E107" s="95">
         <v>21.5</v>
       </c>
@@ -12982,7 +13071,7 @@
       <c r="C108" s="14">
         <v>0.58960648148148154</v>
       </c>
-      <c r="D108" s="129"/>
+      <c r="D108" s="115"/>
       <c r="E108" s="30">
         <v>21.5</v>
       </c>
@@ -13092,7 +13181,7 @@
       <c r="C109" s="14">
         <v>0.59392361111111114</v>
       </c>
-      <c r="D109" s="129"/>
+      <c r="D109" s="115"/>
       <c r="E109" s="30">
         <v>21.5</v>
       </c>
@@ -13202,7 +13291,7 @@
       <c r="C110" s="14">
         <v>0.60393518518518519</v>
       </c>
-      <c r="D110" s="129"/>
+      <c r="D110" s="115"/>
       <c r="E110" s="30">
         <v>21.5</v>
       </c>
@@ -13312,7 +13401,7 @@
       <c r="C111" s="94">
         <v>0.60849537037037038</v>
       </c>
-      <c r="D111" s="129"/>
+      <c r="D111" s="115"/>
       <c r="E111" s="95">
         <v>21.5</v>
       </c>
@@ -13422,7 +13511,7 @@
       <c r="C112" s="14">
         <v>0.63009259259259254</v>
       </c>
-      <c r="D112" s="129"/>
+      <c r="D112" s="115"/>
       <c r="E112" s="30">
         <v>21.5</v>
       </c>
@@ -13532,7 +13621,7 @@
       <c r="C113" s="14">
         <v>0.63792824074074073</v>
       </c>
-      <c r="D113" s="129"/>
+      <c r="D113" s="115"/>
       <c r="E113" s="30">
         <v>21.5</v>
       </c>
@@ -13642,7 +13731,7 @@
       <c r="C114" s="14">
         <v>0.64756944444444442</v>
       </c>
-      <c r="D114" s="129"/>
+      <c r="D114" s="115"/>
       <c r="E114" s="30">
         <v>21.5</v>
       </c>
@@ -13752,7 +13841,7 @@
       <c r="C115" s="14">
         <v>0.65266203703703707</v>
       </c>
-      <c r="D115" s="129"/>
+      <c r="D115" s="115"/>
       <c r="E115" s="30">
         <v>21.5</v>
       </c>
@@ -13862,7 +13951,7 @@
       <c r="C116" s="109">
         <v>0.65763888888888888</v>
       </c>
-      <c r="D116" s="129"/>
+      <c r="D116" s="115"/>
       <c r="E116" s="95">
         <v>21.5</v>
       </c>
@@ -13972,7 +14061,7 @@
       <c r="C117" s="14">
         <v>0.67439814814814814</v>
       </c>
-      <c r="D117" s="129"/>
+      <c r="D117" s="115"/>
       <c r="E117" s="30">
         <v>21.5</v>
       </c>
@@ -14082,7 +14171,7 @@
       <c r="C118" s="14">
         <v>0.68010416666666673</v>
       </c>
-      <c r="D118" s="129"/>
+      <c r="D118" s="115"/>
       <c r="E118" s="30">
         <v>21.5</v>
       </c>
@@ -14192,7 +14281,7 @@
       <c r="C119" s="14">
         <v>0.69093749999999998</v>
       </c>
-      <c r="D119" s="129"/>
+      <c r="D119" s="115"/>
       <c r="E119" s="30">
         <v>21.5</v>
       </c>
@@ -14302,7 +14391,7 @@
       <c r="C120" s="20">
         <v>0.6959953703703704</v>
       </c>
-      <c r="D120" s="132"/>
+      <c r="D120" s="118"/>
       <c r="E120" s="34">
         <v>21.5</v>
       </c>
@@ -14412,7 +14501,7 @@
       <c r="C121" s="14">
         <v>0.35362268518518519</v>
       </c>
-      <c r="D121" s="131" t="s">
+      <c r="D121" s="117" t="s">
         <v>74</v>
       </c>
       <c r="E121" s="30">
@@ -14527,7 +14616,7 @@
       <c r="C122" s="14">
         <v>0.35935185185185187</v>
       </c>
-      <c r="D122" s="129"/>
+      <c r="D122" s="115"/>
       <c r="E122" s="30">
         <v>21.5</v>
       </c>
@@ -14637,7 +14726,7 @@
       <c r="C123" s="14">
         <v>0.36489583333333336</v>
       </c>
-      <c r="D123" s="129"/>
+      <c r="D123" s="115"/>
       <c r="E123" s="30">
         <v>21.5</v>
       </c>
@@ -14747,7 +14836,7 @@
       <c r="C124" s="14">
         <v>0.3702893518518518</v>
       </c>
-      <c r="D124" s="129"/>
+      <c r="D124" s="115"/>
       <c r="E124" s="30">
         <v>21.5</v>
       </c>
@@ -14857,7 +14946,7 @@
       <c r="C125" s="17">
         <v>0.37462962962962965</v>
       </c>
-      <c r="D125" s="130"/>
+      <c r="D125" s="116"/>
       <c r="E125" s="32">
         <v>21.5</v>
       </c>
@@ -14970,7 +15059,7 @@
       <c r="C126" s="14">
         <v>0.39401620370370366</v>
       </c>
-      <c r="D126" s="128" t="s">
+      <c r="D126" s="114" t="s">
         <v>101</v>
       </c>
       <c r="E126" s="30">
@@ -15083,7 +15172,7 @@
       <c r="C127" s="14">
         <v>0.39855324074074078</v>
       </c>
-      <c r="D127" s="129"/>
+      <c r="D127" s="115"/>
       <c r="E127" s="30">
         <v>21.5</v>
       </c>
@@ -15191,7 +15280,7 @@
       <c r="C128" s="14">
         <v>0.40497685185185189</v>
       </c>
-      <c r="D128" s="129"/>
+      <c r="D128" s="115"/>
       <c r="E128" s="30">
         <v>21.5</v>
       </c>
@@ -15297,7 +15386,7 @@
       <c r="C129" s="14">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D129" s="129"/>
+      <c r="D129" s="115"/>
       <c r="E129" s="30">
         <v>21.5</v>
       </c>
@@ -15403,7 +15492,7 @@
       <c r="C130" s="94">
         <v>0.41446759259259264</v>
       </c>
-      <c r="D130" s="129"/>
+      <c r="D130" s="115"/>
       <c r="E130" s="95">
         <v>21.5</v>
       </c>
@@ -15512,7 +15601,7 @@
       <c r="C131" s="14">
         <v>0.55081018518518521</v>
       </c>
-      <c r="D131" s="129"/>
+      <c r="D131" s="115"/>
       <c r="E131" s="30">
         <v>21.5</v>
       </c>
@@ -15625,7 +15714,7 @@
       <c r="C132" s="14">
         <v>0.56247685185185181</v>
       </c>
-      <c r="D132" s="129"/>
+      <c r="D132" s="115"/>
       <c r="E132" s="30">
         <v>21.5</v>
       </c>
@@ -15738,7 +15827,7 @@
       <c r="C133" s="14">
         <v>0.58988425925925925</v>
       </c>
-      <c r="D133" s="129"/>
+      <c r="D133" s="115"/>
       <c r="E133" s="30">
         <v>21.5</v>
       </c>
@@ -15847,7 +15936,7 @@
       <c r="C134" s="14">
         <v>0.5979282407407408</v>
       </c>
-      <c r="D134" s="129"/>
+      <c r="D134" s="115"/>
       <c r="E134" s="30">
         <v>21.5</v>
       </c>
@@ -15954,7 +16043,7 @@
       <c r="C135" s="14">
         <v>0.6090740740740741</v>
       </c>
-      <c r="D135" s="129"/>
+      <c r="D135" s="115"/>
       <c r="E135" s="30">
         <v>21.5</v>
       </c>
@@ -16062,7 +16151,7 @@
       <c r="C136" s="14">
         <v>0.61596064814814822</v>
       </c>
-      <c r="D136" s="129"/>
+      <c r="D136" s="115"/>
       <c r="E136" s="30">
         <v>21.5</v>
       </c>
@@ -16170,7 +16259,7 @@
       <c r="C137" s="17">
         <v>0.62081018518518516</v>
       </c>
-      <c r="D137" s="130"/>
+      <c r="D137" s="116"/>
       <c r="E137" s="32">
         <v>21.5</v>
       </c>
@@ -16833,8 +16922,25 @@
         <v>86</v>
       </c>
     </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="137"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="D51:D58"/>
@@ -16848,22 +16954,9 @@
     <mergeCell ref="D81:D84"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D62:D64"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="D8:D14"/>
-    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>